--- a/NOMAC_Work Order Manangement.xlsx
+++ b/NOMAC_Work Order Manangement.xlsx
@@ -28887,7 +28887,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K78"/>
+  <dimension ref="A1:K510"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
@@ -29136,7 +29136,7 @@
       </c>
       <c r="E11" s="16" t="inlineStr">
         <is>
-          <t>Enter John in Fname Field</t>
+          <t>Enter Johnny in name Field</t>
         </is>
       </c>
       <c r="F11" s="45" t="inlineStr">
@@ -29156,7 +29156,7 @@
       </c>
       <c r="E12" s="16" t="inlineStr">
         <is>
-          <t>Enter Smith in LName Field</t>
+          <t>Enter %fname% in fname Field</t>
         </is>
       </c>
       <c r="F12" s="45" t="inlineStr">
@@ -29171,7 +29171,7 @@
       </c>
       <c r="E13" s="16" t="inlineStr">
         <is>
-          <t>Enter comment in Comment Field</t>
+          <t>Enter Abou Haidar in fname Field</t>
         </is>
       </c>
       <c r="F13" s="45" t="inlineStr">
@@ -29186,7 +29186,7 @@
       </c>
       <c r="E14" s="16" t="inlineStr">
         <is>
-          <t>Upload C:\Users\johnny.abouhaidar\Desktop\myfiles\katalon\1 gZr94NExGeNsV8w5sH_CnQ.png in file2upload Field</t>
+          <t>Enter sample comment1 in comment Field</t>
         </is>
       </c>
       <c r="F14" s="45" t="inlineStr">
@@ -29202,26 +29202,31 @@
         </is>
       </c>
       <c r="D15" s="18" t="n">
+        <v>5</v>
+      </c>
+      <c r="E15" s="16" t="inlineStr">
+        <is>
+          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+        </is>
+      </c>
+      <c r="F15" s="35" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC2</t>
+        </is>
+      </c>
+      <c r="D16" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="E15" s="16" t="inlineStr">
-        <is>
-          <t>Enter Johnny in Fname Field</t>
-        </is>
-      </c>
-      <c r="F15" s="35" t="inlineStr">
-        <is>
-          <t>No validation Errors when entered</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="D16" s="18" t="n">
-        <v>2</v>
-      </c>
       <c r="E16" s="16" t="inlineStr">
         <is>
-          <t>Enter Abou Haidar in LName Field</t>
+          <t>Enter Johnny in name Field</t>
         </is>
       </c>
       <c r="F16" s="35" t="inlineStr">
@@ -29232,11 +29237,11 @@
     </row>
     <row r="17">
       <c r="D17" s="18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E17" s="16" t="inlineStr">
         <is>
-          <t>Enter comment in Comment Field</t>
+          <t>Enter %fname% in fname Field</t>
         </is>
       </c>
       <c r="F17" s="35" t="inlineStr">
@@ -29247,11 +29252,11 @@
     </row>
     <row r="18">
       <c r="D18" s="18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E18" s="16" t="inlineStr">
         <is>
-          <t>Upload C:\Users\johnny.abouhaidar\Desktop\myfiles\katalon\1 gZr94NExGeNsV8w5sH_CnQ.png in file2upload Field</t>
+          <t>Enter lname3 in fname Field</t>
         </is>
       </c>
       <c r="F18" s="35" t="inlineStr">
@@ -29267,11 +29272,11 @@
         </is>
       </c>
       <c r="D19" s="18" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E19" s="16" t="inlineStr">
         <is>
-          <t>Enter NewName in Fname Field</t>
+          <t>Enter hello in comment Field</t>
         </is>
       </c>
       <c r="F19" s="40" t="inlineStr">
@@ -29282,11 +29287,11 @@
     </row>
     <row r="20">
       <c r="D20" s="18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E20" s="16" t="inlineStr">
         <is>
-          <t>Enter NewLname in LName Field</t>
+          <t>Upload nan in file2upload Field</t>
         </is>
       </c>
       <c r="F20" s="40" t="inlineStr">
@@ -29296,12 +29301,17 @@
       </c>
     </row>
     <row r="21" ht="29.25" customHeight="1" s="41">
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC3</t>
+        </is>
+      </c>
       <c r="D21" s="18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E21" s="16" t="inlineStr">
         <is>
-          <t>Enter nan in Comment Field</t>
+          <t>Enter name3 in name Field</t>
         </is>
       </c>
       <c r="F21" s="40" t="inlineStr">
@@ -29315,11 +29325,11 @@
       <c r="B22" s="17" t="n"/>
       <c r="C22" s="40" t="n"/>
       <c r="D22" s="18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E22" s="16" t="inlineStr">
         <is>
-          <t>Upload C:\Users\johnny.abouhaidar\Desktop\myfiles\katalon\1 gZr94NExGeNsV8w5sH_CnQ.png in file2upload Field</t>
+          <t>Enter %fname% in fname Field</t>
         </is>
       </c>
       <c r="F22" s="45" t="inlineStr">
@@ -29340,11 +29350,11 @@
         </is>
       </c>
       <c r="D23" s="18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E23" s="16" t="inlineStr">
         <is>
-          <t>Enter John in Fname Field</t>
+          <t>Enter lname3 in fname Field</t>
         </is>
       </c>
       <c r="F23" s="35" t="inlineStr">
@@ -29355,11 +29365,11 @@
     </row>
     <row r="24">
       <c r="D24" s="18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E24" s="16" t="inlineStr">
         <is>
-          <t>Enter Smith in LName Field</t>
+          <t>Enter hello in comment Field</t>
         </is>
       </c>
       <c r="F24" s="40" t="inlineStr">
@@ -29370,11 +29380,11 @@
     </row>
     <row r="25" ht="31.5" customHeight="1" s="41">
       <c r="D25" s="18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E25" s="16" t="inlineStr">
         <is>
-          <t>Enter comment in Comment Field</t>
+          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F25" s="40" t="inlineStr">
@@ -29384,12 +29394,17 @@
       </c>
     </row>
     <row r="26">
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC4</t>
+        </is>
+      </c>
       <c r="D26" s="18" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E26" s="16" t="inlineStr">
         <is>
-          <t>Upload C:\Users\johnny.abouhaidar\Desktop\myfiles\katalon\1 gZr94NExGeNsV8w5sH_CnQ.png in file2upload Field</t>
+          <t>Enter name3 in name Field</t>
         </is>
       </c>
       <c r="F26" s="40" t="inlineStr">
@@ -29405,11 +29420,11 @@
         </is>
       </c>
       <c r="D27" s="18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E27" s="16" t="inlineStr">
         <is>
-          <t>Enter Johnny in Fname Field</t>
+          <t>Enter %fname% in fname Field</t>
         </is>
       </c>
       <c r="F27" s="35" t="inlineStr">
@@ -29420,11 +29435,11 @@
     </row>
     <row r="28">
       <c r="D28" s="18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E28" s="16" t="inlineStr">
         <is>
-          <t>Enter Abou Haidar in LName Field</t>
+          <t>Enter lname3 in fname Field</t>
         </is>
       </c>
       <c r="F28" s="35" t="inlineStr">
@@ -29435,11 +29450,11 @@
     </row>
     <row r="29">
       <c r="D29" s="18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E29" s="16" t="inlineStr">
         <is>
-          <t>Enter comment in Comment Field</t>
+          <t>Enter hello in comment Field</t>
         </is>
       </c>
       <c r="F29" s="35" t="inlineStr">
@@ -29455,11 +29470,11 @@
     </row>
     <row r="30">
       <c r="D30" s="35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E30" s="36" t="inlineStr">
         <is>
-          <t>Upload C:\Users\johnny.abouhaidar\Desktop\myfiles\katalon\1 gZr94NExGeNsV8w5sH_CnQ.png in file2upload Field</t>
+          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F30" s="35" t="inlineStr">
@@ -29471,7 +29486,7 @@
     <row r="31">
       <c r="C31" t="inlineStr">
         <is>
-          <t>NOMAC_Process1_TC6</t>
+          <t>NOMAC_Process1_TC5</t>
         </is>
       </c>
       <c r="D31" s="35" t="n">
@@ -29479,7 +29494,7 @@
       </c>
       <c r="E31" s="36" t="inlineStr">
         <is>
-          <t>Enter NewName in Fname Field</t>
+          <t>Enter Johnny in name Field</t>
         </is>
       </c>
       <c r="F31" s="35" t="inlineStr">
@@ -29494,7 +29509,7 @@
       </c>
       <c r="E32" s="36" t="inlineStr">
         <is>
-          <t>Enter NewLname in LName Field</t>
+          <t>Enter %fname% in fname Field</t>
         </is>
       </c>
       <c r="F32" s="35" t="inlineStr">
@@ -29509,7 +29524,7 @@
       </c>
       <c r="E33" s="36" t="inlineStr">
         <is>
-          <t>Enter nan in Comment Field</t>
+          <t>Enter Abou Haidar in fname Field</t>
         </is>
       </c>
       <c r="F33" s="35" t="inlineStr">
@@ -29524,7 +29539,7 @@
       </c>
       <c r="E34" s="36" t="inlineStr">
         <is>
-          <t>Upload C:\Users\johnny.abouhaidar\Desktop\myfiles\katalon\1 gZr94NExGeNsV8w5sH_CnQ.png in file2upload Field</t>
+          <t>Enter hello in comment Field</t>
         </is>
       </c>
       <c r="F34" s="35" t="inlineStr">
@@ -29540,26 +29555,31 @@
         </is>
       </c>
       <c r="D35" s="35" t="n">
+        <v>5</v>
+      </c>
+      <c r="E35" s="36" t="inlineStr">
+        <is>
+          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+        </is>
+      </c>
+      <c r="F35" s="35" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC6</t>
+        </is>
+      </c>
+      <c r="D36" s="35" t="n">
         <v>1</v>
       </c>
-      <c r="E35" s="36" t="inlineStr">
-        <is>
-          <t>Enter nan in Fname Field</t>
-        </is>
-      </c>
-      <c r="F35" s="35" t="inlineStr">
-        <is>
-          <t>No validation Errors when entered</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="D36" s="35" t="n">
-        <v>2</v>
-      </c>
       <c r="E36" s="36" t="inlineStr">
         <is>
-          <t>Enter Abou Haidar in LName Field</t>
+          <t>Enter Johnny in name Field</t>
         </is>
       </c>
       <c r="F36" s="35" t="inlineStr">
@@ -29570,11 +29590,11 @@
     </row>
     <row r="37">
       <c r="D37" s="35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E37" s="36" t="inlineStr">
         <is>
-          <t>Enter comment in Comment Field</t>
+          <t>Enter %fname% in fname Field</t>
         </is>
       </c>
       <c r="F37" s="35" t="inlineStr">
@@ -29585,11 +29605,11 @@
     </row>
     <row r="38">
       <c r="D38" s="35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E38" s="36" t="inlineStr">
         <is>
-          <t>Upload C:\Users\johnny.abouhaidar\Desktop\myfiles\katalon\1 gZr94NExGeNsV8w5sH_CnQ.png in file2upload Field</t>
+          <t>Enter Abou Haidar in fname Field</t>
         </is>
       </c>
       <c r="F38" s="35" t="inlineStr">
@@ -29605,11 +29625,11 @@
         </is>
       </c>
       <c r="D39" s="35" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E39" s="36" t="inlineStr">
         <is>
-          <t>Enter NewName in Fname Field</t>
+          <t>Enter hello in comment Field</t>
         </is>
       </c>
       <c r="F39" s="35" t="inlineStr">
@@ -29620,11 +29640,11 @@
     </row>
     <row r="40">
       <c r="D40" s="35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E40" s="36" t="inlineStr">
         <is>
-          <t>Enter NewLname in LName Field</t>
+          <t>Upload nan in file2upload Field</t>
         </is>
       </c>
       <c r="F40" s="35" t="inlineStr">
@@ -29634,12 +29654,17 @@
       </c>
     </row>
     <row r="41">
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC7</t>
+        </is>
+      </c>
       <c r="D41" s="35" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E41" s="36" t="inlineStr">
         <is>
-          <t>Enter nan in Comment Field</t>
+          <t>Enter name3 in name Field</t>
         </is>
       </c>
       <c r="F41" s="35" t="inlineStr">
@@ -29650,11 +29675,11 @@
     </row>
     <row r="42">
       <c r="D42" s="35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E42" s="36" t="inlineStr">
         <is>
-          <t>Upload C:\Users\johnny.abouhaidar\Desktop\myfiles\katalon\1 gZr94NExGeNsV8w5sH_CnQ.png in file2upload Field</t>
+          <t>Enter %fname% in fname Field</t>
         </is>
       </c>
       <c r="F42" s="35" t="inlineStr">
@@ -29670,11 +29695,11 @@
         </is>
       </c>
       <c r="D43" s="35" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E43" s="36" t="inlineStr">
         <is>
-          <t>Enter John in Fname Field</t>
+          <t>Enter lname3 in fname Field</t>
         </is>
       </c>
       <c r="F43" s="35" t="inlineStr">
@@ -29685,11 +29710,11 @@
     </row>
     <row r="44">
       <c r="D44" s="35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E44" s="36" t="inlineStr">
         <is>
-          <t>Enter Smith in LName Field</t>
+          <t>Enter hello in comment Field</t>
         </is>
       </c>
       <c r="F44" s="35" t="inlineStr">
@@ -29700,11 +29725,11 @@
     </row>
     <row r="45">
       <c r="D45" s="35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E45" s="36" t="inlineStr">
         <is>
-          <t>Enter comment in Comment Field</t>
+          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F45" s="35" t="inlineStr">
@@ -29714,12 +29739,17 @@
       </c>
     </row>
     <row r="46">
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC8</t>
+        </is>
+      </c>
       <c r="D46" s="35" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E46" s="36" t="inlineStr">
         <is>
-          <t>Upload C:\Users\johnny.abouhaidar\Desktop\myfiles\katalon\1 gZr94NExGeNsV8w5sH_CnQ.png in file2upload Field</t>
+          <t>Enter name3 in name Field</t>
         </is>
       </c>
       <c r="F46" s="35" t="inlineStr">
@@ -29735,11 +29765,11 @@
         </is>
       </c>
       <c r="D47" s="35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E47" s="36" t="inlineStr">
         <is>
-          <t>Enter John in Fname Field</t>
+          <t>Enter %fname% in fname Field</t>
         </is>
       </c>
       <c r="F47" s="35" t="inlineStr">
@@ -29750,11 +29780,11 @@
     </row>
     <row r="48">
       <c r="D48" s="35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E48" s="36" t="inlineStr">
         <is>
-          <t>Enter Smith in LName Field</t>
+          <t>Enter Abou Haidar in fname Field</t>
         </is>
       </c>
       <c r="F48" s="35" t="inlineStr">
@@ -29765,11 +29795,11 @@
     </row>
     <row r="49">
       <c r="D49" s="22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E49" s="37" t="inlineStr">
         <is>
-          <t>Enter comment in Comment Field</t>
+          <t>Enter hello in comment Field</t>
         </is>
       </c>
       <c r="F49" s="22" t="inlineStr">
@@ -29780,11 +29810,11 @@
     </row>
     <row r="50">
       <c r="D50" s="22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E50" s="20" t="inlineStr">
         <is>
-          <t>Upload C:\Users\johnny.abouhaidar\Desktop\myfiles\katalon\1 gZr94NExGeNsV8w5sH_CnQ.png in file2upload Field</t>
+          <t>Upload nan in file2upload Field</t>
         </is>
       </c>
       <c r="F50" s="35" t="inlineStr">
@@ -29796,7 +29826,7 @@
     <row r="51">
       <c r="C51" t="inlineStr">
         <is>
-          <t>NOMAC_Process1_TC11</t>
+          <t>NOMAC_Process1_TC9</t>
         </is>
       </c>
       <c r="D51" s="22" t="n">
@@ -29804,7 +29834,7 @@
       </c>
       <c r="E51" s="20" t="inlineStr">
         <is>
-          <t>Enter Johnny in Fname Field</t>
+          <t>Enter Johnny in name Field</t>
         </is>
       </c>
       <c r="F51" s="35" t="inlineStr">
@@ -29819,7 +29849,7 @@
       </c>
       <c r="E52" s="20" t="inlineStr">
         <is>
-          <t>Enter Abou Haidar in LName Field</t>
+          <t>Enter %fname% in fname Field</t>
         </is>
       </c>
       <c r="F52" s="35" t="inlineStr">
@@ -29834,7 +29864,7 @@
       </c>
       <c r="E53" s="20" t="inlineStr">
         <is>
-          <t>Enter comment in Comment Field</t>
+          <t>Enter Abou Haidar in fname Field</t>
         </is>
       </c>
       <c r="F53" s="35" t="inlineStr">
@@ -29849,7 +29879,7 @@
       </c>
       <c r="E54" s="20" t="inlineStr">
         <is>
-          <t>Upload C:\Users\johnny.abouhaidar\Desktop\myfiles\katalon\1 gZr94NExGeNsV8w5sH_CnQ.png in file2upload Field</t>
+          <t>Enter hello in comment Field</t>
         </is>
       </c>
       <c r="F54" s="35" t="inlineStr">
@@ -29865,11 +29895,11 @@
         </is>
       </c>
       <c r="D55" s="22" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E55" s="20" t="inlineStr">
         <is>
-          <t>Enter NewName in Fname Field</t>
+          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F55" s="35" t="inlineStr">
@@ -29880,13 +29910,17 @@
     </row>
     <row r="56">
       <c r="B56" s="13" t="n"/>
-      <c r="C56" s="22" t="n"/>
+      <c r="C56" s="22" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC10</t>
+        </is>
+      </c>
       <c r="D56" s="22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E56" s="20" t="inlineStr">
         <is>
-          <t>Enter nan in LName Field</t>
+          <t>Enter name3 in name Field</t>
         </is>
       </c>
       <c r="F56" s="35" t="inlineStr">
@@ -29899,11 +29933,11 @@
       <c r="B57" s="13" t="n"/>
       <c r="C57" s="22" t="n"/>
       <c r="D57" s="22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E57" s="20" t="inlineStr">
         <is>
-          <t>Enter nan in Comment Field</t>
+          <t>Enter %fname% in fname Field</t>
         </is>
       </c>
       <c r="F57" s="35" t="inlineStr">
@@ -29916,11 +29950,11 @@
       <c r="B58" s="13" t="n"/>
       <c r="C58" s="22" t="n"/>
       <c r="D58" s="22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E58" s="20" t="inlineStr">
         <is>
-          <t>Upload C:\Users\johnny.abouhaidar\Desktop\myfiles\katalon\1 gZr94NExGeNsV8w5sH_CnQ.png in file2upload Field</t>
+          <t>Enter Abou Haidar in fname Field</t>
         </is>
       </c>
       <c r="F58" s="35" t="inlineStr">
@@ -29937,11 +29971,11 @@
         </is>
       </c>
       <c r="D59" s="22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E59" s="20" t="inlineStr">
         <is>
-          <t>Enter nan in Fname Field</t>
+          <t>Enter sample comment1 in comment Field</t>
         </is>
       </c>
       <c r="F59" s="35" t="inlineStr">
@@ -29954,11 +29988,11 @@
       <c r="B60" s="13" t="n"/>
       <c r="C60" s="22" t="n"/>
       <c r="D60" s="22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E60" s="20" t="inlineStr">
         <is>
-          <t>Enter Abou Haidar in LName Field</t>
+          <t>Upload nan in file2upload Field</t>
         </is>
       </c>
       <c r="F60" s="35" t="inlineStr">
@@ -29969,13 +30003,17 @@
     </row>
     <row r="61">
       <c r="B61" s="13" t="n"/>
-      <c r="C61" s="22" t="n"/>
+      <c r="C61" s="22" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC11</t>
+        </is>
+      </c>
       <c r="D61" s="22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E61" s="20" t="inlineStr">
         <is>
-          <t>Enter comment in Comment Field</t>
+          <t>Enter Johnny in name Field</t>
         </is>
       </c>
       <c r="F61" s="35" t="inlineStr">
@@ -29988,11 +30026,11 @@
       <c r="B62" s="13" t="n"/>
       <c r="C62" s="22" t="n"/>
       <c r="D62" s="22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E62" s="20" t="inlineStr">
         <is>
-          <t>Upload C:\Users\johnny.abouhaidar\Desktop\myfiles\katalon\1 gZr94NExGeNsV8w5sH_CnQ.png in file2upload Field</t>
+          <t>Enter %fname% in fname Field</t>
         </is>
       </c>
       <c r="F62" s="35" t="inlineStr">
@@ -30009,11 +30047,11 @@
         </is>
       </c>
       <c r="D63" s="22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E63" s="20" t="inlineStr">
         <is>
-          <t>Enter NewName in Fname Field</t>
+          <t>Enter Abou Haidar in fname Field</t>
         </is>
       </c>
       <c r="F63" s="35" t="inlineStr">
@@ -30026,11 +30064,11 @@
       <c r="B64" s="13" t="n"/>
       <c r="C64" s="22" t="n"/>
       <c r="D64" s="22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E64" s="20" t="inlineStr">
         <is>
-          <t>Enter NewLname in LName Field</t>
+          <t>Enter sample comment1 in comment Field</t>
         </is>
       </c>
       <c r="F64" s="35" t="inlineStr">
@@ -30043,11 +30081,11 @@
       <c r="B65" s="13" t="n"/>
       <c r="C65" s="22" t="n"/>
       <c r="D65" s="22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E65" s="20" t="inlineStr">
         <is>
-          <t>Enter nan in Comment Field</t>
+          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F65" s="35" t="inlineStr">
@@ -30058,13 +30096,17 @@
     </row>
     <row r="66">
       <c r="B66" s="13" t="n"/>
-      <c r="C66" s="22" t="n"/>
+      <c r="C66" s="22" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC12</t>
+        </is>
+      </c>
       <c r="D66" s="22" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E66" s="20" t="inlineStr">
         <is>
-          <t>Upload C:\Users\johnny.abouhaidar\Desktop\myfiles\katalon\1 gZr94NExGeNsV8w5sH_CnQ.png in file2upload Field</t>
+          <t>Enter name3 in name Field</t>
         </is>
       </c>
       <c r="F66" s="35" t="inlineStr">
@@ -30081,11 +30123,11 @@
         </is>
       </c>
       <c r="D67" s="22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E67" s="20" t="inlineStr">
         <is>
-          <t>Enter nan in Fname Field</t>
+          <t>Enter %fname% in fname Field</t>
         </is>
       </c>
       <c r="F67" s="35" t="inlineStr">
@@ -30098,11 +30140,11 @@
       <c r="B68" s="13" t="n"/>
       <c r="C68" s="22" t="n"/>
       <c r="D68" s="22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E68" s="20" t="inlineStr">
         <is>
-          <t>Enter Smith in LName Field</t>
+          <t>Enter Abou Haidar in fname Field</t>
         </is>
       </c>
       <c r="F68" s="35" t="inlineStr">
@@ -30115,11 +30157,11 @@
       <c r="B69" s="13" t="n"/>
       <c r="C69" s="22" t="n"/>
       <c r="D69" s="22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E69" s="20" t="inlineStr">
         <is>
-          <t>Enter comment in Comment Field</t>
+          <t>Enter hello in comment Field</t>
         </is>
       </c>
       <c r="F69" s="35" t="inlineStr">
@@ -30132,11 +30174,11 @@
       <c r="B70" s="13" t="n"/>
       <c r="C70" s="22" t="n"/>
       <c r="D70" s="22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E70" s="20" t="inlineStr">
         <is>
-          <t>Upload C:\Users\johnny.abouhaidar\Desktop\myfiles\katalon\1 gZr94NExGeNsV8w5sH_CnQ.png in file2upload Field</t>
+          <t>Upload nan in file2upload Field</t>
         </is>
       </c>
       <c r="F70" s="35" t="inlineStr">
@@ -30147,58 +30189,7057 @@
     </row>
     <row r="71">
       <c r="B71" s="13" t="n"/>
-      <c r="C71" s="22" t="n"/>
-      <c r="D71" s="22" t="n"/>
-      <c r="E71" s="20" t="n"/>
-      <c r="F71" s="20" t="n"/>
+      <c r="C71" s="22" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC13</t>
+        </is>
+      </c>
+      <c r="D71" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E71" s="20" t="inlineStr">
+        <is>
+          <t>Enter name3 in name Field</t>
+        </is>
+      </c>
+      <c r="F71" s="20" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="B72" s="13" t="n"/>
       <c r="C72" s="22" t="n"/>
-      <c r="D72" s="22" t="n"/>
-      <c r="E72" s="20" t="n"/>
-      <c r="F72" s="20" t="n"/>
+      <c r="D72" s="22" t="n">
+        <v>2</v>
+      </c>
+      <c r="E72" s="20" t="inlineStr">
+        <is>
+          <t>Enter %fname% in fname Field</t>
+        </is>
+      </c>
+      <c r="F72" s="20" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="B73" s="13" t="n"/>
       <c r="C73" s="22" t="n"/>
-      <c r="D73" s="22" t="n"/>
-      <c r="E73" s="20" t="n"/>
-      <c r="F73" s="20" t="n"/>
+      <c r="D73" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="E73" s="20" t="inlineStr">
+        <is>
+          <t>Enter Abou Haidar in fname Field</t>
+        </is>
+      </c>
+      <c r="F73" s="20" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="B74" s="13" t="n"/>
       <c r="C74" s="22" t="n"/>
-      <c r="D74" s="22" t="n"/>
-      <c r="E74" s="20" t="n"/>
-      <c r="F74" s="20" t="n"/>
+      <c r="D74" s="22" t="n">
+        <v>4</v>
+      </c>
+      <c r="E74" s="20" t="inlineStr">
+        <is>
+          <t>Enter sample comment1 in comment Field</t>
+        </is>
+      </c>
+      <c r="F74" s="20" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="B75" s="13" t="n"/>
       <c r="C75" s="22" t="n"/>
-      <c r="D75" s="22" t="n"/>
-      <c r="E75" s="20" t="n"/>
-      <c r="F75" s="20" t="n"/>
+      <c r="D75" s="22" t="n">
+        <v>5</v>
+      </c>
+      <c r="E75" s="20" t="inlineStr">
+        <is>
+          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+        </is>
+      </c>
+      <c r="F75" s="20" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="B76" s="13" t="n"/>
-      <c r="C76" s="22" t="n"/>
-      <c r="D76" s="22" t="n"/>
-      <c r="E76" s="20" t="n"/>
-      <c r="F76" s="20" t="n"/>
+      <c r="C76" s="22" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC14</t>
+        </is>
+      </c>
+      <c r="D76" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E76" s="20" t="inlineStr">
+        <is>
+          <t>Enter Johnny in name Field</t>
+        </is>
+      </c>
+      <c r="F76" s="20" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="B77" s="13" t="n"/>
       <c r="C77" s="22" t="n"/>
-      <c r="D77" s="22" t="n"/>
-      <c r="E77" s="20" t="n"/>
-      <c r="F77" s="20" t="n"/>
+      <c r="D77" s="22" t="n">
+        <v>2</v>
+      </c>
+      <c r="E77" s="20" t="inlineStr">
+        <is>
+          <t>Enter %fname% in fname Field</t>
+        </is>
+      </c>
+      <c r="F77" s="20" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="B78" s="13" t="n"/>
       <c r="C78" s="22" t="n"/>
-      <c r="D78" s="22" t="n"/>
-      <c r="F78" s="13" t="n"/>
+      <c r="D78" s="22" t="n">
+        <v>3</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Enter lname3 in fname Field</t>
+        </is>
+      </c>
+      <c r="F78" s="13" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="D79" t="n">
+        <v>4</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Enter hello in comment Field</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="D80" t="n">
+        <v>5</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Upload nan in file2upload Field</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC15</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>1</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Enter Johnny in name Field</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="D82" t="n">
+        <v>2</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Enter %fname% in fname Field</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="D83" t="n">
+        <v>3</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Enter Abou Haidar in fname Field</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="D84" t="n">
+        <v>4</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Enter hello in comment Field</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="D85" t="n">
+        <v>5</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC16</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>1</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Enter Johnny in name Field</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="D87" t="n">
+        <v>2</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Enter %fname% in fname Field</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="D88" t="n">
+        <v>3</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Enter Abou Haidar in fname Field</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="D89" t="n">
+        <v>4</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Enter sample comment1 in comment Field</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="D90" t="n">
+        <v>5</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC17</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>1</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Enter Johnny in name Field</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="D92" t="n">
+        <v>2</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Enter %fname% in fname Field</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="D93" t="n">
+        <v>3</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Enter Abou Haidar in fname Field</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="D94" t="n">
+        <v>4</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Enter sample comment1 in comment Field</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="D95" t="n">
+        <v>5</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Upload nan in file2upload Field</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC18</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>1</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Enter Johnny in name Field</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="D97" t="n">
+        <v>2</v>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Enter %fname% in fname Field</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="D98" t="n">
+        <v>3</v>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Enter lname3 in fname Field</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="D99" t="n">
+        <v>4</v>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Enter sample comment1 in comment Field</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="D100" t="n">
+        <v>5</v>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC19</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>1</v>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Enter Johnny in name Field</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="D102" t="n">
+        <v>2</v>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Enter %fname% in fname Field</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="D103" t="n">
+        <v>3</v>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Enter lname3 in fname Field</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="D104" t="n">
+        <v>4</v>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Enter hello in comment Field</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="D105" t="n">
+        <v>5</v>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Upload nan in file2upload Field</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC20</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>1</v>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Enter name3 in name Field</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="D107" t="n">
+        <v>2</v>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Enter %fname% in fname Field</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="D108" t="n">
+        <v>3</v>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Enter Abou Haidar in fname Field</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="D109" t="n">
+        <v>4</v>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Enter hello in comment Field</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="D110" t="n">
+        <v>5</v>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC21</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>1</v>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Enter Johnny in name Field</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="D112" t="n">
+        <v>2</v>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Enter %fname% in fname Field</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="D113" t="n">
+        <v>3</v>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Enter Abou Haidar in fname Field</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="D114" t="n">
+        <v>4</v>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Enter sample comment1 in comment Field</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="D115" t="n">
+        <v>5</v>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Upload nan in file2upload Field</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC22</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>1</v>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Enter name3 in name Field</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="D117" t="n">
+        <v>2</v>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Enter %fname% in fname Field</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="D118" t="n">
+        <v>3</v>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Enter lname3 in fname Field</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="D119" t="n">
+        <v>4</v>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Enter sample comment1 in comment Field</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="D120" t="n">
+        <v>5</v>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC23</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>1</v>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Enter Johnny in name Field</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="D122" t="n">
+        <v>2</v>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Enter %fname% in fname Field</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="D123" t="n">
+        <v>3</v>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Enter Abou Haidar in fname Field</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="D124" t="n">
+        <v>4</v>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Enter sample comment1 in comment Field</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="D125" t="n">
+        <v>5</v>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC24</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>1</v>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Enter Johnny in name Field</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="D127" t="n">
+        <v>2</v>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Enter %fname% in fname Field</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="D128" t="n">
+        <v>3</v>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Enter lname3 in fname Field</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="D129" t="n">
+        <v>4</v>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Enter hello in comment Field</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="D130" t="n">
+        <v>5</v>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC25</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>1</v>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>Enter name3 in name Field</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="D132" t="n">
+        <v>2</v>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Enter %fname% in fname Field</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="D133" t="n">
+        <v>3</v>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Enter Abou Haidar in fname Field</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="D134" t="n">
+        <v>4</v>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Enter hello in comment Field</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="D135" t="n">
+        <v>5</v>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>Upload nan in file2upload Field</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC26</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>1</v>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Enter Johnny in name Field</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="D137" t="n">
+        <v>2</v>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Enter %fname% in fname Field</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="D138" t="n">
+        <v>3</v>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>Enter Abou Haidar in fname Field</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="D139" t="n">
+        <v>4</v>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>Enter hello in comment Field</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="D140" t="n">
+        <v>5</v>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC27</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>1</v>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>Enter name3 in name Field</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="D142" t="n">
+        <v>2</v>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>Enter %fname% in fname Field</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="D143" t="n">
+        <v>3</v>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>Enter Abou Haidar in fname Field</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="D144" t="n">
+        <v>4</v>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>Enter hello in comment Field</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="D145" t="n">
+        <v>5</v>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC28</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>1</v>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>Enter name3 in name Field</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="D147" t="n">
+        <v>2</v>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>Enter %fname% in fname Field</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="D148" t="n">
+        <v>3</v>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>Enter Abou Haidar in fname Field</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="D149" t="n">
+        <v>4</v>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>Enter sample comment1 in comment Field</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="D150" t="n">
+        <v>5</v>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC29</t>
+        </is>
+      </c>
+      <c r="D151" t="n">
+        <v>1</v>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>Enter name3 in name Field</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="D152" t="n">
+        <v>2</v>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>Enter %fname% in fname Field</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="D153" t="n">
+        <v>3</v>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>Enter lname3 in fname Field</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="D154" t="n">
+        <v>4</v>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>Enter sample comment1 in comment Field</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="D155" t="n">
+        <v>5</v>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>Upload nan in file2upload Field</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC30</t>
+        </is>
+      </c>
+      <c r="D156" t="n">
+        <v>1</v>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>Enter name3 in name Field</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="D157" t="n">
+        <v>2</v>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>Enter %fname% in fname Field</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="D158" t="n">
+        <v>3</v>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>Enter Abou Haidar in fname Field</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="D159" t="n">
+        <v>4</v>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>Enter hello in comment Field</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="D160" t="n">
+        <v>5</v>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC31</t>
+        </is>
+      </c>
+      <c r="D161" t="n">
+        <v>1</v>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>Enter Johnny in name Field</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="D162" t="n">
+        <v>2</v>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>Enter %fname% in fname Field</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="D163" t="n">
+        <v>3</v>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>Enter lname3 in fname Field</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="D164" t="n">
+        <v>4</v>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>Enter hello in comment Field</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="D165" t="n">
+        <v>5</v>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>Upload nan in file2upload Field</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC32</t>
+        </is>
+      </c>
+      <c r="D166" t="n">
+        <v>1</v>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>Enter Johnny in name Field</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="D167" t="n">
+        <v>2</v>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>Enter %fname% in fname Field</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="D168" t="n">
+        <v>3</v>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>Enter Abou Haidar in fname Field</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="D169" t="n">
+        <v>4</v>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>Enter sample comment1 in comment Field</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="D170" t="n">
+        <v>5</v>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC33</t>
+        </is>
+      </c>
+      <c r="D171" t="n">
+        <v>1</v>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>Enter Johnny in name Field</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="D172" t="n">
+        <v>2</v>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>Enter %fname% in fname Field</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="D173" t="n">
+        <v>3</v>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>Enter Abou Haidar in fname Field</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="D174" t="n">
+        <v>4</v>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>Enter hello in comment Field</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="D175" t="n">
+        <v>5</v>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC34</t>
+        </is>
+      </c>
+      <c r="D176" t="n">
+        <v>1</v>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>Enter name3 in name Field</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="D177" t="n">
+        <v>2</v>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>Enter %fname% in fname Field</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="D178" t="n">
+        <v>3</v>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>Enter Abou Haidar in fname Field</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="D179" t="n">
+        <v>4</v>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>Enter sample comment1 in comment Field</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="D180" t="n">
+        <v>5</v>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC35</t>
+        </is>
+      </c>
+      <c r="D181" t="n">
+        <v>1</v>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>Enter Johnny in name Field</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="D182" t="n">
+        <v>2</v>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>Enter %fname% in fname Field</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="D183" t="n">
+        <v>3</v>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>Enter Abou Haidar in fname Field</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="D184" t="n">
+        <v>4</v>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>Enter hello in comment Field</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="D185" t="n">
+        <v>5</v>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC36</t>
+        </is>
+      </c>
+      <c r="D186" t="n">
+        <v>1</v>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>Enter Johnny in name Field</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="D187" t="n">
+        <v>2</v>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>Enter %fname% in fname Field</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="D188" t="n">
+        <v>3</v>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>Enter Abou Haidar in fname Field</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="D189" t="n">
+        <v>4</v>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>Enter hello in comment Field</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="D190" t="n">
+        <v>5</v>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC37</t>
+        </is>
+      </c>
+      <c r="D191" t="n">
+        <v>1</v>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>Enter name3 in name Field</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="D192" t="n">
+        <v>2</v>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>Enter %fname% in fname Field</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="D193" t="n">
+        <v>3</v>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>Enter Abou Haidar in fname Field</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="D194" t="n">
+        <v>4</v>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>Enter hello in comment Field</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="D195" t="n">
+        <v>5</v>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>Upload nan in file2upload Field</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC38</t>
+        </is>
+      </c>
+      <c r="D196" t="n">
+        <v>1</v>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>Enter Johnny in name Field</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="D197" t="n">
+        <v>2</v>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>Enter %fname% in fname Field</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="D198" t="n">
+        <v>3</v>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>Enter Abou Haidar in fname Field</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="D199" t="n">
+        <v>4</v>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>Enter sample comment1 in comment Field</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="D200" t="n">
+        <v>5</v>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC39</t>
+        </is>
+      </c>
+      <c r="D201" t="n">
+        <v>1</v>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>Enter name3 in name Field</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="D202" t="n">
+        <v>2</v>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>Enter %fname% in fname Field</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="D203" t="n">
+        <v>3</v>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>Enter Abou Haidar in fname Field</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="D204" t="n">
+        <v>4</v>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>Enter hello in comment Field</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="D205" t="n">
+        <v>5</v>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>Upload nan in file2upload Field</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC40</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>1</v>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>Enter Johnny in name Field</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="D207" t="n">
+        <v>2</v>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>Enter %fname% in fname Field</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="D208" t="n">
+        <v>3</v>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>Enter Abou Haidar in fname Field</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="D209" t="n">
+        <v>4</v>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>Enter sample comment1 in comment Field</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="D210" t="n">
+        <v>5</v>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>Upload nan in file2upload Field</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC41</t>
+        </is>
+      </c>
+      <c r="D211" t="n">
+        <v>1</v>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>Enter Johnny in name Field</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="D212" t="n">
+        <v>2</v>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>Enter %fname% in fname Field</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="D213" t="n">
+        <v>3</v>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>Enter lname3 in fname Field</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="D214" t="n">
+        <v>4</v>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>Enter hello in comment Field</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="D215" t="n">
+        <v>5</v>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC42</t>
+        </is>
+      </c>
+      <c r="D216" t="n">
+        <v>1</v>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>Enter Johnny in name Field</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="D217" t="n">
+        <v>2</v>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>Enter %fname% in fname Field</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="D218" t="n">
+        <v>3</v>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>Enter lname3 in fname Field</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="D219" t="n">
+        <v>4</v>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>Enter hello in comment Field</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="D220" t="n">
+        <v>5</v>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC43</t>
+        </is>
+      </c>
+      <c r="D221" t="n">
+        <v>1</v>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>Enter Johnny in name Field</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="D222" t="n">
+        <v>2</v>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>Enter %fname% in fname Field</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="D223" t="n">
+        <v>3</v>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>Enter lname3 in fname Field</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="D224" t="n">
+        <v>4</v>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>Enter hello in comment Field</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="D225" t="n">
+        <v>5</v>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC44</t>
+        </is>
+      </c>
+      <c r="D226" t="n">
+        <v>1</v>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>Enter Johnny in name Field</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="D227" t="n">
+        <v>2</v>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>Enter %fname% in fname Field</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="D228" t="n">
+        <v>3</v>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>Enter Abou Haidar in fname Field</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="D229" t="n">
+        <v>4</v>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>Enter sample comment1 in comment Field</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="D230" t="n">
+        <v>5</v>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>Upload nan in file2upload Field</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC45</t>
+        </is>
+      </c>
+      <c r="D231" t="n">
+        <v>1</v>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>Enter Johnny in name Field</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="D232" t="n">
+        <v>2</v>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>Enter %fname% in fname Field</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="D233" t="n">
+        <v>3</v>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>Enter Abou Haidar in fname Field</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="D234" t="n">
+        <v>4</v>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>Enter sample comment1 in comment Field</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="D235" t="n">
+        <v>5</v>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC46</t>
+        </is>
+      </c>
+      <c r="D236" t="n">
+        <v>1</v>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>Enter Johnny in name Field</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="D237" t="n">
+        <v>2</v>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>Enter %fname% in fname Field</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="D238" t="n">
+        <v>3</v>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>Enter lname3 in fname Field</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="D239" t="n">
+        <v>4</v>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>Enter hello in comment Field</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="D240" t="n">
+        <v>5</v>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC47</t>
+        </is>
+      </c>
+      <c r="D241" t="n">
+        <v>1</v>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>Enter Johnny in name Field</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="D242" t="n">
+        <v>2</v>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>Enter %fname% in fname Field</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="D243" t="n">
+        <v>3</v>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>Enter Abou Haidar in fname Field</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="D244" t="n">
+        <v>4</v>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>Enter hello in comment Field</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="D245" t="n">
+        <v>5</v>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC48</t>
+        </is>
+      </c>
+      <c r="D246" t="n">
+        <v>1</v>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>Enter Johnny in name Field</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="D247" t="n">
+        <v>2</v>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>Enter %fname% in fname Field</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="D248" t="n">
+        <v>3</v>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>Enter lname3 in fname Field</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="D249" t="n">
+        <v>4</v>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>Enter hello in comment Field</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="D250" t="n">
+        <v>5</v>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC49</t>
+        </is>
+      </c>
+      <c r="D251" t="n">
+        <v>1</v>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>Enter name3 in name Field</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="D252" t="n">
+        <v>2</v>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>Enter %fname% in fname Field</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="D253" t="n">
+        <v>3</v>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>Enter Abou Haidar in fname Field</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="D254" t="n">
+        <v>4</v>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>Enter sample comment1 in comment Field</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="D255" t="n">
+        <v>5</v>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>Upload nan in file2upload Field</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC50</t>
+        </is>
+      </c>
+      <c r="D256" t="n">
+        <v>1</v>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>Enter Johnny in name Field</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="D257" t="n">
+        <v>2</v>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>Enter %fname% in fname Field</t>
+        </is>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="D258" t="n">
+        <v>3</v>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>Enter Abou Haidar in fname Field</t>
+        </is>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="D259" t="n">
+        <v>4</v>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>Enter sample comment1 in comment Field</t>
+        </is>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="D260" t="n">
+        <v>5</v>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+        </is>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC51</t>
+        </is>
+      </c>
+      <c r="D261" t="n">
+        <v>1</v>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>Enter Johnny in name Field</t>
+        </is>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="D262" t="n">
+        <v>2</v>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>Enter %fname% in fname Field</t>
+        </is>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="D263" t="n">
+        <v>3</v>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>Enter Abou Haidar in fname Field</t>
+        </is>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="D264" t="n">
+        <v>4</v>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>Enter sample comment1 in comment Field</t>
+        </is>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="D265" t="n">
+        <v>5</v>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+        </is>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC52</t>
+        </is>
+      </c>
+      <c r="D266" t="n">
+        <v>1</v>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>Enter Johnny in name Field</t>
+        </is>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="D267" t="n">
+        <v>2</v>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>Enter %fname% in fname Field</t>
+        </is>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="D268" t="n">
+        <v>3</v>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>Enter lname3 in fname Field</t>
+        </is>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="D269" t="n">
+        <v>4</v>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>Enter sample comment1 in comment Field</t>
+        </is>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="D270" t="n">
+        <v>5</v>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+        </is>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC53</t>
+        </is>
+      </c>
+      <c r="D271" t="n">
+        <v>1</v>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>Enter Johnny in name Field</t>
+        </is>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="D272" t="n">
+        <v>2</v>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>Enter %fname% in fname Field</t>
+        </is>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="D273" t="n">
+        <v>3</v>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>Enter Abou Haidar in fname Field</t>
+        </is>
+      </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="D274" t="n">
+        <v>4</v>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>Enter hello in comment Field</t>
+        </is>
+      </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="D275" t="n">
+        <v>5</v>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+        </is>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC54</t>
+        </is>
+      </c>
+      <c r="D276" t="n">
+        <v>1</v>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>Enter Johnny in name Field</t>
+        </is>
+      </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="D277" t="n">
+        <v>2</v>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>Enter %fname% in fname Field</t>
+        </is>
+      </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="D278" t="n">
+        <v>3</v>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>Enter Abou Haidar in fname Field</t>
+        </is>
+      </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="D279" t="n">
+        <v>4</v>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>Enter hello in comment Field</t>
+        </is>
+      </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="D280" t="n">
+        <v>5</v>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+        </is>
+      </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC55</t>
+        </is>
+      </c>
+      <c r="D281" t="n">
+        <v>1</v>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>Enter Johnny in name Field</t>
+        </is>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="D282" t="n">
+        <v>2</v>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>Enter %fname% in fname Field</t>
+        </is>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="D283" t="n">
+        <v>3</v>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>Enter Abou Haidar in fname Field</t>
+        </is>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="D284" t="n">
+        <v>4</v>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>Enter sample comment1 in comment Field</t>
+        </is>
+      </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="D285" t="n">
+        <v>5</v>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+        </is>
+      </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC56</t>
+        </is>
+      </c>
+      <c r="D286" t="n">
+        <v>1</v>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>Enter Johnny in name Field</t>
+        </is>
+      </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="D287" t="n">
+        <v>2</v>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>Enter %fname% in fname Field</t>
+        </is>
+      </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="D288" t="n">
+        <v>3</v>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>Enter lname3 in fname Field</t>
+        </is>
+      </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="D289" t="n">
+        <v>4</v>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>Enter sample comment1 in comment Field</t>
+        </is>
+      </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="D290" t="n">
+        <v>5</v>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>Upload nan in file2upload Field</t>
+        </is>
+      </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC57</t>
+        </is>
+      </c>
+      <c r="D291" t="n">
+        <v>1</v>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>Enter Johnny in name Field</t>
+        </is>
+      </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="D292" t="n">
+        <v>2</v>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>Enter %fname% in fname Field</t>
+        </is>
+      </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="D293" t="n">
+        <v>3</v>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>Enter Abou Haidar in fname Field</t>
+        </is>
+      </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="D294" t="n">
+        <v>4</v>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>Enter sample comment1 in comment Field</t>
+        </is>
+      </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="D295" t="n">
+        <v>5</v>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+        </is>
+      </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC58</t>
+        </is>
+      </c>
+      <c r="D296" t="n">
+        <v>1</v>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>Enter Johnny in name Field</t>
+        </is>
+      </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="D297" t="n">
+        <v>2</v>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>Enter %fname% in fname Field</t>
+        </is>
+      </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="D298" t="n">
+        <v>3</v>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>Enter lname3 in fname Field</t>
+        </is>
+      </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="D299" t="n">
+        <v>4</v>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>Enter hello in comment Field</t>
+        </is>
+      </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="D300" t="n">
+        <v>5</v>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+        </is>
+      </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC59</t>
+        </is>
+      </c>
+      <c r="D301" t="n">
+        <v>1</v>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>Enter name3 in name Field</t>
+        </is>
+      </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="D302" t="n">
+        <v>2</v>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>Enter %fname% in fname Field</t>
+        </is>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="D303" t="n">
+        <v>3</v>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>Enter Abou Haidar in fname Field</t>
+        </is>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="D304" t="n">
+        <v>4</v>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>Enter hello in comment Field</t>
+        </is>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="D305" t="n">
+        <v>5</v>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+        </is>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC60</t>
+        </is>
+      </c>
+      <c r="D306" t="n">
+        <v>1</v>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>Enter Johnny in name Field</t>
+        </is>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="D307" t="n">
+        <v>2</v>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>Enter %fname% in fname Field</t>
+        </is>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="D308" t="n">
+        <v>3</v>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>Enter Abou Haidar in fname Field</t>
+        </is>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="D309" t="n">
+        <v>4</v>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>Enter hello in comment Field</t>
+        </is>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="D310" t="n">
+        <v>5</v>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+        </is>
+      </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC61</t>
+        </is>
+      </c>
+      <c r="D311" t="n">
+        <v>1</v>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>Enter Johnny in name Field</t>
+        </is>
+      </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="D312" t="n">
+        <v>2</v>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>Enter %fname% in fname Field</t>
+        </is>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="D313" t="n">
+        <v>3</v>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>Enter Abou Haidar in fname Field</t>
+        </is>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="D314" t="n">
+        <v>4</v>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>Enter hello in comment Field</t>
+        </is>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="D315" t="n">
+        <v>5</v>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+        </is>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC62</t>
+        </is>
+      </c>
+      <c r="D316" t="n">
+        <v>1</v>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>Enter name3 in name Field</t>
+        </is>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="D317" t="n">
+        <v>2</v>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>Enter %fname% in fname Field</t>
+        </is>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="D318" t="n">
+        <v>3</v>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>Enter Abou Haidar in fname Field</t>
+        </is>
+      </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="D319" t="n">
+        <v>4</v>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>Enter sample comment1 in comment Field</t>
+        </is>
+      </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="D320" t="n">
+        <v>5</v>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+        </is>
+      </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC63</t>
+        </is>
+      </c>
+      <c r="D321" t="n">
+        <v>1</v>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>Enter name3 in name Field</t>
+        </is>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="D322" t="n">
+        <v>2</v>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>Enter %fname% in fname Field</t>
+        </is>
+      </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="D323" t="n">
+        <v>3</v>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>Enter lname3 in fname Field</t>
+        </is>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="D324" t="n">
+        <v>4</v>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>Enter hello in comment Field</t>
+        </is>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="D325" t="n">
+        <v>5</v>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+        </is>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC64</t>
+        </is>
+      </c>
+      <c r="D326" t="n">
+        <v>1</v>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>Enter Johnny in name Field</t>
+        </is>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="D327" t="n">
+        <v>2</v>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>Enter %fname% in fname Field</t>
+        </is>
+      </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="D328" t="n">
+        <v>3</v>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>Enter Abou Haidar in fname Field</t>
+        </is>
+      </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="D329" t="n">
+        <v>4</v>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>Enter hello in comment Field</t>
+        </is>
+      </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="D330" t="n">
+        <v>5</v>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+        </is>
+      </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC65</t>
+        </is>
+      </c>
+      <c r="D331" t="n">
+        <v>1</v>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>Enter Johnny in name Field</t>
+        </is>
+      </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="D332" t="n">
+        <v>2</v>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>Enter %fname% in fname Field</t>
+        </is>
+      </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="D333" t="n">
+        <v>3</v>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>Enter Abou Haidar in fname Field</t>
+        </is>
+      </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="D334" t="n">
+        <v>4</v>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>Enter hello in comment Field</t>
+        </is>
+      </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="D335" t="n">
+        <v>5</v>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+        </is>
+      </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC66</t>
+        </is>
+      </c>
+      <c r="D336" t="n">
+        <v>1</v>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>Enter Johnny in name Field</t>
+        </is>
+      </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="D337" t="n">
+        <v>2</v>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>Enter %fname% in fname Field</t>
+        </is>
+      </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="D338" t="n">
+        <v>3</v>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t>Enter Abou Haidar in fname Field</t>
+        </is>
+      </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="D339" t="n">
+        <v>4</v>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>Enter hello in comment Field</t>
+        </is>
+      </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="D340" t="n">
+        <v>5</v>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+        </is>
+      </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC67</t>
+        </is>
+      </c>
+      <c r="D341" t="n">
+        <v>1</v>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>Enter Johnny in name Field</t>
+        </is>
+      </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="D342" t="n">
+        <v>2</v>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t>Enter %fname% in fname Field</t>
+        </is>
+      </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="D343" t="n">
+        <v>3</v>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t>Enter lname3 in fname Field</t>
+        </is>
+      </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="D344" t="n">
+        <v>4</v>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>Enter hello in comment Field</t>
+        </is>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="D345" t="n">
+        <v>5</v>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+        </is>
+      </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC68</t>
+        </is>
+      </c>
+      <c r="D346" t="n">
+        <v>1</v>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t>Enter Johnny in name Field</t>
+        </is>
+      </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="D347" t="n">
+        <v>2</v>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>Enter %fname% in fname Field</t>
+        </is>
+      </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="D348" t="n">
+        <v>3</v>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>Enter lname3 in fname Field</t>
+        </is>
+      </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="D349" t="n">
+        <v>4</v>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>Enter hello in comment Field</t>
+        </is>
+      </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="D350" t="n">
+        <v>5</v>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+        </is>
+      </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC69</t>
+        </is>
+      </c>
+      <c r="D351" t="n">
+        <v>1</v>
+      </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>Enter Johnny in name Field</t>
+        </is>
+      </c>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="D352" t="n">
+        <v>2</v>
+      </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>Enter %fname% in fname Field</t>
+        </is>
+      </c>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="D353" t="n">
+        <v>3</v>
+      </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>Enter lname3 in fname Field</t>
+        </is>
+      </c>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="D354" t="n">
+        <v>4</v>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>Enter sample comment1 in comment Field</t>
+        </is>
+      </c>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="D355" t="n">
+        <v>5</v>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+        </is>
+      </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC70</t>
+        </is>
+      </c>
+      <c r="D356" t="n">
+        <v>1</v>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>Enter Johnny in name Field</t>
+        </is>
+      </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="D357" t="n">
+        <v>2</v>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>Enter %fname% in fname Field</t>
+        </is>
+      </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="D358" t="n">
+        <v>3</v>
+      </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>Enter Abou Haidar in fname Field</t>
+        </is>
+      </c>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="D359" t="n">
+        <v>4</v>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>Enter sample comment1 in comment Field</t>
+        </is>
+      </c>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="D360" t="n">
+        <v>5</v>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+        </is>
+      </c>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC71</t>
+        </is>
+      </c>
+      <c r="D361" t="n">
+        <v>1</v>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>Enter Johnny in name Field</t>
+        </is>
+      </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="D362" t="n">
+        <v>2</v>
+      </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t>Enter %fname% in fname Field</t>
+        </is>
+      </c>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="D363" t="n">
+        <v>3</v>
+      </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>Enter Abou Haidar in fname Field</t>
+        </is>
+      </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="D364" t="n">
+        <v>4</v>
+      </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>Enter hello in comment Field</t>
+        </is>
+      </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="D365" t="n">
+        <v>5</v>
+      </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t>Upload nan in file2upload Field</t>
+        </is>
+      </c>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC72</t>
+        </is>
+      </c>
+      <c r="D366" t="n">
+        <v>1</v>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>Enter Johnny in name Field</t>
+        </is>
+      </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="D367" t="n">
+        <v>2</v>
+      </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>Enter %fname% in fname Field</t>
+        </is>
+      </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="D368" t="n">
+        <v>3</v>
+      </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>Enter Abou Haidar in fname Field</t>
+        </is>
+      </c>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="D369" t="n">
+        <v>4</v>
+      </c>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>Enter sample comment1 in comment Field</t>
+        </is>
+      </c>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="D370" t="n">
+        <v>5</v>
+      </c>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+        </is>
+      </c>
+      <c r="F370" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC73</t>
+        </is>
+      </c>
+      <c r="D371" t="n">
+        <v>1</v>
+      </c>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>Enter Johnny in name Field</t>
+        </is>
+      </c>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="D372" t="n">
+        <v>2</v>
+      </c>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t>Enter %fname% in fname Field</t>
+        </is>
+      </c>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="D373" t="n">
+        <v>3</v>
+      </c>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t>Enter lname3 in fname Field</t>
+        </is>
+      </c>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="D374" t="n">
+        <v>4</v>
+      </c>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t>Enter hello in comment Field</t>
+        </is>
+      </c>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="D375" t="n">
+        <v>5</v>
+      </c>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t>Upload nan in file2upload Field</t>
+        </is>
+      </c>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC74</t>
+        </is>
+      </c>
+      <c r="D376" t="n">
+        <v>1</v>
+      </c>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>Enter Johnny in name Field</t>
+        </is>
+      </c>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="D377" t="n">
+        <v>2</v>
+      </c>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t>Enter %fname% in fname Field</t>
+        </is>
+      </c>
+      <c r="F377" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="D378" t="n">
+        <v>3</v>
+      </c>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t>Enter lname3 in fname Field</t>
+        </is>
+      </c>
+      <c r="F378" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="D379" t="n">
+        <v>4</v>
+      </c>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>Enter hello in comment Field</t>
+        </is>
+      </c>
+      <c r="F379" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="D380" t="n">
+        <v>5</v>
+      </c>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t>Upload nan in file2upload Field</t>
+        </is>
+      </c>
+      <c r="F380" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC75</t>
+        </is>
+      </c>
+      <c r="D381" t="n">
+        <v>1</v>
+      </c>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>Enter Johnny in name Field</t>
+        </is>
+      </c>
+      <c r="F381" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="D382" t="n">
+        <v>2</v>
+      </c>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t>Enter %fname% in fname Field</t>
+        </is>
+      </c>
+      <c r="F382" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="D383" t="n">
+        <v>3</v>
+      </c>
+      <c r="E383" t="inlineStr">
+        <is>
+          <t>Enter Abou Haidar in fname Field</t>
+        </is>
+      </c>
+      <c r="F383" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="D384" t="n">
+        <v>4</v>
+      </c>
+      <c r="E384" t="inlineStr">
+        <is>
+          <t>Enter hello in comment Field</t>
+        </is>
+      </c>
+      <c r="F384" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="D385" t="n">
+        <v>5</v>
+      </c>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+        </is>
+      </c>
+      <c r="F385" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC76</t>
+        </is>
+      </c>
+      <c r="D386" t="n">
+        <v>1</v>
+      </c>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t>Enter Johnny in name Field</t>
+        </is>
+      </c>
+      <c r="F386" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="D387" t="n">
+        <v>2</v>
+      </c>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t>Enter %fname% in fname Field</t>
+        </is>
+      </c>
+      <c r="F387" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="D388" t="n">
+        <v>3</v>
+      </c>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>Enter Abou Haidar in fname Field</t>
+        </is>
+      </c>
+      <c r="F388" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="D389" t="n">
+        <v>4</v>
+      </c>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t>Enter sample comment1 in comment Field</t>
+        </is>
+      </c>
+      <c r="F389" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="D390" t="n">
+        <v>5</v>
+      </c>
+      <c r="E390" t="inlineStr">
+        <is>
+          <t>Upload nan in file2upload Field</t>
+        </is>
+      </c>
+      <c r="F390" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC77</t>
+        </is>
+      </c>
+      <c r="D391" t="n">
+        <v>1</v>
+      </c>
+      <c r="E391" t="inlineStr">
+        <is>
+          <t>Enter Johnny in name Field</t>
+        </is>
+      </c>
+      <c r="F391" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="D392" t="n">
+        <v>2</v>
+      </c>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t>Enter %fname% in fname Field</t>
+        </is>
+      </c>
+      <c r="F392" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="D393" t="n">
+        <v>3</v>
+      </c>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>Enter lname3 in fname Field</t>
+        </is>
+      </c>
+      <c r="F393" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="D394" t="n">
+        <v>4</v>
+      </c>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>Enter hello in comment Field</t>
+        </is>
+      </c>
+      <c r="F394" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="D395" t="n">
+        <v>5</v>
+      </c>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+        </is>
+      </c>
+      <c r="F395" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC78</t>
+        </is>
+      </c>
+      <c r="D396" t="n">
+        <v>1</v>
+      </c>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t>Enter Johnny in name Field</t>
+        </is>
+      </c>
+      <c r="F396" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="D397" t="n">
+        <v>2</v>
+      </c>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>Enter %fname% in fname Field</t>
+        </is>
+      </c>
+      <c r="F397" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="D398" t="n">
+        <v>3</v>
+      </c>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t>Enter Abou Haidar in fname Field</t>
+        </is>
+      </c>
+      <c r="F398" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="D399" t="n">
+        <v>4</v>
+      </c>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t>Enter hello in comment Field</t>
+        </is>
+      </c>
+      <c r="F399" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="D400" t="n">
+        <v>5</v>
+      </c>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+        </is>
+      </c>
+      <c r="F400" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC79</t>
+        </is>
+      </c>
+      <c r="D401" t="n">
+        <v>1</v>
+      </c>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t>Enter Johnny in name Field</t>
+        </is>
+      </c>
+      <c r="F401" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="D402" t="n">
+        <v>2</v>
+      </c>
+      <c r="E402" t="inlineStr">
+        <is>
+          <t>Enter %fname% in fname Field</t>
+        </is>
+      </c>
+      <c r="F402" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="D403" t="n">
+        <v>3</v>
+      </c>
+      <c r="E403" t="inlineStr">
+        <is>
+          <t>Enter Abou Haidar in fname Field</t>
+        </is>
+      </c>
+      <c r="F403" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="D404" t="n">
+        <v>4</v>
+      </c>
+      <c r="E404" t="inlineStr">
+        <is>
+          <t>Enter hello in comment Field</t>
+        </is>
+      </c>
+      <c r="F404" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="D405" t="n">
+        <v>5</v>
+      </c>
+      <c r="E405" t="inlineStr">
+        <is>
+          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+        </is>
+      </c>
+      <c r="F405" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC80</t>
+        </is>
+      </c>
+      <c r="D406" t="n">
+        <v>1</v>
+      </c>
+      <c r="E406" t="inlineStr">
+        <is>
+          <t>Enter Johnny in name Field</t>
+        </is>
+      </c>
+      <c r="F406" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="D407" t="n">
+        <v>2</v>
+      </c>
+      <c r="E407" t="inlineStr">
+        <is>
+          <t>Enter %fname% in fname Field</t>
+        </is>
+      </c>
+      <c r="F407" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="D408" t="n">
+        <v>3</v>
+      </c>
+      <c r="E408" t="inlineStr">
+        <is>
+          <t>Enter lname3 in fname Field</t>
+        </is>
+      </c>
+      <c r="F408" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="D409" t="n">
+        <v>4</v>
+      </c>
+      <c r="E409" t="inlineStr">
+        <is>
+          <t>Enter sample comment1 in comment Field</t>
+        </is>
+      </c>
+      <c r="F409" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="D410" t="n">
+        <v>5</v>
+      </c>
+      <c r="E410" t="inlineStr">
+        <is>
+          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+        </is>
+      </c>
+      <c r="F410" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC81</t>
+        </is>
+      </c>
+      <c r="D411" t="n">
+        <v>1</v>
+      </c>
+      <c r="E411" t="inlineStr">
+        <is>
+          <t>Enter Johnny in name Field</t>
+        </is>
+      </c>
+      <c r="F411" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="D412" t="n">
+        <v>2</v>
+      </c>
+      <c r="E412" t="inlineStr">
+        <is>
+          <t>Enter %fname% in fname Field</t>
+        </is>
+      </c>
+      <c r="F412" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="D413" t="n">
+        <v>3</v>
+      </c>
+      <c r="E413" t="inlineStr">
+        <is>
+          <t>Enter lname3 in fname Field</t>
+        </is>
+      </c>
+      <c r="F413" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="D414" t="n">
+        <v>4</v>
+      </c>
+      <c r="E414" t="inlineStr">
+        <is>
+          <t>Enter sample comment1 in comment Field</t>
+        </is>
+      </c>
+      <c r="F414" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="D415" t="n">
+        <v>5</v>
+      </c>
+      <c r="E415" t="inlineStr">
+        <is>
+          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+        </is>
+      </c>
+      <c r="F415" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC82</t>
+        </is>
+      </c>
+      <c r="D416" t="n">
+        <v>1</v>
+      </c>
+      <c r="E416" t="inlineStr">
+        <is>
+          <t>Enter Johnny in name Field</t>
+        </is>
+      </c>
+      <c r="F416" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="D417" t="n">
+        <v>2</v>
+      </c>
+      <c r="E417" t="inlineStr">
+        <is>
+          <t>Enter %fname% in fname Field</t>
+        </is>
+      </c>
+      <c r="F417" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="D418" t="n">
+        <v>3</v>
+      </c>
+      <c r="E418" t="inlineStr">
+        <is>
+          <t>Enter lname3 in fname Field</t>
+        </is>
+      </c>
+      <c r="F418" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="D419" t="n">
+        <v>4</v>
+      </c>
+      <c r="E419" t="inlineStr">
+        <is>
+          <t>Enter hello in comment Field</t>
+        </is>
+      </c>
+      <c r="F419" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="D420" t="n">
+        <v>5</v>
+      </c>
+      <c r="E420" t="inlineStr">
+        <is>
+          <t>Upload nan in file2upload Field</t>
+        </is>
+      </c>
+      <c r="F420" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC83</t>
+        </is>
+      </c>
+      <c r="D421" t="n">
+        <v>1</v>
+      </c>
+      <c r="E421" t="inlineStr">
+        <is>
+          <t>Enter Johnny in name Field</t>
+        </is>
+      </c>
+      <c r="F421" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="D422" t="n">
+        <v>2</v>
+      </c>
+      <c r="E422" t="inlineStr">
+        <is>
+          <t>Enter %fname% in fname Field</t>
+        </is>
+      </c>
+      <c r="F422" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="D423" t="n">
+        <v>3</v>
+      </c>
+      <c r="E423" t="inlineStr">
+        <is>
+          <t>Enter Abou Haidar in fname Field</t>
+        </is>
+      </c>
+      <c r="F423" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="D424" t="n">
+        <v>4</v>
+      </c>
+      <c r="E424" t="inlineStr">
+        <is>
+          <t>Enter hello in comment Field</t>
+        </is>
+      </c>
+      <c r="F424" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="D425" t="n">
+        <v>5</v>
+      </c>
+      <c r="E425" t="inlineStr">
+        <is>
+          <t>Upload nan in file2upload Field</t>
+        </is>
+      </c>
+      <c r="F425" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC84</t>
+        </is>
+      </c>
+      <c r="D426" t="n">
+        <v>1</v>
+      </c>
+      <c r="E426" t="inlineStr">
+        <is>
+          <t>Enter Johnny in name Field</t>
+        </is>
+      </c>
+      <c r="F426" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="D427" t="n">
+        <v>2</v>
+      </c>
+      <c r="E427" t="inlineStr">
+        <is>
+          <t>Enter %fname% in fname Field</t>
+        </is>
+      </c>
+      <c r="F427" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="D428" t="n">
+        <v>3</v>
+      </c>
+      <c r="E428" t="inlineStr">
+        <is>
+          <t>Enter lname3 in fname Field</t>
+        </is>
+      </c>
+      <c r="F428" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="D429" t="n">
+        <v>4</v>
+      </c>
+      <c r="E429" t="inlineStr">
+        <is>
+          <t>Enter hello in comment Field</t>
+        </is>
+      </c>
+      <c r="F429" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="D430" t="n">
+        <v>5</v>
+      </c>
+      <c r="E430" t="inlineStr">
+        <is>
+          <t>Upload nan in file2upload Field</t>
+        </is>
+      </c>
+      <c r="F430" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC85</t>
+        </is>
+      </c>
+      <c r="D431" t="n">
+        <v>1</v>
+      </c>
+      <c r="E431" t="inlineStr">
+        <is>
+          <t>Enter Johnny in name Field</t>
+        </is>
+      </c>
+      <c r="F431" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="D432" t="n">
+        <v>2</v>
+      </c>
+      <c r="E432" t="inlineStr">
+        <is>
+          <t>Enter %fname% in fname Field</t>
+        </is>
+      </c>
+      <c r="F432" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="D433" t="n">
+        <v>3</v>
+      </c>
+      <c r="E433" t="inlineStr">
+        <is>
+          <t>Enter lname3 in fname Field</t>
+        </is>
+      </c>
+      <c r="F433" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="D434" t="n">
+        <v>4</v>
+      </c>
+      <c r="E434" t="inlineStr">
+        <is>
+          <t>Enter hello in comment Field</t>
+        </is>
+      </c>
+      <c r="F434" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="D435" t="n">
+        <v>5</v>
+      </c>
+      <c r="E435" t="inlineStr">
+        <is>
+          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+        </is>
+      </c>
+      <c r="F435" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC86</t>
+        </is>
+      </c>
+      <c r="D436" t="n">
+        <v>1</v>
+      </c>
+      <c r="E436" t="inlineStr">
+        <is>
+          <t>Enter Johnny in name Field</t>
+        </is>
+      </c>
+      <c r="F436" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="D437" t="n">
+        <v>2</v>
+      </c>
+      <c r="E437" t="inlineStr">
+        <is>
+          <t>Enter %fname% in fname Field</t>
+        </is>
+      </c>
+      <c r="F437" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="D438" t="n">
+        <v>3</v>
+      </c>
+      <c r="E438" t="inlineStr">
+        <is>
+          <t>Enter Abou Haidar in fname Field</t>
+        </is>
+      </c>
+      <c r="F438" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="D439" t="n">
+        <v>4</v>
+      </c>
+      <c r="E439" t="inlineStr">
+        <is>
+          <t>Enter hello in comment Field</t>
+        </is>
+      </c>
+      <c r="F439" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="D440" t="n">
+        <v>5</v>
+      </c>
+      <c r="E440" t="inlineStr">
+        <is>
+          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+        </is>
+      </c>
+      <c r="F440" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="C441" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC87</t>
+        </is>
+      </c>
+      <c r="D441" t="n">
+        <v>1</v>
+      </c>
+      <c r="E441" t="inlineStr">
+        <is>
+          <t>Enter Johnny in name Field</t>
+        </is>
+      </c>
+      <c r="F441" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="D442" t="n">
+        <v>2</v>
+      </c>
+      <c r="E442" t="inlineStr">
+        <is>
+          <t>Enter %fname% in fname Field</t>
+        </is>
+      </c>
+      <c r="F442" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="D443" t="n">
+        <v>3</v>
+      </c>
+      <c r="E443" t="inlineStr">
+        <is>
+          <t>Enter Abou Haidar in fname Field</t>
+        </is>
+      </c>
+      <c r="F443" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="D444" t="n">
+        <v>4</v>
+      </c>
+      <c r="E444" t="inlineStr">
+        <is>
+          <t>Enter sample comment1 in comment Field</t>
+        </is>
+      </c>
+      <c r="F444" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="D445" t="n">
+        <v>5</v>
+      </c>
+      <c r="E445" t="inlineStr">
+        <is>
+          <t>Upload nan in file2upload Field</t>
+        </is>
+      </c>
+      <c r="F445" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC88</t>
+        </is>
+      </c>
+      <c r="D446" t="n">
+        <v>1</v>
+      </c>
+      <c r="E446" t="inlineStr">
+        <is>
+          <t>Enter name3 in name Field</t>
+        </is>
+      </c>
+      <c r="F446" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="D447" t="n">
+        <v>2</v>
+      </c>
+      <c r="E447" t="inlineStr">
+        <is>
+          <t>Enter %fname% in fname Field</t>
+        </is>
+      </c>
+      <c r="F447" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="D448" t="n">
+        <v>3</v>
+      </c>
+      <c r="E448" t="inlineStr">
+        <is>
+          <t>Enter lname3 in fname Field</t>
+        </is>
+      </c>
+      <c r="F448" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="D449" t="n">
+        <v>4</v>
+      </c>
+      <c r="E449" t="inlineStr">
+        <is>
+          <t>Enter sample comment1 in comment Field</t>
+        </is>
+      </c>
+      <c r="F449" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="D450" t="n">
+        <v>5</v>
+      </c>
+      <c r="E450" t="inlineStr">
+        <is>
+          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+        </is>
+      </c>
+      <c r="F450" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="C451" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC89</t>
+        </is>
+      </c>
+      <c r="D451" t="n">
+        <v>1</v>
+      </c>
+      <c r="E451" t="inlineStr">
+        <is>
+          <t>Enter Johnny in name Field</t>
+        </is>
+      </c>
+      <c r="F451" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="D452" t="n">
+        <v>2</v>
+      </c>
+      <c r="E452" t="inlineStr">
+        <is>
+          <t>Enter %fname% in fname Field</t>
+        </is>
+      </c>
+      <c r="F452" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="D453" t="n">
+        <v>3</v>
+      </c>
+      <c r="E453" t="inlineStr">
+        <is>
+          <t>Enter Abou Haidar in fname Field</t>
+        </is>
+      </c>
+      <c r="F453" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="D454" t="n">
+        <v>4</v>
+      </c>
+      <c r="E454" t="inlineStr">
+        <is>
+          <t>Enter sample comment1 in comment Field</t>
+        </is>
+      </c>
+      <c r="F454" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="D455" t="n">
+        <v>5</v>
+      </c>
+      <c r="E455" t="inlineStr">
+        <is>
+          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+        </is>
+      </c>
+      <c r="F455" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC90</t>
+        </is>
+      </c>
+      <c r="D456" t="n">
+        <v>1</v>
+      </c>
+      <c r="E456" t="inlineStr">
+        <is>
+          <t>Enter name3 in name Field</t>
+        </is>
+      </c>
+      <c r="F456" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="D457" t="n">
+        <v>2</v>
+      </c>
+      <c r="E457" t="inlineStr">
+        <is>
+          <t>Enter %fname% in fname Field</t>
+        </is>
+      </c>
+      <c r="F457" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="D458" t="n">
+        <v>3</v>
+      </c>
+      <c r="E458" t="inlineStr">
+        <is>
+          <t>Enter Abou Haidar in fname Field</t>
+        </is>
+      </c>
+      <c r="F458" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="D459" t="n">
+        <v>4</v>
+      </c>
+      <c r="E459" t="inlineStr">
+        <is>
+          <t>Enter hello in comment Field</t>
+        </is>
+      </c>
+      <c r="F459" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="D460" t="n">
+        <v>5</v>
+      </c>
+      <c r="E460" t="inlineStr">
+        <is>
+          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+        </is>
+      </c>
+      <c r="F460" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC91</t>
+        </is>
+      </c>
+      <c r="D461" t="n">
+        <v>1</v>
+      </c>
+      <c r="E461" t="inlineStr">
+        <is>
+          <t>Enter Johnny in name Field</t>
+        </is>
+      </c>
+      <c r="F461" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="D462" t="n">
+        <v>2</v>
+      </c>
+      <c r="E462" t="inlineStr">
+        <is>
+          <t>Enter %fname% in fname Field</t>
+        </is>
+      </c>
+      <c r="F462" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="D463" t="n">
+        <v>3</v>
+      </c>
+      <c r="E463" t="inlineStr">
+        <is>
+          <t>Enter lname3 in fname Field</t>
+        </is>
+      </c>
+      <c r="F463" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="D464" t="n">
+        <v>4</v>
+      </c>
+      <c r="E464" t="inlineStr">
+        <is>
+          <t>Enter sample comment1 in comment Field</t>
+        </is>
+      </c>
+      <c r="F464" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="D465" t="n">
+        <v>5</v>
+      </c>
+      <c r="E465" t="inlineStr">
+        <is>
+          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+        </is>
+      </c>
+      <c r="F465" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC92</t>
+        </is>
+      </c>
+      <c r="D466" t="n">
+        <v>1</v>
+      </c>
+      <c r="E466" t="inlineStr">
+        <is>
+          <t>Enter name3 in name Field</t>
+        </is>
+      </c>
+      <c r="F466" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="D467" t="n">
+        <v>2</v>
+      </c>
+      <c r="E467" t="inlineStr">
+        <is>
+          <t>Enter %fname% in fname Field</t>
+        </is>
+      </c>
+      <c r="F467" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="D468" t="n">
+        <v>3</v>
+      </c>
+      <c r="E468" t="inlineStr">
+        <is>
+          <t>Enter Abou Haidar in fname Field</t>
+        </is>
+      </c>
+      <c r="F468" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="D469" t="n">
+        <v>4</v>
+      </c>
+      <c r="E469" t="inlineStr">
+        <is>
+          <t>Enter hello in comment Field</t>
+        </is>
+      </c>
+      <c r="F469" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="D470" t="n">
+        <v>5</v>
+      </c>
+      <c r="E470" t="inlineStr">
+        <is>
+          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+        </is>
+      </c>
+      <c r="F470" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC93</t>
+        </is>
+      </c>
+      <c r="D471" t="n">
+        <v>1</v>
+      </c>
+      <c r="E471" t="inlineStr">
+        <is>
+          <t>Enter Johnny in name Field</t>
+        </is>
+      </c>
+      <c r="F471" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="D472" t="n">
+        <v>2</v>
+      </c>
+      <c r="E472" t="inlineStr">
+        <is>
+          <t>Enter %fname% in fname Field</t>
+        </is>
+      </c>
+      <c r="F472" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="D473" t="n">
+        <v>3</v>
+      </c>
+      <c r="E473" t="inlineStr">
+        <is>
+          <t>Enter lname3 in fname Field</t>
+        </is>
+      </c>
+      <c r="F473" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="D474" t="n">
+        <v>4</v>
+      </c>
+      <c r="E474" t="inlineStr">
+        <is>
+          <t>Enter sample comment1 in comment Field</t>
+        </is>
+      </c>
+      <c r="F474" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="D475" t="n">
+        <v>5</v>
+      </c>
+      <c r="E475" t="inlineStr">
+        <is>
+          <t>Upload nan in file2upload Field</t>
+        </is>
+      </c>
+      <c r="F475" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="C476" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC94</t>
+        </is>
+      </c>
+      <c r="D476" t="n">
+        <v>1</v>
+      </c>
+      <c r="E476" t="inlineStr">
+        <is>
+          <t>Enter name3 in name Field</t>
+        </is>
+      </c>
+      <c r="F476" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="D477" t="n">
+        <v>2</v>
+      </c>
+      <c r="E477" t="inlineStr">
+        <is>
+          <t>Enter %fname% in fname Field</t>
+        </is>
+      </c>
+      <c r="F477" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="D478" t="n">
+        <v>3</v>
+      </c>
+      <c r="E478" t="inlineStr">
+        <is>
+          <t>Enter Abou Haidar in fname Field</t>
+        </is>
+      </c>
+      <c r="F478" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="D479" t="n">
+        <v>4</v>
+      </c>
+      <c r="E479" t="inlineStr">
+        <is>
+          <t>Enter hello in comment Field</t>
+        </is>
+      </c>
+      <c r="F479" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="D480" t="n">
+        <v>5</v>
+      </c>
+      <c r="E480" t="inlineStr">
+        <is>
+          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+        </is>
+      </c>
+      <c r="F480" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC95</t>
+        </is>
+      </c>
+      <c r="D481" t="n">
+        <v>1</v>
+      </c>
+      <c r="E481" t="inlineStr">
+        <is>
+          <t>Enter Johnny in name Field</t>
+        </is>
+      </c>
+      <c r="F481" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="D482" t="n">
+        <v>2</v>
+      </c>
+      <c r="E482" t="inlineStr">
+        <is>
+          <t>Enter %fname% in fname Field</t>
+        </is>
+      </c>
+      <c r="F482" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="D483" t="n">
+        <v>3</v>
+      </c>
+      <c r="E483" t="inlineStr">
+        <is>
+          <t>Enter Abou Haidar in fname Field</t>
+        </is>
+      </c>
+      <c r="F483" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="D484" t="n">
+        <v>4</v>
+      </c>
+      <c r="E484" t="inlineStr">
+        <is>
+          <t>Enter hello in comment Field</t>
+        </is>
+      </c>
+      <c r="F484" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="D485" t="n">
+        <v>5</v>
+      </c>
+      <c r="E485" t="inlineStr">
+        <is>
+          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+        </is>
+      </c>
+      <c r="F485" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC96</t>
+        </is>
+      </c>
+      <c r="D486" t="n">
+        <v>1</v>
+      </c>
+      <c r="E486" t="inlineStr">
+        <is>
+          <t>Enter Johnny in name Field</t>
+        </is>
+      </c>
+      <c r="F486" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="D487" t="n">
+        <v>2</v>
+      </c>
+      <c r="E487" t="inlineStr">
+        <is>
+          <t>Enter %fname% in fname Field</t>
+        </is>
+      </c>
+      <c r="F487" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="D488" t="n">
+        <v>3</v>
+      </c>
+      <c r="E488" t="inlineStr">
+        <is>
+          <t>Enter Abou Haidar in fname Field</t>
+        </is>
+      </c>
+      <c r="F488" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="D489" t="n">
+        <v>4</v>
+      </c>
+      <c r="E489" t="inlineStr">
+        <is>
+          <t>Enter sample comment1 in comment Field</t>
+        </is>
+      </c>
+      <c r="F489" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="D490" t="n">
+        <v>5</v>
+      </c>
+      <c r="E490" t="inlineStr">
+        <is>
+          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+        </is>
+      </c>
+      <c r="F490" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="C491" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC97</t>
+        </is>
+      </c>
+      <c r="D491" t="n">
+        <v>1</v>
+      </c>
+      <c r="E491" t="inlineStr">
+        <is>
+          <t>Enter Johnny in name Field</t>
+        </is>
+      </c>
+      <c r="F491" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="D492" t="n">
+        <v>2</v>
+      </c>
+      <c r="E492" t="inlineStr">
+        <is>
+          <t>Enter %fname% in fname Field</t>
+        </is>
+      </c>
+      <c r="F492" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="D493" t="n">
+        <v>3</v>
+      </c>
+      <c r="E493" t="inlineStr">
+        <is>
+          <t>Enter Abou Haidar in fname Field</t>
+        </is>
+      </c>
+      <c r="F493" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="D494" t="n">
+        <v>4</v>
+      </c>
+      <c r="E494" t="inlineStr">
+        <is>
+          <t>Enter hello in comment Field</t>
+        </is>
+      </c>
+      <c r="F494" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="D495" t="n">
+        <v>5</v>
+      </c>
+      <c r="E495" t="inlineStr">
+        <is>
+          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+        </is>
+      </c>
+      <c r="F495" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="C496" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC98</t>
+        </is>
+      </c>
+      <c r="D496" t="n">
+        <v>1</v>
+      </c>
+      <c r="E496" t="inlineStr">
+        <is>
+          <t>Enter Johnny in name Field</t>
+        </is>
+      </c>
+      <c r="F496" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="D497" t="n">
+        <v>2</v>
+      </c>
+      <c r="E497" t="inlineStr">
+        <is>
+          <t>Enter %fname% in fname Field</t>
+        </is>
+      </c>
+      <c r="F497" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="D498" t="n">
+        <v>3</v>
+      </c>
+      <c r="E498" t="inlineStr">
+        <is>
+          <t>Enter Abou Haidar in fname Field</t>
+        </is>
+      </c>
+      <c r="F498" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="D499" t="n">
+        <v>4</v>
+      </c>
+      <c r="E499" t="inlineStr">
+        <is>
+          <t>Enter hello in comment Field</t>
+        </is>
+      </c>
+      <c r="F499" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="D500" t="n">
+        <v>5</v>
+      </c>
+      <c r="E500" t="inlineStr">
+        <is>
+          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+        </is>
+      </c>
+      <c r="F500" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="C501" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC99</t>
+        </is>
+      </c>
+      <c r="D501" t="n">
+        <v>1</v>
+      </c>
+      <c r="E501" t="inlineStr">
+        <is>
+          <t>Enter Johnny in name Field</t>
+        </is>
+      </c>
+      <c r="F501" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="D502" t="n">
+        <v>2</v>
+      </c>
+      <c r="E502" t="inlineStr">
+        <is>
+          <t>Enter %fname% in fname Field</t>
+        </is>
+      </c>
+      <c r="F502" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="D503" t="n">
+        <v>3</v>
+      </c>
+      <c r="E503" t="inlineStr">
+        <is>
+          <t>Enter lname3 in fname Field</t>
+        </is>
+      </c>
+      <c r="F503" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="D504" t="n">
+        <v>4</v>
+      </c>
+      <c r="E504" t="inlineStr">
+        <is>
+          <t>Enter sample comment1 in comment Field</t>
+        </is>
+      </c>
+      <c r="F504" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="D505" t="n">
+        <v>5</v>
+      </c>
+      <c r="E505" t="inlineStr">
+        <is>
+          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+        </is>
+      </c>
+      <c r="F505" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="C506" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC100</t>
+        </is>
+      </c>
+      <c r="D506" t="n">
+        <v>1</v>
+      </c>
+      <c r="E506" t="inlineStr">
+        <is>
+          <t>Enter name3 in name Field</t>
+        </is>
+      </c>
+      <c r="F506" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="D507" t="n">
+        <v>2</v>
+      </c>
+      <c r="E507" t="inlineStr">
+        <is>
+          <t>Enter %fname% in fname Field</t>
+        </is>
+      </c>
+      <c r="F507" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="D508" t="n">
+        <v>3</v>
+      </c>
+      <c r="E508" t="inlineStr">
+        <is>
+          <t>Enter lname3 in fname Field</t>
+        </is>
+      </c>
+      <c r="F508" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="D509" t="n">
+        <v>4</v>
+      </c>
+      <c r="E509" t="inlineStr">
+        <is>
+          <t>Enter sample comment1 in comment Field</t>
+        </is>
+      </c>
+      <c r="F509" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="D510" t="n">
+        <v>5</v>
+      </c>
+      <c r="E510" t="inlineStr">
+        <is>
+          <t>Upload nan in file2upload Field</t>
+        </is>
+      </c>
+      <c r="F510" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/NOMAC_Work Order Manangement.xlsx
+++ b/NOMAC_Work Order Manangement.xlsx
@@ -29156,7 +29156,7 @@
       </c>
       <c r="E12" s="16" t="inlineStr">
         <is>
-          <t>Enter %fname% in fname Field</t>
+          <t>Enter %Lname% in Lname Field</t>
         </is>
       </c>
       <c r="F12" s="45" t="inlineStr">
@@ -29171,7 +29171,7 @@
       </c>
       <c r="E13" s="16" t="inlineStr">
         <is>
-          <t>Enter Abou Haidar in fname Field</t>
+          <t>Enter Abou Haidar in Lname Field</t>
         </is>
       </c>
       <c r="F13" s="45" t="inlineStr">
@@ -29241,7 +29241,7 @@
       </c>
       <c r="E17" s="16" t="inlineStr">
         <is>
-          <t>Enter %fname% in fname Field</t>
+          <t>Enter %Lname% in Lname Field</t>
         </is>
       </c>
       <c r="F17" s="35" t="inlineStr">
@@ -29256,7 +29256,7 @@
       </c>
       <c r="E18" s="16" t="inlineStr">
         <is>
-          <t>Enter lname3 in fname Field</t>
+          <t>Enter lname3 in Lname Field</t>
         </is>
       </c>
       <c r="F18" s="35" t="inlineStr">
@@ -29329,7 +29329,7 @@
       </c>
       <c r="E22" s="16" t="inlineStr">
         <is>
-          <t>Enter %fname% in fname Field</t>
+          <t>Enter %Lname% in Lname Field</t>
         </is>
       </c>
       <c r="F22" s="45" t="inlineStr">
@@ -29354,7 +29354,7 @@
       </c>
       <c r="E23" s="16" t="inlineStr">
         <is>
-          <t>Enter lname3 in fname Field</t>
+          <t>Enter lname3 in Lname Field</t>
         </is>
       </c>
       <c r="F23" s="35" t="inlineStr">
@@ -29424,7 +29424,7 @@
       </c>
       <c r="E27" s="16" t="inlineStr">
         <is>
-          <t>Enter %fname% in fname Field</t>
+          <t>Enter %Lname% in Lname Field</t>
         </is>
       </c>
       <c r="F27" s="35" t="inlineStr">
@@ -29439,7 +29439,7 @@
       </c>
       <c r="E28" s="16" t="inlineStr">
         <is>
-          <t>Enter lname3 in fname Field</t>
+          <t>Enter lname3 in Lname Field</t>
         </is>
       </c>
       <c r="F28" s="35" t="inlineStr">
@@ -29509,7 +29509,7 @@
       </c>
       <c r="E32" s="36" t="inlineStr">
         <is>
-          <t>Enter %fname% in fname Field</t>
+          <t>Enter %Lname% in Lname Field</t>
         </is>
       </c>
       <c r="F32" s="35" t="inlineStr">
@@ -29524,7 +29524,7 @@
       </c>
       <c r="E33" s="36" t="inlineStr">
         <is>
-          <t>Enter Abou Haidar in fname Field</t>
+          <t>Enter Abou Haidar in Lname Field</t>
         </is>
       </c>
       <c r="F33" s="35" t="inlineStr">
@@ -29594,7 +29594,7 @@
       </c>
       <c r="E37" s="36" t="inlineStr">
         <is>
-          <t>Enter %fname% in fname Field</t>
+          <t>Enter %Lname% in Lname Field</t>
         </is>
       </c>
       <c r="F37" s="35" t="inlineStr">
@@ -29609,7 +29609,7 @@
       </c>
       <c r="E38" s="36" t="inlineStr">
         <is>
-          <t>Enter Abou Haidar in fname Field</t>
+          <t>Enter Abou Haidar in Lname Field</t>
         </is>
       </c>
       <c r="F38" s="35" t="inlineStr">
@@ -29679,7 +29679,7 @@
       </c>
       <c r="E42" s="36" t="inlineStr">
         <is>
-          <t>Enter %fname% in fname Field</t>
+          <t>Enter %Lname% in Lname Field</t>
         </is>
       </c>
       <c r="F42" s="35" t="inlineStr">
@@ -29699,7 +29699,7 @@
       </c>
       <c r="E43" s="36" t="inlineStr">
         <is>
-          <t>Enter lname3 in fname Field</t>
+          <t>Enter lname3 in Lname Field</t>
         </is>
       </c>
       <c r="F43" s="35" t="inlineStr">
@@ -29769,7 +29769,7 @@
       </c>
       <c r="E47" s="36" t="inlineStr">
         <is>
-          <t>Enter %fname% in fname Field</t>
+          <t>Enter %Lname% in Lname Field</t>
         </is>
       </c>
       <c r="F47" s="35" t="inlineStr">
@@ -29784,7 +29784,7 @@
       </c>
       <c r="E48" s="36" t="inlineStr">
         <is>
-          <t>Enter Abou Haidar in fname Field</t>
+          <t>Enter Abou Haidar in Lname Field</t>
         </is>
       </c>
       <c r="F48" s="35" t="inlineStr">
@@ -29849,7 +29849,7 @@
       </c>
       <c r="E52" s="20" t="inlineStr">
         <is>
-          <t>Enter %fname% in fname Field</t>
+          <t>Enter %Lname% in Lname Field</t>
         </is>
       </c>
       <c r="F52" s="35" t="inlineStr">
@@ -29864,7 +29864,7 @@
       </c>
       <c r="E53" s="20" t="inlineStr">
         <is>
-          <t>Enter Abou Haidar in fname Field</t>
+          <t>Enter Abou Haidar in Lname Field</t>
         </is>
       </c>
       <c r="F53" s="35" t="inlineStr">
@@ -29937,7 +29937,7 @@
       </c>
       <c r="E57" s="20" t="inlineStr">
         <is>
-          <t>Enter %fname% in fname Field</t>
+          <t>Enter %Lname% in Lname Field</t>
         </is>
       </c>
       <c r="F57" s="35" t="inlineStr">
@@ -29954,7 +29954,7 @@
       </c>
       <c r="E58" s="20" t="inlineStr">
         <is>
-          <t>Enter Abou Haidar in fname Field</t>
+          <t>Enter Abou Haidar in Lname Field</t>
         </is>
       </c>
       <c r="F58" s="35" t="inlineStr">
@@ -30030,7 +30030,7 @@
       </c>
       <c r="E62" s="20" t="inlineStr">
         <is>
-          <t>Enter %fname% in fname Field</t>
+          <t>Enter %Lname% in Lname Field</t>
         </is>
       </c>
       <c r="F62" s="35" t="inlineStr">
@@ -30051,7 +30051,7 @@
       </c>
       <c r="E63" s="20" t="inlineStr">
         <is>
-          <t>Enter Abou Haidar in fname Field</t>
+          <t>Enter Abou Haidar in Lname Field</t>
         </is>
       </c>
       <c r="F63" s="35" t="inlineStr">
@@ -30127,7 +30127,7 @@
       </c>
       <c r="E67" s="20" t="inlineStr">
         <is>
-          <t>Enter %fname% in fname Field</t>
+          <t>Enter %Lname% in Lname Field</t>
         </is>
       </c>
       <c r="F67" s="35" t="inlineStr">
@@ -30144,7 +30144,7 @@
       </c>
       <c r="E68" s="20" t="inlineStr">
         <is>
-          <t>Enter Abou Haidar in fname Field</t>
+          <t>Enter Abou Haidar in Lname Field</t>
         </is>
       </c>
       <c r="F68" s="35" t="inlineStr">
@@ -30216,7 +30216,7 @@
       </c>
       <c r="E72" s="20" t="inlineStr">
         <is>
-          <t>Enter %fname% in fname Field</t>
+          <t>Enter %Lname% in Lname Field</t>
         </is>
       </c>
       <c r="F72" s="20" t="inlineStr">
@@ -30233,7 +30233,7 @@
       </c>
       <c r="E73" s="20" t="inlineStr">
         <is>
-          <t>Enter Abou Haidar in fname Field</t>
+          <t>Enter Abou Haidar in Lname Field</t>
         </is>
       </c>
       <c r="F73" s="20" t="inlineStr">
@@ -30305,7 +30305,7 @@
       </c>
       <c r="E77" s="20" t="inlineStr">
         <is>
-          <t>Enter %fname% in fname Field</t>
+          <t>Enter %Lname% in Lname Field</t>
         </is>
       </c>
       <c r="F77" s="20" t="inlineStr">
@@ -30322,7 +30322,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Enter lname3 in fname Field</t>
+          <t>Enter lname3 in Lname Field</t>
         </is>
       </c>
       <c r="F78" s="13" t="inlineStr">
@@ -30387,7 +30387,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Enter %fname% in fname Field</t>
+          <t>Enter %Lname% in Lname Field</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -30402,7 +30402,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Enter Abou Haidar in fname Field</t>
+          <t>Enter Abou Haidar in Lname Field</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -30467,7 +30467,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Enter %fname% in fname Field</t>
+          <t>Enter %Lname% in Lname Field</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -30482,7 +30482,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Enter Abou Haidar in fname Field</t>
+          <t>Enter Abou Haidar in Lname Field</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -30547,7 +30547,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Enter %fname% in fname Field</t>
+          <t>Enter %Lname% in Lname Field</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -30562,7 +30562,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Enter Abou Haidar in fname Field</t>
+          <t>Enter Abou Haidar in Lname Field</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -30627,7 +30627,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Enter %fname% in fname Field</t>
+          <t>Enter %Lname% in Lname Field</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -30642,7 +30642,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Enter lname3 in fname Field</t>
+          <t>Enter lname3 in Lname Field</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -30707,7 +30707,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Enter %fname% in fname Field</t>
+          <t>Enter %Lname% in Lname Field</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -30722,7 +30722,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Enter lname3 in fname Field</t>
+          <t>Enter lname3 in Lname Field</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -30787,7 +30787,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Enter %fname% in fname Field</t>
+          <t>Enter %Lname% in Lname Field</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -30802,7 +30802,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Enter Abou Haidar in fname Field</t>
+          <t>Enter Abou Haidar in Lname Field</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -30867,7 +30867,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Enter %fname% in fname Field</t>
+          <t>Enter %Lname% in Lname Field</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -30882,7 +30882,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Enter Abou Haidar in fname Field</t>
+          <t>Enter Abou Haidar in Lname Field</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -30947,7 +30947,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Enter %fname% in fname Field</t>
+          <t>Enter %Lname% in Lname Field</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -30962,7 +30962,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Enter lname3 in fname Field</t>
+          <t>Enter lname3 in Lname Field</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -31027,7 +31027,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Enter %fname% in fname Field</t>
+          <t>Enter %Lname% in Lname Field</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -31042,7 +31042,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Enter Abou Haidar in fname Field</t>
+          <t>Enter Abou Haidar in Lname Field</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -31107,7 +31107,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Enter %fname% in fname Field</t>
+          <t>Enter %Lname% in Lname Field</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -31122,7 +31122,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Enter lname3 in fname Field</t>
+          <t>Enter lname3 in Lname Field</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -31187,7 +31187,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Enter %fname% in fname Field</t>
+          <t>Enter %Lname% in Lname Field</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -31202,7 +31202,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Enter Abou Haidar in fname Field</t>
+          <t>Enter Abou Haidar in Lname Field</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -31267,7 +31267,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Enter %fname% in fname Field</t>
+          <t>Enter %Lname% in Lname Field</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -31282,7 +31282,7 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Enter Abou Haidar in fname Field</t>
+          <t>Enter Abou Haidar in Lname Field</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -31347,7 +31347,7 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Enter %fname% in fname Field</t>
+          <t>Enter %Lname% in Lname Field</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -31362,7 +31362,7 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Enter Abou Haidar in fname Field</t>
+          <t>Enter Abou Haidar in Lname Field</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -31427,7 +31427,7 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Enter %fname% in fname Field</t>
+          <t>Enter %Lname% in Lname Field</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -31442,7 +31442,7 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Enter Abou Haidar in fname Field</t>
+          <t>Enter Abou Haidar in Lname Field</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -31507,7 +31507,7 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Enter %fname% in fname Field</t>
+          <t>Enter %Lname% in Lname Field</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -31522,7 +31522,7 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Enter lname3 in fname Field</t>
+          <t>Enter lname3 in Lname Field</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -31587,7 +31587,7 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Enter %fname% in fname Field</t>
+          <t>Enter %Lname% in Lname Field</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -31602,7 +31602,7 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Enter Abou Haidar in fname Field</t>
+          <t>Enter Abou Haidar in Lname Field</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -31667,7 +31667,7 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Enter %fname% in fname Field</t>
+          <t>Enter %Lname% in Lname Field</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -31682,7 +31682,7 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Enter lname3 in fname Field</t>
+          <t>Enter lname3 in Lname Field</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -31747,7 +31747,7 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Enter %fname% in fname Field</t>
+          <t>Enter %Lname% in Lname Field</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
@@ -31762,7 +31762,7 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Enter Abou Haidar in fname Field</t>
+          <t>Enter Abou Haidar in Lname Field</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
@@ -31827,7 +31827,7 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Enter %fname% in fname Field</t>
+          <t>Enter %Lname% in Lname Field</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
@@ -31842,7 +31842,7 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Enter Abou Haidar in fname Field</t>
+          <t>Enter Abou Haidar in Lname Field</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
@@ -31907,7 +31907,7 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Enter %fname% in fname Field</t>
+          <t>Enter %Lname% in Lname Field</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
@@ -31922,7 +31922,7 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Enter Abou Haidar in fname Field</t>
+          <t>Enter Abou Haidar in Lname Field</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
@@ -31987,7 +31987,7 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Enter %fname% in fname Field</t>
+          <t>Enter %Lname% in Lname Field</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
@@ -32002,7 +32002,7 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Enter Abou Haidar in fname Field</t>
+          <t>Enter Abou Haidar in Lname Field</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -32067,7 +32067,7 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Enter %fname% in fname Field</t>
+          <t>Enter %Lname% in Lname Field</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
@@ -32082,7 +32082,7 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Enter Abou Haidar in fname Field</t>
+          <t>Enter Abou Haidar in Lname Field</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
@@ -32147,7 +32147,7 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Enter %fname% in fname Field</t>
+          <t>Enter %Lname% in Lname Field</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
@@ -32162,7 +32162,7 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Enter Abou Haidar in fname Field</t>
+          <t>Enter Abou Haidar in Lname Field</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
@@ -32227,7 +32227,7 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Enter %fname% in fname Field</t>
+          <t>Enter %Lname% in Lname Field</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
@@ -32242,7 +32242,7 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Enter Abou Haidar in fname Field</t>
+          <t>Enter Abou Haidar in Lname Field</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
@@ -32307,7 +32307,7 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Enter %fname% in fname Field</t>
+          <t>Enter %Lname% in Lname Field</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
@@ -32322,7 +32322,7 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Enter Abou Haidar in fname Field</t>
+          <t>Enter Abou Haidar in Lname Field</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
@@ -32387,7 +32387,7 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Enter %fname% in fname Field</t>
+          <t>Enter %Lname% in Lname Field</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
@@ -32402,7 +32402,7 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Enter Abou Haidar in fname Field</t>
+          <t>Enter Abou Haidar in Lname Field</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
@@ -32467,7 +32467,7 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Enter %fname% in fname Field</t>
+          <t>Enter %Lname% in Lname Field</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
@@ -32482,7 +32482,7 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Enter lname3 in fname Field</t>
+          <t>Enter lname3 in Lname Field</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
@@ -32547,7 +32547,7 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Enter %fname% in fname Field</t>
+          <t>Enter %Lname% in Lname Field</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
@@ -32562,7 +32562,7 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Enter lname3 in fname Field</t>
+          <t>Enter lname3 in Lname Field</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
@@ -32627,7 +32627,7 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Enter %fname% in fname Field</t>
+          <t>Enter %Lname% in Lname Field</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
@@ -32642,7 +32642,7 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Enter lname3 in fname Field</t>
+          <t>Enter lname3 in Lname Field</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
@@ -32707,7 +32707,7 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Enter %fname% in fname Field</t>
+          <t>Enter %Lname% in Lname Field</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
@@ -32722,7 +32722,7 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Enter Abou Haidar in fname Field</t>
+          <t>Enter Abou Haidar in Lname Field</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
@@ -32787,7 +32787,7 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Enter %fname% in fname Field</t>
+          <t>Enter %Lname% in Lname Field</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
@@ -32802,7 +32802,7 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Enter Abou Haidar in fname Field</t>
+          <t>Enter Abou Haidar in Lname Field</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
@@ -32867,7 +32867,7 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Enter %fname% in fname Field</t>
+          <t>Enter %Lname% in Lname Field</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
@@ -32882,7 +32882,7 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Enter lname3 in fname Field</t>
+          <t>Enter lname3 in Lname Field</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
@@ -32947,7 +32947,7 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>Enter %fname% in fname Field</t>
+          <t>Enter %Lname% in Lname Field</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
@@ -32962,7 +32962,7 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>Enter Abou Haidar in fname Field</t>
+          <t>Enter Abou Haidar in Lname Field</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
@@ -33027,7 +33027,7 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>Enter %fname% in fname Field</t>
+          <t>Enter %Lname% in Lname Field</t>
         </is>
       </c>
       <c r="F247" t="inlineStr">
@@ -33042,7 +33042,7 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>Enter lname3 in fname Field</t>
+          <t>Enter lname3 in Lname Field</t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
@@ -33107,7 +33107,7 @@
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>Enter %fname% in fname Field</t>
+          <t>Enter %Lname% in Lname Field</t>
         </is>
       </c>
       <c r="F252" t="inlineStr">
@@ -33122,7 +33122,7 @@
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>Enter Abou Haidar in fname Field</t>
+          <t>Enter Abou Haidar in Lname Field</t>
         </is>
       </c>
       <c r="F253" t="inlineStr">
@@ -33187,7 +33187,7 @@
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>Enter %fname% in fname Field</t>
+          <t>Enter %Lname% in Lname Field</t>
         </is>
       </c>
       <c r="F257" t="inlineStr">
@@ -33202,7 +33202,7 @@
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>Enter Abou Haidar in fname Field</t>
+          <t>Enter Abou Haidar in Lname Field</t>
         </is>
       </c>
       <c r="F258" t="inlineStr">
@@ -33267,7 +33267,7 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>Enter %fname% in fname Field</t>
+          <t>Enter %Lname% in Lname Field</t>
         </is>
       </c>
       <c r="F262" t="inlineStr">
@@ -33282,7 +33282,7 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>Enter Abou Haidar in fname Field</t>
+          <t>Enter Abou Haidar in Lname Field</t>
         </is>
       </c>
       <c r="F263" t="inlineStr">
@@ -33347,7 +33347,7 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>Enter %fname% in fname Field</t>
+          <t>Enter %Lname% in Lname Field</t>
         </is>
       </c>
       <c r="F267" t="inlineStr">
@@ -33362,7 +33362,7 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>Enter lname3 in fname Field</t>
+          <t>Enter lname3 in Lname Field</t>
         </is>
       </c>
       <c r="F268" t="inlineStr">
@@ -33427,7 +33427,7 @@
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>Enter %fname% in fname Field</t>
+          <t>Enter %Lname% in Lname Field</t>
         </is>
       </c>
       <c r="F272" t="inlineStr">
@@ -33442,7 +33442,7 @@
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>Enter Abou Haidar in fname Field</t>
+          <t>Enter Abou Haidar in Lname Field</t>
         </is>
       </c>
       <c r="F273" t="inlineStr">
@@ -33507,7 +33507,7 @@
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>Enter %fname% in fname Field</t>
+          <t>Enter %Lname% in Lname Field</t>
         </is>
       </c>
       <c r="F277" t="inlineStr">
@@ -33522,7 +33522,7 @@
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>Enter Abou Haidar in fname Field</t>
+          <t>Enter Abou Haidar in Lname Field</t>
         </is>
       </c>
       <c r="F278" t="inlineStr">
@@ -33587,7 +33587,7 @@
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>Enter %fname% in fname Field</t>
+          <t>Enter %Lname% in Lname Field</t>
         </is>
       </c>
       <c r="F282" t="inlineStr">
@@ -33602,7 +33602,7 @@
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>Enter Abou Haidar in fname Field</t>
+          <t>Enter Abou Haidar in Lname Field</t>
         </is>
       </c>
       <c r="F283" t="inlineStr">
@@ -33667,7 +33667,7 @@
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>Enter %fname% in fname Field</t>
+          <t>Enter %Lname% in Lname Field</t>
         </is>
       </c>
       <c r="F287" t="inlineStr">
@@ -33682,7 +33682,7 @@
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>Enter lname3 in fname Field</t>
+          <t>Enter lname3 in Lname Field</t>
         </is>
       </c>
       <c r="F288" t="inlineStr">
@@ -33747,7 +33747,7 @@
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>Enter %fname% in fname Field</t>
+          <t>Enter %Lname% in Lname Field</t>
         </is>
       </c>
       <c r="F292" t="inlineStr">
@@ -33762,7 +33762,7 @@
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>Enter Abou Haidar in fname Field</t>
+          <t>Enter Abou Haidar in Lname Field</t>
         </is>
       </c>
       <c r="F293" t="inlineStr">
@@ -33827,7 +33827,7 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>Enter %fname% in fname Field</t>
+          <t>Enter %Lname% in Lname Field</t>
         </is>
       </c>
       <c r="F297" t="inlineStr">
@@ -33842,7 +33842,7 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>Enter lname3 in fname Field</t>
+          <t>Enter lname3 in Lname Field</t>
         </is>
       </c>
       <c r="F298" t="inlineStr">
@@ -33907,7 +33907,7 @@
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>Enter %fname% in fname Field</t>
+          <t>Enter %Lname% in Lname Field</t>
         </is>
       </c>
       <c r="F302" t="inlineStr">
@@ -33922,7 +33922,7 @@
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>Enter Abou Haidar in fname Field</t>
+          <t>Enter Abou Haidar in Lname Field</t>
         </is>
       </c>
       <c r="F303" t="inlineStr">
@@ -33987,7 +33987,7 @@
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>Enter %fname% in fname Field</t>
+          <t>Enter %Lname% in Lname Field</t>
         </is>
       </c>
       <c r="F307" t="inlineStr">
@@ -34002,7 +34002,7 @@
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>Enter Abou Haidar in fname Field</t>
+          <t>Enter Abou Haidar in Lname Field</t>
         </is>
       </c>
       <c r="F308" t="inlineStr">
@@ -34067,7 +34067,7 @@
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>Enter %fname% in fname Field</t>
+          <t>Enter %Lname% in Lname Field</t>
         </is>
       </c>
       <c r="F312" t="inlineStr">
@@ -34082,7 +34082,7 @@
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>Enter Abou Haidar in fname Field</t>
+          <t>Enter Abou Haidar in Lname Field</t>
         </is>
       </c>
       <c r="F313" t="inlineStr">
@@ -34147,7 +34147,7 @@
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>Enter %fname% in fname Field</t>
+          <t>Enter %Lname% in Lname Field</t>
         </is>
       </c>
       <c r="F317" t="inlineStr">
@@ -34162,7 +34162,7 @@
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>Enter Abou Haidar in fname Field</t>
+          <t>Enter Abou Haidar in Lname Field</t>
         </is>
       </c>
       <c r="F318" t="inlineStr">
@@ -34227,7 +34227,7 @@
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>Enter %fname% in fname Field</t>
+          <t>Enter %Lname% in Lname Field</t>
         </is>
       </c>
       <c r="F322" t="inlineStr">
@@ -34242,7 +34242,7 @@
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>Enter lname3 in fname Field</t>
+          <t>Enter lname3 in Lname Field</t>
         </is>
       </c>
       <c r="F323" t="inlineStr">
@@ -34307,7 +34307,7 @@
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>Enter %fname% in fname Field</t>
+          <t>Enter %Lname% in Lname Field</t>
         </is>
       </c>
       <c r="F327" t="inlineStr">
@@ -34322,7 +34322,7 @@
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>Enter Abou Haidar in fname Field</t>
+          <t>Enter Abou Haidar in Lname Field</t>
         </is>
       </c>
       <c r="F328" t="inlineStr">
@@ -34387,7 +34387,7 @@
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>Enter %fname% in fname Field</t>
+          <t>Enter %Lname% in Lname Field</t>
         </is>
       </c>
       <c r="F332" t="inlineStr">
@@ -34402,7 +34402,7 @@
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>Enter Abou Haidar in fname Field</t>
+          <t>Enter Abou Haidar in Lname Field</t>
         </is>
       </c>
       <c r="F333" t="inlineStr">
@@ -34467,7 +34467,7 @@
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>Enter %fname% in fname Field</t>
+          <t>Enter %Lname% in Lname Field</t>
         </is>
       </c>
       <c r="F337" t="inlineStr">
@@ -34482,7 +34482,7 @@
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>Enter Abou Haidar in fname Field</t>
+          <t>Enter Abou Haidar in Lname Field</t>
         </is>
       </c>
       <c r="F338" t="inlineStr">
@@ -34547,7 +34547,7 @@
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>Enter %fname% in fname Field</t>
+          <t>Enter %Lname% in Lname Field</t>
         </is>
       </c>
       <c r="F342" t="inlineStr">
@@ -34562,7 +34562,7 @@
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>Enter lname3 in fname Field</t>
+          <t>Enter lname3 in Lname Field</t>
         </is>
       </c>
       <c r="F343" t="inlineStr">
@@ -34627,7 +34627,7 @@
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>Enter %fname% in fname Field</t>
+          <t>Enter %Lname% in Lname Field</t>
         </is>
       </c>
       <c r="F347" t="inlineStr">
@@ -34642,7 +34642,7 @@
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>Enter lname3 in fname Field</t>
+          <t>Enter lname3 in Lname Field</t>
         </is>
       </c>
       <c r="F348" t="inlineStr">
@@ -34707,7 +34707,7 @@
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>Enter %fname% in fname Field</t>
+          <t>Enter %Lname% in Lname Field</t>
         </is>
       </c>
       <c r="F352" t="inlineStr">
@@ -34722,7 +34722,7 @@
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>Enter lname3 in fname Field</t>
+          <t>Enter lname3 in Lname Field</t>
         </is>
       </c>
       <c r="F353" t="inlineStr">
@@ -34787,7 +34787,7 @@
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>Enter %fname% in fname Field</t>
+          <t>Enter %Lname% in Lname Field</t>
         </is>
       </c>
       <c r="F357" t="inlineStr">
@@ -34802,7 +34802,7 @@
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>Enter Abou Haidar in fname Field</t>
+          <t>Enter Abou Haidar in Lname Field</t>
         </is>
       </c>
       <c r="F358" t="inlineStr">
@@ -34867,7 +34867,7 @@
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>Enter %fname% in fname Field</t>
+          <t>Enter %Lname% in Lname Field</t>
         </is>
       </c>
       <c r="F362" t="inlineStr">
@@ -34882,7 +34882,7 @@
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>Enter Abou Haidar in fname Field</t>
+          <t>Enter Abou Haidar in Lname Field</t>
         </is>
       </c>
       <c r="F363" t="inlineStr">
@@ -34947,7 +34947,7 @@
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>Enter %fname% in fname Field</t>
+          <t>Enter %Lname% in Lname Field</t>
         </is>
       </c>
       <c r="F367" t="inlineStr">
@@ -34962,7 +34962,7 @@
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>Enter Abou Haidar in fname Field</t>
+          <t>Enter Abou Haidar in Lname Field</t>
         </is>
       </c>
       <c r="F368" t="inlineStr">
@@ -35027,7 +35027,7 @@
       </c>
       <c r="E372" t="inlineStr">
         <is>
-          <t>Enter %fname% in fname Field</t>
+          <t>Enter %Lname% in Lname Field</t>
         </is>
       </c>
       <c r="F372" t="inlineStr">
@@ -35042,7 +35042,7 @@
       </c>
       <c r="E373" t="inlineStr">
         <is>
-          <t>Enter lname3 in fname Field</t>
+          <t>Enter lname3 in Lname Field</t>
         </is>
       </c>
       <c r="F373" t="inlineStr">
@@ -35107,7 +35107,7 @@
       </c>
       <c r="E377" t="inlineStr">
         <is>
-          <t>Enter %fname% in fname Field</t>
+          <t>Enter %Lname% in Lname Field</t>
         </is>
       </c>
       <c r="F377" t="inlineStr">
@@ -35122,7 +35122,7 @@
       </c>
       <c r="E378" t="inlineStr">
         <is>
-          <t>Enter lname3 in fname Field</t>
+          <t>Enter lname3 in Lname Field</t>
         </is>
       </c>
       <c r="F378" t="inlineStr">
@@ -35187,7 +35187,7 @@
       </c>
       <c r="E382" t="inlineStr">
         <is>
-          <t>Enter %fname% in fname Field</t>
+          <t>Enter %Lname% in Lname Field</t>
         </is>
       </c>
       <c r="F382" t="inlineStr">
@@ -35202,7 +35202,7 @@
       </c>
       <c r="E383" t="inlineStr">
         <is>
-          <t>Enter Abou Haidar in fname Field</t>
+          <t>Enter Abou Haidar in Lname Field</t>
         </is>
       </c>
       <c r="F383" t="inlineStr">
@@ -35267,7 +35267,7 @@
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>Enter %fname% in fname Field</t>
+          <t>Enter %Lname% in Lname Field</t>
         </is>
       </c>
       <c r="F387" t="inlineStr">
@@ -35282,7 +35282,7 @@
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>Enter Abou Haidar in fname Field</t>
+          <t>Enter Abou Haidar in Lname Field</t>
         </is>
       </c>
       <c r="F388" t="inlineStr">
@@ -35347,7 +35347,7 @@
       </c>
       <c r="E392" t="inlineStr">
         <is>
-          <t>Enter %fname% in fname Field</t>
+          <t>Enter %Lname% in Lname Field</t>
         </is>
       </c>
       <c r="F392" t="inlineStr">
@@ -35362,7 +35362,7 @@
       </c>
       <c r="E393" t="inlineStr">
         <is>
-          <t>Enter lname3 in fname Field</t>
+          <t>Enter lname3 in Lname Field</t>
         </is>
       </c>
       <c r="F393" t="inlineStr">
@@ -35427,7 +35427,7 @@
       </c>
       <c r="E397" t="inlineStr">
         <is>
-          <t>Enter %fname% in fname Field</t>
+          <t>Enter %Lname% in Lname Field</t>
         </is>
       </c>
       <c r="F397" t="inlineStr">
@@ -35442,7 +35442,7 @@
       </c>
       <c r="E398" t="inlineStr">
         <is>
-          <t>Enter Abou Haidar in fname Field</t>
+          <t>Enter Abou Haidar in Lname Field</t>
         </is>
       </c>
       <c r="F398" t="inlineStr">
@@ -35507,7 +35507,7 @@
       </c>
       <c r="E402" t="inlineStr">
         <is>
-          <t>Enter %fname% in fname Field</t>
+          <t>Enter %Lname% in Lname Field</t>
         </is>
       </c>
       <c r="F402" t="inlineStr">
@@ -35522,7 +35522,7 @@
       </c>
       <c r="E403" t="inlineStr">
         <is>
-          <t>Enter Abou Haidar in fname Field</t>
+          <t>Enter Abou Haidar in Lname Field</t>
         </is>
       </c>
       <c r="F403" t="inlineStr">
@@ -35587,7 +35587,7 @@
       </c>
       <c r="E407" t="inlineStr">
         <is>
-          <t>Enter %fname% in fname Field</t>
+          <t>Enter %Lname% in Lname Field</t>
         </is>
       </c>
       <c r="F407" t="inlineStr">
@@ -35602,7 +35602,7 @@
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t>Enter lname3 in fname Field</t>
+          <t>Enter lname3 in Lname Field</t>
         </is>
       </c>
       <c r="F408" t="inlineStr">
@@ -35667,7 +35667,7 @@
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>Enter %fname% in fname Field</t>
+          <t>Enter %Lname% in Lname Field</t>
         </is>
       </c>
       <c r="F412" t="inlineStr">
@@ -35682,7 +35682,7 @@
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>Enter lname3 in fname Field</t>
+          <t>Enter lname3 in Lname Field</t>
         </is>
       </c>
       <c r="F413" t="inlineStr">
@@ -35747,7 +35747,7 @@
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>Enter %fname% in fname Field</t>
+          <t>Enter %Lname% in Lname Field</t>
         </is>
       </c>
       <c r="F417" t="inlineStr">
@@ -35762,7 +35762,7 @@
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>Enter lname3 in fname Field</t>
+          <t>Enter lname3 in Lname Field</t>
         </is>
       </c>
       <c r="F418" t="inlineStr">
@@ -35827,7 +35827,7 @@
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>Enter %fname% in fname Field</t>
+          <t>Enter %Lname% in Lname Field</t>
         </is>
       </c>
       <c r="F422" t="inlineStr">
@@ -35842,7 +35842,7 @@
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>Enter Abou Haidar in fname Field</t>
+          <t>Enter Abou Haidar in Lname Field</t>
         </is>
       </c>
       <c r="F423" t="inlineStr">
@@ -35907,7 +35907,7 @@
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>Enter %fname% in fname Field</t>
+          <t>Enter %Lname% in Lname Field</t>
         </is>
       </c>
       <c r="F427" t="inlineStr">
@@ -35922,7 +35922,7 @@
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>Enter lname3 in fname Field</t>
+          <t>Enter lname3 in Lname Field</t>
         </is>
       </c>
       <c r="F428" t="inlineStr">
@@ -35987,7 +35987,7 @@
       </c>
       <c r="E432" t="inlineStr">
         <is>
-          <t>Enter %fname% in fname Field</t>
+          <t>Enter %Lname% in Lname Field</t>
         </is>
       </c>
       <c r="F432" t="inlineStr">
@@ -36002,7 +36002,7 @@
       </c>
       <c r="E433" t="inlineStr">
         <is>
-          <t>Enter lname3 in fname Field</t>
+          <t>Enter lname3 in Lname Field</t>
         </is>
       </c>
       <c r="F433" t="inlineStr">
@@ -36067,7 +36067,7 @@
       </c>
       <c r="E437" t="inlineStr">
         <is>
-          <t>Enter %fname% in fname Field</t>
+          <t>Enter %Lname% in Lname Field</t>
         </is>
       </c>
       <c r="F437" t="inlineStr">
@@ -36082,7 +36082,7 @@
       </c>
       <c r="E438" t="inlineStr">
         <is>
-          <t>Enter Abou Haidar in fname Field</t>
+          <t>Enter Abou Haidar in Lname Field</t>
         </is>
       </c>
       <c r="F438" t="inlineStr">
@@ -36147,7 +36147,7 @@
       </c>
       <c r="E442" t="inlineStr">
         <is>
-          <t>Enter %fname% in fname Field</t>
+          <t>Enter %Lname% in Lname Field</t>
         </is>
       </c>
       <c r="F442" t="inlineStr">
@@ -36162,7 +36162,7 @@
       </c>
       <c r="E443" t="inlineStr">
         <is>
-          <t>Enter Abou Haidar in fname Field</t>
+          <t>Enter Abou Haidar in Lname Field</t>
         </is>
       </c>
       <c r="F443" t="inlineStr">
@@ -36227,7 +36227,7 @@
       </c>
       <c r="E447" t="inlineStr">
         <is>
-          <t>Enter %fname% in fname Field</t>
+          <t>Enter %Lname% in Lname Field</t>
         </is>
       </c>
       <c r="F447" t="inlineStr">
@@ -36242,7 +36242,7 @@
       </c>
       <c r="E448" t="inlineStr">
         <is>
-          <t>Enter lname3 in fname Field</t>
+          <t>Enter lname3 in Lname Field</t>
         </is>
       </c>
       <c r="F448" t="inlineStr">
@@ -36307,7 +36307,7 @@
       </c>
       <c r="E452" t="inlineStr">
         <is>
-          <t>Enter %fname% in fname Field</t>
+          <t>Enter %Lname% in Lname Field</t>
         </is>
       </c>
       <c r="F452" t="inlineStr">
@@ -36322,7 +36322,7 @@
       </c>
       <c r="E453" t="inlineStr">
         <is>
-          <t>Enter Abou Haidar in fname Field</t>
+          <t>Enter Abou Haidar in Lname Field</t>
         </is>
       </c>
       <c r="F453" t="inlineStr">
@@ -36387,7 +36387,7 @@
       </c>
       <c r="E457" t="inlineStr">
         <is>
-          <t>Enter %fname% in fname Field</t>
+          <t>Enter %Lname% in Lname Field</t>
         </is>
       </c>
       <c r="F457" t="inlineStr">
@@ -36402,7 +36402,7 @@
       </c>
       <c r="E458" t="inlineStr">
         <is>
-          <t>Enter Abou Haidar in fname Field</t>
+          <t>Enter Abou Haidar in Lname Field</t>
         </is>
       </c>
       <c r="F458" t="inlineStr">
@@ -36467,7 +36467,7 @@
       </c>
       <c r="E462" t="inlineStr">
         <is>
-          <t>Enter %fname% in fname Field</t>
+          <t>Enter %Lname% in Lname Field</t>
         </is>
       </c>
       <c r="F462" t="inlineStr">
@@ -36482,7 +36482,7 @@
       </c>
       <c r="E463" t="inlineStr">
         <is>
-          <t>Enter lname3 in fname Field</t>
+          <t>Enter lname3 in Lname Field</t>
         </is>
       </c>
       <c r="F463" t="inlineStr">
@@ -36547,7 +36547,7 @@
       </c>
       <c r="E467" t="inlineStr">
         <is>
-          <t>Enter %fname% in fname Field</t>
+          <t>Enter %Lname% in Lname Field</t>
         </is>
       </c>
       <c r="F467" t="inlineStr">
@@ -36562,7 +36562,7 @@
       </c>
       <c r="E468" t="inlineStr">
         <is>
-          <t>Enter Abou Haidar in fname Field</t>
+          <t>Enter Abou Haidar in Lname Field</t>
         </is>
       </c>
       <c r="F468" t="inlineStr">
@@ -36627,7 +36627,7 @@
       </c>
       <c r="E472" t="inlineStr">
         <is>
-          <t>Enter %fname% in fname Field</t>
+          <t>Enter %Lname% in Lname Field</t>
         </is>
       </c>
       <c r="F472" t="inlineStr">
@@ -36642,7 +36642,7 @@
       </c>
       <c r="E473" t="inlineStr">
         <is>
-          <t>Enter lname3 in fname Field</t>
+          <t>Enter lname3 in Lname Field</t>
         </is>
       </c>
       <c r="F473" t="inlineStr">
@@ -36707,7 +36707,7 @@
       </c>
       <c r="E477" t="inlineStr">
         <is>
-          <t>Enter %fname% in fname Field</t>
+          <t>Enter %Lname% in Lname Field</t>
         </is>
       </c>
       <c r="F477" t="inlineStr">
@@ -36722,7 +36722,7 @@
       </c>
       <c r="E478" t="inlineStr">
         <is>
-          <t>Enter Abou Haidar in fname Field</t>
+          <t>Enter Abou Haidar in Lname Field</t>
         </is>
       </c>
       <c r="F478" t="inlineStr">
@@ -36787,7 +36787,7 @@
       </c>
       <c r="E482" t="inlineStr">
         <is>
-          <t>Enter %fname% in fname Field</t>
+          <t>Enter %Lname% in Lname Field</t>
         </is>
       </c>
       <c r="F482" t="inlineStr">
@@ -36802,7 +36802,7 @@
       </c>
       <c r="E483" t="inlineStr">
         <is>
-          <t>Enter Abou Haidar in fname Field</t>
+          <t>Enter Abou Haidar in Lname Field</t>
         </is>
       </c>
       <c r="F483" t="inlineStr">
@@ -36867,7 +36867,7 @@
       </c>
       <c r="E487" t="inlineStr">
         <is>
-          <t>Enter %fname% in fname Field</t>
+          <t>Enter %Lname% in Lname Field</t>
         </is>
       </c>
       <c r="F487" t="inlineStr">
@@ -36882,7 +36882,7 @@
       </c>
       <c r="E488" t="inlineStr">
         <is>
-          <t>Enter Abou Haidar in fname Field</t>
+          <t>Enter Abou Haidar in Lname Field</t>
         </is>
       </c>
       <c r="F488" t="inlineStr">
@@ -36947,7 +36947,7 @@
       </c>
       <c r="E492" t="inlineStr">
         <is>
-          <t>Enter %fname% in fname Field</t>
+          <t>Enter %Lname% in Lname Field</t>
         </is>
       </c>
       <c r="F492" t="inlineStr">
@@ -36962,7 +36962,7 @@
       </c>
       <c r="E493" t="inlineStr">
         <is>
-          <t>Enter Abou Haidar in fname Field</t>
+          <t>Enter Abou Haidar in Lname Field</t>
         </is>
       </c>
       <c r="F493" t="inlineStr">
@@ -37027,7 +37027,7 @@
       </c>
       <c r="E497" t="inlineStr">
         <is>
-          <t>Enter %fname% in fname Field</t>
+          <t>Enter %Lname% in Lname Field</t>
         </is>
       </c>
       <c r="F497" t="inlineStr">
@@ -37042,7 +37042,7 @@
       </c>
       <c r="E498" t="inlineStr">
         <is>
-          <t>Enter Abou Haidar in fname Field</t>
+          <t>Enter Abou Haidar in Lname Field</t>
         </is>
       </c>
       <c r="F498" t="inlineStr">
@@ -37107,7 +37107,7 @@
       </c>
       <c r="E502" t="inlineStr">
         <is>
-          <t>Enter %fname% in fname Field</t>
+          <t>Enter %Lname% in Lname Field</t>
         </is>
       </c>
       <c r="F502" t="inlineStr">
@@ -37122,7 +37122,7 @@
       </c>
       <c r="E503" t="inlineStr">
         <is>
-          <t>Enter lname3 in fname Field</t>
+          <t>Enter lname3 in Lname Field</t>
         </is>
       </c>
       <c r="F503" t="inlineStr">
@@ -37187,7 +37187,7 @@
       </c>
       <c r="E507" t="inlineStr">
         <is>
-          <t>Enter %fname% in fname Field</t>
+          <t>Enter %Lname% in Lname Field</t>
         </is>
       </c>
       <c r="F507" t="inlineStr">
@@ -37202,7 +37202,7 @@
       </c>
       <c r="E508" t="inlineStr">
         <is>
-          <t>Enter lname3 in fname Field</t>
+          <t>Enter lname3 in Lname Field</t>
         </is>
       </c>
       <c r="F508" t="inlineStr">

--- a/NOMAC_Work Order Manangement.xlsx
+++ b/NOMAC_Work Order Manangement.xlsx
@@ -378,6 +378,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -394,9 +397,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -831,11 +831,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="22.7109375" customWidth="1" style="41" min="5" max="5"/>
-    <col width="29" customWidth="1" style="41" min="6" max="6"/>
-    <col width="23.140625" customWidth="1" style="41" min="7" max="7"/>
-    <col width="23.7109375" customWidth="1" style="41" min="8" max="8"/>
-    <col width="23.85546875" customWidth="1" style="41" min="9" max="9"/>
+    <col width="22.7109375" customWidth="1" style="42" min="5" max="5"/>
+    <col width="29" customWidth="1" style="42" min="6" max="6"/>
+    <col width="23.140625" customWidth="1" style="42" min="7" max="7"/>
+    <col width="23.7109375" customWidth="1" style="42" min="8" max="8"/>
+    <col width="23.85546875" customWidth="1" style="42" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -983,15 +983,15 @@
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="1" t="n"/>
       <c r="D6" s="1" t="n"/>
-      <c r="E6" s="38" t="inlineStr">
+      <c r="E6" s="39" t="inlineStr">
         <is>
           <t>FSM_NOMAC</t>
         </is>
       </c>
-      <c r="F6" s="39" t="n"/>
-      <c r="G6" s="39" t="n"/>
-      <c r="H6" s="39" t="n"/>
-      <c r="I6" s="39" t="n"/>
+      <c r="F6" s="40" t="n"/>
+      <c r="G6" s="40" t="n"/>
+      <c r="H6" s="40" t="n"/>
+      <c r="I6" s="40" t="n"/>
       <c r="J6" s="1" t="n"/>
       <c r="K6" s="1" t="n"/>
       <c r="L6" s="1" t="n"/>
@@ -1043,27 +1043,27 @@
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="1" t="n"/>
       <c r="D8" s="1" t="n"/>
-      <c r="E8" s="38" t="inlineStr">
+      <c r="E8" s="39" t="inlineStr">
         <is>
           <t>Version History</t>
         </is>
       </c>
-      <c r="F8" s="38" t="inlineStr">
+      <c r="F8" s="39" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="G8" s="38" t="inlineStr">
+      <c r="G8" s="39" t="inlineStr">
         <is>
           <t>Created/Modified By</t>
         </is>
       </c>
-      <c r="H8" s="38" t="inlineStr">
+      <c r="H8" s="39" t="inlineStr">
         <is>
           <t>Date Created/Modified</t>
         </is>
       </c>
-      <c r="I8" s="38" t="inlineStr">
+      <c r="I8" s="39" t="inlineStr">
         <is>
           <t>Approved By</t>
         </is>
@@ -28890,22 +28890,22 @@
   <dimension ref="A1:K510"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="24.42578125" customWidth="1" style="41" min="1" max="1"/>
-    <col width="73" bestFit="1" customWidth="1" style="41" min="2" max="2"/>
+    <col width="24.42578125" customWidth="1" style="42" min="1" max="1"/>
+    <col width="73" bestFit="1" customWidth="1" style="42" min="2" max="2"/>
     <col width="24.28515625" bestFit="1" customWidth="1" style="23" min="3" max="3"/>
     <col width="14" customWidth="1" style="23" min="4" max="4"/>
     <col width="96.28515625" bestFit="1" customWidth="1" style="13" min="5" max="5"/>
-    <col width="80" bestFit="1" customWidth="1" style="41" min="6" max="6"/>
-    <col width="14.85546875" customWidth="1" style="41" min="7" max="7"/>
-    <col width="19.28515625" customWidth="1" style="41" min="8" max="8"/>
-    <col width="15.85546875" customWidth="1" style="41" min="9" max="9"/>
-    <col width="11.85546875" customWidth="1" style="41" min="10" max="10"/>
-    <col width="42.7109375" customWidth="1" style="41" min="11" max="11"/>
+    <col width="80" bestFit="1" customWidth="1" style="42" min="6" max="6"/>
+    <col width="14.85546875" customWidth="1" style="42" min="7" max="7"/>
+    <col width="19.28515625" customWidth="1" style="42" min="8" max="8"/>
+    <col width="15.85546875" customWidth="1" style="42" min="9" max="9"/>
+    <col width="11.85546875" customWidth="1" style="42" min="10" max="10"/>
+    <col width="42.7109375" customWidth="1" style="42" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -28954,7 +28954,7 @@
       <c r="J3" s="13" t="n"/>
       <c r="K3" s="13" t="n"/>
     </row>
-    <row r="4" ht="15" customHeight="1" s="41">
+    <row r="4" ht="15" customHeight="1" s="42">
       <c r="A4" s="13" t="n"/>
       <c r="B4" s="10" t="inlineStr">
         <is>
@@ -29006,7 +29006,7 @@
       <c r="J5" s="13" t="n"/>
       <c r="K5" s="13" t="n"/>
     </row>
-    <row r="6" ht="15" customHeight="1" s="41">
+    <row r="6" ht="15" customHeight="1" s="42">
       <c r="A6" s="13" t="n"/>
       <c r="B6" s="30" t="n"/>
       <c r="C6" s="24" t="inlineStr">
@@ -29123,10 +29123,10 @@
         </is>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1" s="41">
-      <c r="A11" s="40" t="n"/>
+    <row r="11" ht="15" customHeight="1" s="42">
+      <c r="A11" s="41" t="n"/>
       <c r="B11" s="32" t="n"/>
-      <c r="C11" s="40" t="inlineStr">
+      <c r="C11" s="41" t="inlineStr">
         <is>
           <t>NOMAC_Process1_TC1</t>
         </is>
@@ -29136,19 +29136,19 @@
       </c>
       <c r="E11" s="16" t="inlineStr">
         <is>
-          <t>Enter Johnny in name Field</t>
-        </is>
-      </c>
-      <c r="F11" s="45" t="inlineStr">
-        <is>
-          <t>No validation Errors when entered</t>
-        </is>
-      </c>
-      <c r="G11" s="42" t="n"/>
-      <c r="H11" s="42" t="n"/>
-      <c r="I11" s="42" t="n"/>
-      <c r="J11" s="43" t="n"/>
-      <c r="K11" s="44" t="n"/>
+          <t>Enter Johnny in first Field</t>
+        </is>
+      </c>
+      <c r="F11" s="38" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+      <c r="G11" s="43" t="n"/>
+      <c r="H11" s="43" t="n"/>
+      <c r="I11" s="43" t="n"/>
+      <c r="J11" s="44" t="n"/>
+      <c r="K11" s="45" t="n"/>
     </row>
     <row r="12">
       <c r="D12" s="18" t="n">
@@ -29156,10 +29156,10 @@
       </c>
       <c r="E12" s="16" t="inlineStr">
         <is>
-          <t>Enter %Lname% in Lname Field</t>
-        </is>
-      </c>
-      <c r="F12" s="45" t="inlineStr">
+          <t>Enter lname3 in Lname Field</t>
+        </is>
+      </c>
+      <c r="F12" s="38" t="inlineStr">
         <is>
           <t>No validation Errors when entered</t>
         </is>
@@ -29171,10 +29171,10 @@
       </c>
       <c r="E13" s="16" t="inlineStr">
         <is>
-          <t>Enter Abou Haidar in Lname Field</t>
-        </is>
-      </c>
-      <c r="F13" s="45" t="inlineStr">
+          <t>Enter 111 in comment Field</t>
+        </is>
+      </c>
+      <c r="F13" s="38" t="inlineStr">
         <is>
           <t>No validation Errors when entered</t>
         </is>
@@ -29186,10 +29186,10 @@
       </c>
       <c r="E14" s="16" t="inlineStr">
         <is>
-          <t>Enter sample comment1 in comment Field</t>
-        </is>
-      </c>
-      <c r="F14" s="45" t="inlineStr">
+          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+        </is>
+      </c>
+      <c r="F14" s="38" t="inlineStr">
         <is>
           <t>No validation Errors when entered</t>
         </is>
@@ -29202,11 +29202,11 @@
         </is>
       </c>
       <c r="D15" s="18" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E15" s="16" t="inlineStr">
         <is>
-          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+          <t>Enter Johnny in first Field</t>
         </is>
       </c>
       <c r="F15" s="35" t="inlineStr">
@@ -29216,17 +29216,12 @@
       </c>
     </row>
     <row r="16">
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>NOMAC_Process1_TC2</t>
-        </is>
-      </c>
       <c r="D16" s="18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16" s="16" t="inlineStr">
         <is>
-          <t>Enter Johnny in name Field</t>
+          <t>Enter New in Lname Field</t>
         </is>
       </c>
       <c r="F16" s="35" t="inlineStr">
@@ -29237,11 +29232,11 @@
     </row>
     <row r="17">
       <c r="D17" s="18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E17" s="16" t="inlineStr">
         <is>
-          <t>Enter %Lname% in Lname Field</t>
+          <t>Enter hello in comment Field</t>
         </is>
       </c>
       <c r="F17" s="35" t="inlineStr">
@@ -29252,11 +29247,11 @@
     </row>
     <row r="18">
       <c r="D18" s="18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E18" s="16" t="inlineStr">
         <is>
-          <t>Enter lname3 in Lname Field</t>
+          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F18" s="35" t="inlineStr">
@@ -29272,14 +29267,14 @@
         </is>
       </c>
       <c r="D19" s="18" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E19" s="16" t="inlineStr">
         <is>
-          <t>Enter hello in comment Field</t>
-        </is>
-      </c>
-      <c r="F19" s="40" t="inlineStr">
+          <t>Enter Johnny in first Field</t>
+        </is>
+      </c>
+      <c r="F19" s="41" t="inlineStr">
         <is>
           <t>No validation Errors when entered</t>
         </is>
@@ -29287,61 +29282,56 @@
     </row>
     <row r="20">
       <c r="D20" s="18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E20" s="16" t="inlineStr">
         <is>
+          <t>Enter Smith in Lname Field</t>
+        </is>
+      </c>
+      <c r="F20" s="41" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="29.25" customHeight="1" s="42">
+      <c r="D21" s="18" t="n">
+        <v>3</v>
+      </c>
+      <c r="E21" s="16" t="inlineStr">
+        <is>
+          <t>Enter 111 in comment Field</t>
+        </is>
+      </c>
+      <c r="F21" s="41" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="41" t="n"/>
+      <c r="B22" s="17" t="n"/>
+      <c r="C22" s="41" t="n"/>
+      <c r="D22" s="18" t="n">
+        <v>4</v>
+      </c>
+      <c r="E22" s="16" t="inlineStr">
+        <is>
           <t>Upload nan in file2upload Field</t>
         </is>
       </c>
-      <c r="F20" s="40" t="inlineStr">
-        <is>
-          <t>No validation Errors when entered</t>
-        </is>
-      </c>
-    </row>
-    <row r="21" ht="29.25" customHeight="1" s="41">
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>NOMAC_Process1_TC3</t>
-        </is>
-      </c>
-      <c r="D21" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" s="16" t="inlineStr">
-        <is>
-          <t>Enter name3 in name Field</t>
-        </is>
-      </c>
-      <c r="F21" s="40" t="inlineStr">
-        <is>
-          <t>No validation Errors when entered</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="40" t="n"/>
-      <c r="B22" s="17" t="n"/>
-      <c r="C22" s="40" t="n"/>
-      <c r="D22" s="18" t="n">
-        <v>2</v>
-      </c>
-      <c r="E22" s="16" t="inlineStr">
-        <is>
-          <t>Enter %Lname% in Lname Field</t>
-        </is>
-      </c>
-      <c r="F22" s="45" t="inlineStr">
-        <is>
-          <t>No validation Errors when entered</t>
-        </is>
-      </c>
-      <c r="G22" s="42" t="n"/>
-      <c r="H22" s="42" t="n"/>
-      <c r="I22" s="42" t="n"/>
-      <c r="J22" s="43" t="n"/>
-      <c r="K22" s="44" t="n"/>
+      <c r="F22" s="38" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+      <c r="G22" s="43" t="n"/>
+      <c r="H22" s="43" t="n"/>
+      <c r="I22" s="43" t="n"/>
+      <c r="J22" s="44" t="n"/>
+      <c r="K22" s="45" t="n"/>
     </row>
     <row r="23">
       <c r="C23" t="inlineStr">
@@ -29350,11 +29340,11 @@
         </is>
       </c>
       <c r="D23" s="18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E23" s="16" t="inlineStr">
         <is>
-          <t>Enter lname3 in Lname Field</t>
+          <t>Enter Johnny in first Field</t>
         </is>
       </c>
       <c r="F23" s="35" t="inlineStr">
@@ -29365,49 +29355,44 @@
     </row>
     <row r="24">
       <c r="D24" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="E24" s="16" t="inlineStr">
+        <is>
+          <t>Enter Smith in Lname Field</t>
+        </is>
+      </c>
+      <c r="F24" s="41" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="25" ht="31.5" customHeight="1" s="42">
+      <c r="D25" s="18" t="n">
+        <v>3</v>
+      </c>
+      <c r="E25" s="16" t="inlineStr">
+        <is>
+          <t>Enter 111 in comment Field</t>
+        </is>
+      </c>
+      <c r="F25" s="41" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="D26" s="18" t="n">
         <v>4</v>
       </c>
-      <c r="E24" s="16" t="inlineStr">
-        <is>
-          <t>Enter hello in comment Field</t>
-        </is>
-      </c>
-      <c r="F24" s="40" t="inlineStr">
-        <is>
-          <t>No validation Errors when entered</t>
-        </is>
-      </c>
-    </row>
-    <row r="25" ht="31.5" customHeight="1" s="41">
-      <c r="D25" s="18" t="n">
-        <v>5</v>
-      </c>
-      <c r="E25" s="16" t="inlineStr">
+      <c r="E26" s="16" t="inlineStr">
         <is>
           <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
         </is>
       </c>
-      <c r="F25" s="40" t="inlineStr">
-        <is>
-          <t>No validation Errors when entered</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>NOMAC_Process1_TC4</t>
-        </is>
-      </c>
-      <c r="D26" s="18" t="n">
-        <v>1</v>
-      </c>
-      <c r="E26" s="16" t="inlineStr">
-        <is>
-          <t>Enter name3 in name Field</t>
-        </is>
-      </c>
-      <c r="F26" s="40" t="inlineStr">
+      <c r="F26" s="41" t="inlineStr">
         <is>
           <t>No validation Errors when entered</t>
         </is>
@@ -29420,11 +29405,11 @@
         </is>
       </c>
       <c r="D27" s="18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E27" s="16" t="inlineStr">
         <is>
-          <t>Enter %Lname% in Lname Field</t>
+          <t>Enter Johnny in first Field</t>
         </is>
       </c>
       <c r="F27" s="35" t="inlineStr">
@@ -29435,11 +29420,11 @@
     </row>
     <row r="28">
       <c r="D28" s="18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E28" s="16" t="inlineStr">
         <is>
-          <t>Enter lname3 in Lname Field</t>
+          <t>Enter New in Lname Field</t>
         </is>
       </c>
       <c r="F28" s="35" t="inlineStr">
@@ -29450,11 +29435,11 @@
     </row>
     <row r="29">
       <c r="D29" s="18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E29" s="16" t="inlineStr">
         <is>
-          <t>Enter hello in comment Field</t>
+          <t>Enter 111 in comment Field</t>
         </is>
       </c>
       <c r="F29" s="35" t="inlineStr">
@@ -29470,7 +29455,7 @@
     </row>
     <row r="30">
       <c r="D30" s="35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E30" s="36" t="inlineStr">
         <is>
@@ -29486,7 +29471,7 @@
     <row r="31">
       <c r="C31" t="inlineStr">
         <is>
-          <t>NOMAC_Process1_TC5</t>
+          <t>NOMAC_Process1_TC6</t>
         </is>
       </c>
       <c r="D31" s="35" t="n">
@@ -29494,7 +29479,7 @@
       </c>
       <c r="E31" s="36" t="inlineStr">
         <is>
-          <t>Enter Johnny in name Field</t>
+          <t>Enter Johnny in first Field</t>
         </is>
       </c>
       <c r="F31" s="35" t="inlineStr">
@@ -29509,7 +29494,7 @@
       </c>
       <c r="E32" s="36" t="inlineStr">
         <is>
-          <t>Enter %Lname% in Lname Field</t>
+          <t>Enter Smith in Lname Field</t>
         </is>
       </c>
       <c r="F32" s="35" t="inlineStr">
@@ -29524,7 +29509,7 @@
       </c>
       <c r="E33" s="36" t="inlineStr">
         <is>
-          <t>Enter Abou Haidar in Lname Field</t>
+          <t>Enter 111 in comment Field</t>
         </is>
       </c>
       <c r="F33" s="35" t="inlineStr">
@@ -29539,7 +29524,7 @@
       </c>
       <c r="E34" s="36" t="inlineStr">
         <is>
-          <t>Enter hello in comment Field</t>
+          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F34" s="35" t="inlineStr">
@@ -29555,11 +29540,11 @@
         </is>
       </c>
       <c r="D35" s="35" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E35" s="36" t="inlineStr">
         <is>
-          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+          <t>Enter John in first Field</t>
         </is>
       </c>
       <c r="F35" s="35" t="inlineStr">
@@ -29569,17 +29554,12 @@
       </c>
     </row>
     <row r="36">
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>NOMAC_Process1_TC6</t>
-        </is>
-      </c>
       <c r="D36" s="35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E36" s="36" t="inlineStr">
         <is>
-          <t>Enter Johnny in name Field</t>
+          <t>Enter lname3 in Lname Field</t>
         </is>
       </c>
       <c r="F36" s="35" t="inlineStr">
@@ -29590,11 +29570,11 @@
     </row>
     <row r="37">
       <c r="D37" s="35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E37" s="36" t="inlineStr">
         <is>
-          <t>Enter %Lname% in Lname Field</t>
+          <t>Enter 111 in comment Field</t>
         </is>
       </c>
       <c r="F37" s="35" t="inlineStr">
@@ -29605,11 +29585,11 @@
     </row>
     <row r="38">
       <c r="D38" s="35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E38" s="36" t="inlineStr">
         <is>
-          <t>Enter Abou Haidar in Lname Field</t>
+          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F38" s="35" t="inlineStr">
@@ -29625,11 +29605,11 @@
         </is>
       </c>
       <c r="D39" s="35" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E39" s="36" t="inlineStr">
         <is>
-          <t>Enter hello in comment Field</t>
+          <t>Enter Johnny in first Field</t>
         </is>
       </c>
       <c r="F39" s="35" t="inlineStr">
@@ -29640,11 +29620,11 @@
     </row>
     <row r="40">
       <c r="D40" s="35" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E40" s="36" t="inlineStr">
         <is>
-          <t>Upload nan in file2upload Field</t>
+          <t>Enter lname3 in Lname Field</t>
         </is>
       </c>
       <c r="F40" s="35" t="inlineStr">
@@ -29654,17 +29634,12 @@
       </c>
     </row>
     <row r="41">
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>NOMAC_Process1_TC7</t>
-        </is>
-      </c>
       <c r="D41" s="35" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E41" s="36" t="inlineStr">
         <is>
-          <t>Enter name3 in name Field</t>
+          <t>Enter 111 in comment Field</t>
         </is>
       </c>
       <c r="F41" s="35" t="inlineStr">
@@ -29675,11 +29650,11 @@
     </row>
     <row r="42">
       <c r="D42" s="35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E42" s="36" t="inlineStr">
         <is>
-          <t>Enter %Lname% in Lname Field</t>
+          <t>Upload nan in file2upload Field</t>
         </is>
       </c>
       <c r="F42" s="35" t="inlineStr">
@@ -29695,11 +29670,11 @@
         </is>
       </c>
       <c r="D43" s="35" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E43" s="36" t="inlineStr">
         <is>
-          <t>Enter lname3 in Lname Field</t>
+          <t>Enter Johnny in first Field</t>
         </is>
       </c>
       <c r="F43" s="35" t="inlineStr">
@@ -29710,11 +29685,11 @@
     </row>
     <row r="44">
       <c r="D44" s="35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E44" s="36" t="inlineStr">
         <is>
-          <t>Enter hello in comment Field</t>
+          <t>Enter Smith in Lname Field</t>
         </is>
       </c>
       <c r="F44" s="35" t="inlineStr">
@@ -29725,31 +29700,26 @@
     </row>
     <row r="45">
       <c r="D45" s="35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E45" s="36" t="inlineStr">
         <is>
+          <t>Enter 111 in comment Field</t>
+        </is>
+      </c>
+      <c r="F45" s="35" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="D46" s="35" t="n">
+        <v>4</v>
+      </c>
+      <c r="E46" s="36" t="inlineStr">
+        <is>
           <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
-        </is>
-      </c>
-      <c r="F45" s="35" t="inlineStr">
-        <is>
-          <t>No validation Errors when entered</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>NOMAC_Process1_TC8</t>
-        </is>
-      </c>
-      <c r="D46" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="E46" s="36" t="inlineStr">
-        <is>
-          <t>Enter name3 in name Field</t>
         </is>
       </c>
       <c r="F46" s="35" t="inlineStr">
@@ -29765,11 +29735,11 @@
         </is>
       </c>
       <c r="D47" s="35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E47" s="36" t="inlineStr">
         <is>
-          <t>Enter %Lname% in Lname Field</t>
+          <t>Enter Johnny in first Field</t>
         </is>
       </c>
       <c r="F47" s="35" t="inlineStr">
@@ -29780,11 +29750,11 @@
     </row>
     <row r="48">
       <c r="D48" s="35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E48" s="36" t="inlineStr">
         <is>
-          <t>Enter Abou Haidar in Lname Field</t>
+          <t>Enter New in Lname Field</t>
         </is>
       </c>
       <c r="F48" s="35" t="inlineStr">
@@ -29795,11 +29765,11 @@
     </row>
     <row r="49">
       <c r="D49" s="22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E49" s="37" t="inlineStr">
         <is>
-          <t>Enter hello in comment Field</t>
+          <t>Enter 111 in comment Field</t>
         </is>
       </c>
       <c r="F49" s="22" t="inlineStr">
@@ -29810,11 +29780,11 @@
     </row>
     <row r="50">
       <c r="D50" s="22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E50" s="20" t="inlineStr">
         <is>
-          <t>Upload nan in file2upload Field</t>
+          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F50" s="35" t="inlineStr">
@@ -29826,7 +29796,7 @@
     <row r="51">
       <c r="C51" t="inlineStr">
         <is>
-          <t>NOMAC_Process1_TC9</t>
+          <t>NOMAC_Process1_TC11</t>
         </is>
       </c>
       <c r="D51" s="22" t="n">
@@ -29834,7 +29804,7 @@
       </c>
       <c r="E51" s="20" t="inlineStr">
         <is>
-          <t>Enter Johnny in name Field</t>
+          <t>Enter Johnny in first Field</t>
         </is>
       </c>
       <c r="F51" s="35" t="inlineStr">
@@ -29849,7 +29819,7 @@
       </c>
       <c r="E52" s="20" t="inlineStr">
         <is>
-          <t>Enter %Lname% in Lname Field</t>
+          <t>Enter lname3 in Lname Field</t>
         </is>
       </c>
       <c r="F52" s="35" t="inlineStr">
@@ -29864,7 +29834,7 @@
       </c>
       <c r="E53" s="20" t="inlineStr">
         <is>
-          <t>Enter Abou Haidar in Lname Field</t>
+          <t>Enter 111 in comment Field</t>
         </is>
       </c>
       <c r="F53" s="35" t="inlineStr">
@@ -29879,7 +29849,7 @@
       </c>
       <c r="E54" s="20" t="inlineStr">
         <is>
-          <t>Enter hello in comment Field</t>
+          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F54" s="35" t="inlineStr">
@@ -29895,11 +29865,11 @@
         </is>
       </c>
       <c r="D55" s="22" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E55" s="20" t="inlineStr">
         <is>
-          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+          <t>Enter John in first Field</t>
         </is>
       </c>
       <c r="F55" s="35" t="inlineStr">
@@ -29910,17 +29880,13 @@
     </row>
     <row r="56">
       <c r="B56" s="13" t="n"/>
-      <c r="C56" s="22" t="inlineStr">
-        <is>
-          <t>NOMAC_Process1_TC10</t>
-        </is>
-      </c>
+      <c r="C56" s="22" t="n"/>
       <c r="D56" s="22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E56" s="20" t="inlineStr">
         <is>
-          <t>Enter name3 in name Field</t>
+          <t>Enter New in Lname Field</t>
         </is>
       </c>
       <c r="F56" s="35" t="inlineStr">
@@ -29933,11 +29899,11 @@
       <c r="B57" s="13" t="n"/>
       <c r="C57" s="22" t="n"/>
       <c r="D57" s="22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E57" s="20" t="inlineStr">
         <is>
-          <t>Enter %Lname% in Lname Field</t>
+          <t>Enter 111 in comment Field</t>
         </is>
       </c>
       <c r="F57" s="35" t="inlineStr">
@@ -29950,11 +29916,11 @@
       <c r="B58" s="13" t="n"/>
       <c r="C58" s="22" t="n"/>
       <c r="D58" s="22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E58" s="20" t="inlineStr">
         <is>
-          <t>Enter Abou Haidar in Lname Field</t>
+          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F58" s="35" t="inlineStr">
@@ -29971,11 +29937,11 @@
         </is>
       </c>
       <c r="D59" s="22" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E59" s="20" t="inlineStr">
         <is>
-          <t>Enter sample comment1 in comment Field</t>
+          <t>Enter John in first Field</t>
         </is>
       </c>
       <c r="F59" s="35" t="inlineStr">
@@ -29988,11 +29954,11 @@
       <c r="B60" s="13" t="n"/>
       <c r="C60" s="22" t="n"/>
       <c r="D60" s="22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E60" s="20" t="inlineStr">
         <is>
-          <t>Upload nan in file2upload Field</t>
+          <t>Enter New in Lname Field</t>
         </is>
       </c>
       <c r="F60" s="35" t="inlineStr">
@@ -30003,17 +29969,13 @@
     </row>
     <row r="61">
       <c r="B61" s="13" t="n"/>
-      <c r="C61" s="22" t="inlineStr">
-        <is>
-          <t>NOMAC_Process1_TC11</t>
-        </is>
-      </c>
+      <c r="C61" s="22" t="n"/>
       <c r="D61" s="22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E61" s="20" t="inlineStr">
         <is>
-          <t>Enter Johnny in name Field</t>
+          <t>Enter hello in comment Field</t>
         </is>
       </c>
       <c r="F61" s="35" t="inlineStr">
@@ -30026,11 +29988,11 @@
       <c r="B62" s="13" t="n"/>
       <c r="C62" s="22" t="n"/>
       <c r="D62" s="22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E62" s="20" t="inlineStr">
         <is>
-          <t>Enter %Lname% in Lname Field</t>
+          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F62" s="35" t="inlineStr">
@@ -30047,11 +30009,11 @@
         </is>
       </c>
       <c r="D63" s="22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E63" s="20" t="inlineStr">
         <is>
-          <t>Enter Abou Haidar in Lname Field</t>
+          <t>Enter Johnny in first Field</t>
         </is>
       </c>
       <c r="F63" s="35" t="inlineStr">
@@ -30064,11 +30026,11 @@
       <c r="B64" s="13" t="n"/>
       <c r="C64" s="22" t="n"/>
       <c r="D64" s="22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E64" s="20" t="inlineStr">
         <is>
-          <t>Enter sample comment1 in comment Field</t>
+          <t>Enter New in Lname Field</t>
         </is>
       </c>
       <c r="F64" s="35" t="inlineStr">
@@ -30081,11 +30043,11 @@
       <c r="B65" s="13" t="n"/>
       <c r="C65" s="22" t="n"/>
       <c r="D65" s="22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E65" s="20" t="inlineStr">
         <is>
-          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+          <t>Enter hello in comment Field</t>
         </is>
       </c>
       <c r="F65" s="35" t="inlineStr">
@@ -30096,17 +30058,13 @@
     </row>
     <row r="66">
       <c r="B66" s="13" t="n"/>
-      <c r="C66" s="22" t="inlineStr">
-        <is>
-          <t>NOMAC_Process1_TC12</t>
-        </is>
-      </c>
+      <c r="C66" s="22" t="n"/>
       <c r="D66" s="22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E66" s="20" t="inlineStr">
         <is>
-          <t>Enter name3 in name Field</t>
+          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F66" s="35" t="inlineStr">
@@ -30123,11 +30081,11 @@
         </is>
       </c>
       <c r="D67" s="22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E67" s="20" t="inlineStr">
         <is>
-          <t>Enter %Lname% in Lname Field</t>
+          <t>Enter John in first Field</t>
         </is>
       </c>
       <c r="F67" s="35" t="inlineStr">
@@ -30140,11 +30098,11 @@
       <c r="B68" s="13" t="n"/>
       <c r="C68" s="22" t="n"/>
       <c r="D68" s="22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E68" s="20" t="inlineStr">
         <is>
-          <t>Enter Abou Haidar in Lname Field</t>
+          <t>Enter lname3 in Lname Field</t>
         </is>
       </c>
       <c r="F68" s="35" t="inlineStr">
@@ -30157,11 +30115,11 @@
       <c r="B69" s="13" t="n"/>
       <c r="C69" s="22" t="n"/>
       <c r="D69" s="22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E69" s="20" t="inlineStr">
         <is>
-          <t>Enter hello in comment Field</t>
+          <t>Enter 111 in comment Field</t>
         </is>
       </c>
       <c r="F69" s="35" t="inlineStr">
@@ -30174,11 +30132,11 @@
       <c r="B70" s="13" t="n"/>
       <c r="C70" s="22" t="n"/>
       <c r="D70" s="22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E70" s="20" t="inlineStr">
         <is>
-          <t>Upload nan in file2upload Field</t>
+          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F70" s="35" t="inlineStr">
@@ -30191,7 +30149,7 @@
       <c r="B71" s="13" t="n"/>
       <c r="C71" s="22" t="inlineStr">
         <is>
-          <t>NOMAC_Process1_TC13</t>
+          <t>NOMAC_Process1_TC16</t>
         </is>
       </c>
       <c r="D71" s="22" t="n">
@@ -30199,7 +30157,7 @@
       </c>
       <c r="E71" s="20" t="inlineStr">
         <is>
-          <t>Enter name3 in name Field</t>
+          <t>Enter Johnny in first Field</t>
         </is>
       </c>
       <c r="F71" s="20" t="inlineStr">
@@ -30216,7 +30174,7 @@
       </c>
       <c r="E72" s="20" t="inlineStr">
         <is>
-          <t>Enter %Lname% in Lname Field</t>
+          <t>Enter Smith in Lname Field</t>
         </is>
       </c>
       <c r="F72" s="20" t="inlineStr">
@@ -30233,7 +30191,7 @@
       </c>
       <c r="E73" s="20" t="inlineStr">
         <is>
-          <t>Enter Abou Haidar in Lname Field</t>
+          <t>Enter 111 in comment Field</t>
         </is>
       </c>
       <c r="F73" s="20" t="inlineStr">
@@ -30250,7 +30208,7 @@
       </c>
       <c r="E74" s="20" t="inlineStr">
         <is>
-          <t>Enter sample comment1 in comment Field</t>
+          <t>Upload nan in file2upload Field</t>
         </is>
       </c>
       <c r="F74" s="20" t="inlineStr">
@@ -30261,13 +30219,17 @@
     </row>
     <row r="75">
       <c r="B75" s="13" t="n"/>
-      <c r="C75" s="22" t="n"/>
+      <c r="C75" s="22" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC17</t>
+        </is>
+      </c>
       <c r="D75" s="22" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E75" s="20" t="inlineStr">
         <is>
-          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+          <t>Enter Johnny in first Field</t>
         </is>
       </c>
       <c r="F75" s="20" t="inlineStr">
@@ -30278,17 +30240,13 @@
     </row>
     <row r="76">
       <c r="B76" s="13" t="n"/>
-      <c r="C76" s="22" t="inlineStr">
-        <is>
-          <t>NOMAC_Process1_TC14</t>
-        </is>
-      </c>
+      <c r="C76" s="22" t="n"/>
       <c r="D76" s="22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E76" s="20" t="inlineStr">
         <is>
-          <t>Enter Johnny in name Field</t>
+          <t>Enter lname3 in Lname Field</t>
         </is>
       </c>
       <c r="F76" s="20" t="inlineStr">
@@ -30301,11 +30259,11 @@
       <c r="B77" s="13" t="n"/>
       <c r="C77" s="22" t="n"/>
       <c r="D77" s="22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E77" s="20" t="inlineStr">
         <is>
-          <t>Enter %Lname% in Lname Field</t>
+          <t>Enter 111 in comment Field</t>
         </is>
       </c>
       <c r="F77" s="20" t="inlineStr">
@@ -30318,11 +30276,11 @@
       <c r="B78" s="13" t="n"/>
       <c r="C78" s="22" t="n"/>
       <c r="D78" s="22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Enter lname3 in Lname Field</t>
+          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F78" s="13" t="inlineStr">
@@ -30332,12 +30290,17 @@
       </c>
     </row>
     <row r="79">
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC18</t>
+        </is>
+      </c>
       <c r="D79" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Enter hello in comment Field</t>
+          <t>Enter Johnny in first Field</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -30348,11 +30311,11 @@
     </row>
     <row r="80">
       <c r="D80" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Upload nan in file2upload Field</t>
+          <t>Enter Smith in Lname Field</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -30362,17 +30325,12 @@
       </c>
     </row>
     <row r="81">
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>NOMAC_Process1_TC15</t>
-        </is>
-      </c>
       <c r="D81" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Enter Johnny in name Field</t>
+          <t>Enter hello in comment Field</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -30383,11 +30341,11 @@
     </row>
     <row r="82">
       <c r="D82" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Enter %Lname% in Lname Field</t>
+          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -30397,12 +30355,17 @@
       </c>
     </row>
     <row r="83">
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC19</t>
+        </is>
+      </c>
       <c r="D83" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Enter Abou Haidar in Lname Field</t>
+          <t>Enter Johnny in first Field</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -30413,11 +30376,11 @@
     </row>
     <row r="84">
       <c r="D84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Enter hello in comment Field</t>
+          <t>Enter Smith in Lname Field</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -30428,46 +30391,46 @@
     </row>
     <row r="85">
       <c r="D85" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
+          <t>Enter hello in comment Field</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="D86" t="n">
+        <v>4</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
           <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>No validation Errors when entered</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>NOMAC_Process1_TC16</t>
-        </is>
-      </c>
-      <c r="D86" t="n">
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC20</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
         <v>1</v>
       </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>Enter Johnny in name Field</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>No validation Errors when entered</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="D87" t="n">
-        <v>2</v>
-      </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Enter %Lname% in Lname Field</t>
+          <t>Enter John in first Field</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -30478,11 +30441,11 @@
     </row>
     <row r="88">
       <c r="D88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Enter Abou Haidar in Lname Field</t>
+          <t>Enter Smith in Lname Field</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -30493,11 +30456,11 @@
     </row>
     <row r="89">
       <c r="D89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Enter sample comment1 in comment Field</t>
+          <t>Enter hello in comment Field</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -30508,7 +30471,7 @@
     </row>
     <row r="90">
       <c r="D90" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -30524,7 +30487,7 @@
     <row r="91">
       <c r="C91" t="inlineStr">
         <is>
-          <t>NOMAC_Process1_TC17</t>
+          <t>NOMAC_Process1_TC21</t>
         </is>
       </c>
       <c r="D91" t="n">
@@ -30532,7 +30495,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Enter Johnny in name Field</t>
+          <t>Enter Johnny in first Field</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -30547,7 +30510,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Enter %Lname% in Lname Field</t>
+          <t>Enter New in Lname Field</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -30562,7 +30525,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Enter Abou Haidar in Lname Field</t>
+          <t>Enter 111 in comment Field</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -30577,7 +30540,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Enter sample comment1 in comment Field</t>
+          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -30587,12 +30550,17 @@
       </c>
     </row>
     <row r="95">
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC22</t>
+        </is>
+      </c>
       <c r="D95" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Upload nan in file2upload Field</t>
+          <t>Enter Johnny in first Field</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -30602,17 +30570,12 @@
       </c>
     </row>
     <row r="96">
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>NOMAC_Process1_TC18</t>
-        </is>
-      </c>
       <c r="D96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Enter Johnny in name Field</t>
+          <t>Enter New in Lname Field</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -30623,11 +30586,11 @@
     </row>
     <row r="97">
       <c r="D97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Enter %Lname% in Lname Field</t>
+          <t>Enter 111 in comment Field</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -30638,11 +30601,11 @@
     </row>
     <row r="98">
       <c r="D98" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Enter lname3 in Lname Field</t>
+          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -30652,12 +30615,17 @@
       </c>
     </row>
     <row r="99">
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC23</t>
+        </is>
+      </c>
       <c r="D99" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Enter sample comment1 in comment Field</t>
+          <t>Enter Johnny in first Field</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -30668,11 +30636,11 @@
     </row>
     <row r="100">
       <c r="D100" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+          <t>Enter New in Lname Field</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -30682,17 +30650,12 @@
       </c>
     </row>
     <row r="101">
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>NOMAC_Process1_TC19</t>
-        </is>
-      </c>
       <c r="D101" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Enter Johnny in name Field</t>
+          <t>Enter 111 in comment Field</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -30703,11 +30666,11 @@
     </row>
     <row r="102">
       <c r="D102" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Enter %Lname% in Lname Field</t>
+          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -30717,12 +30680,17 @@
       </c>
     </row>
     <row r="103">
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC24</t>
+        </is>
+      </c>
       <c r="D103" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Enter lname3 in Lname Field</t>
+          <t>Enter John in first Field</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -30733,11 +30701,11 @@
     </row>
     <row r="104">
       <c r="D104" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Enter hello in comment Field</t>
+          <t>Enter New in Lname Field</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -30748,46 +30716,46 @@
     </row>
     <row r="105">
       <c r="D105" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
+          <t>Enter 111 in comment Field</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="D106" t="n">
+        <v>4</v>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
           <t>Upload nan in file2upload Field</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>No validation Errors when entered</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>NOMAC_Process1_TC20</t>
-        </is>
-      </c>
-      <c r="D106" t="n">
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC25</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
         <v>1</v>
       </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>Enter name3 in name Field</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>No validation Errors when entered</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="D107" t="n">
-        <v>2</v>
-      </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Enter %Lname% in Lname Field</t>
+          <t>Enter John in first Field</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -30798,11 +30766,11 @@
     </row>
     <row r="108">
       <c r="D108" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Enter Abou Haidar in Lname Field</t>
+          <t>Enter lname3 in Lname Field</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -30813,11 +30781,11 @@
     </row>
     <row r="109">
       <c r="D109" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Enter hello in comment Field</t>
+          <t>Enter 111 in comment Field</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -30828,7 +30796,7 @@
     </row>
     <row r="110">
       <c r="D110" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -30844,7 +30812,7 @@
     <row r="111">
       <c r="C111" t="inlineStr">
         <is>
-          <t>NOMAC_Process1_TC21</t>
+          <t>NOMAC_Process1_TC26</t>
         </is>
       </c>
       <c r="D111" t="n">
@@ -30852,7 +30820,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Enter Johnny in name Field</t>
+          <t>Enter Johnny in first Field</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -30867,7 +30835,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Enter %Lname% in Lname Field</t>
+          <t>Enter Smith in Lname Field</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -30882,7 +30850,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Enter Abou Haidar in Lname Field</t>
+          <t>Enter 111 in comment Field</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -30897,7 +30865,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Enter sample comment1 in comment Field</t>
+          <t>Upload nan in file2upload Field</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -30907,12 +30875,17 @@
       </c>
     </row>
     <row r="115">
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC27</t>
+        </is>
+      </c>
       <c r="D115" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Upload nan in file2upload Field</t>
+          <t>Enter Johnny in first Field</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -30922,17 +30895,12 @@
       </c>
     </row>
     <row r="116">
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>NOMAC_Process1_TC22</t>
-        </is>
-      </c>
       <c r="D116" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Enter name3 in name Field</t>
+          <t>Enter Smith in Lname Field</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -30943,11 +30911,11 @@
     </row>
     <row r="117">
       <c r="D117" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Enter %Lname% in Lname Field</t>
+          <t>Enter 111 in comment Field</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -30958,11 +30926,11 @@
     </row>
     <row r="118">
       <c r="D118" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Enter lname3 in Lname Field</t>
+          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -30972,12 +30940,17 @@
       </c>
     </row>
     <row r="119">
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC28</t>
+        </is>
+      </c>
       <c r="D119" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Enter sample comment1 in comment Field</t>
+          <t>Enter Johnny in first Field</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -30988,11 +30961,11 @@
     </row>
     <row r="120">
       <c r="D120" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+          <t>Enter Smith in Lname Field</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -31002,17 +30975,12 @@
       </c>
     </row>
     <row r="121">
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>NOMAC_Process1_TC23</t>
-        </is>
-      </c>
       <c r="D121" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Enter Johnny in name Field</t>
+          <t>Enter hello in comment Field</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -31023,11 +30991,11 @@
     </row>
     <row r="122">
       <c r="D122" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Enter %Lname% in Lname Field</t>
+          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -31037,12 +31005,17 @@
       </c>
     </row>
     <row r="123">
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC29</t>
+        </is>
+      </c>
       <c r="D123" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Enter Abou Haidar in Lname Field</t>
+          <t>Enter Johnny in first Field</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -31053,11 +31026,11 @@
     </row>
     <row r="124">
       <c r="D124" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Enter sample comment1 in comment Field</t>
+          <t>Enter New in Lname Field</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -31068,11 +31041,11 @@
     </row>
     <row r="125">
       <c r="D125" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+          <t>Enter 111 in comment Field</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -31082,32 +31055,32 @@
       </c>
     </row>
     <row r="126">
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>NOMAC_Process1_TC24</t>
-        </is>
-      </c>
       <c r="D126" t="n">
+        <v>4</v>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Upload nan in file2upload Field</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC30</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
         <v>1</v>
       </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>Enter Johnny in name Field</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>No validation Errors when entered</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="D127" t="n">
-        <v>2</v>
-      </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Enter %Lname% in Lname Field</t>
+          <t>Enter John in first Field</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -31118,11 +31091,11 @@
     </row>
     <row r="128">
       <c r="D128" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Enter lname3 in Lname Field</t>
+          <t>Enter New in Lname Field</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -31133,11 +31106,11 @@
     </row>
     <row r="129">
       <c r="D129" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Enter hello in comment Field</t>
+          <t>Enter 111 in comment Field</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -31148,11 +31121,11 @@
     </row>
     <row r="130">
       <c r="D130" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+          <t>Upload nan in file2upload Field</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -31164,7 +31137,7 @@
     <row r="131">
       <c r="C131" t="inlineStr">
         <is>
-          <t>NOMAC_Process1_TC25</t>
+          <t>NOMAC_Process1_TC31</t>
         </is>
       </c>
       <c r="D131" t="n">
@@ -31172,7 +31145,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Enter name3 in name Field</t>
+          <t>Enter Johnny in first Field</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -31187,7 +31160,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Enter %Lname% in Lname Field</t>
+          <t>Enter New in Lname Field</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -31202,7 +31175,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Enter Abou Haidar in Lname Field</t>
+          <t>Enter 111 in comment Field</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -31217,7 +31190,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Enter hello in comment Field</t>
+          <t>Upload nan in file2upload Field</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -31227,12 +31200,17 @@
       </c>
     </row>
     <row r="135">
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC32</t>
+        </is>
+      </c>
       <c r="D135" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Upload nan in file2upload Field</t>
+          <t>Enter John in first Field</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -31242,17 +31220,12 @@
       </c>
     </row>
     <row r="136">
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>NOMAC_Process1_TC26</t>
-        </is>
-      </c>
       <c r="D136" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Enter Johnny in name Field</t>
+          <t>Enter New in Lname Field</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -31263,11 +31236,11 @@
     </row>
     <row r="137">
       <c r="D137" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Enter %Lname% in Lname Field</t>
+          <t>Enter 111 in comment Field</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -31278,11 +31251,11 @@
     </row>
     <row r="138">
       <c r="D138" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Enter Abou Haidar in Lname Field</t>
+          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -31292,12 +31265,17 @@
       </c>
     </row>
     <row r="139">
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC33</t>
+        </is>
+      </c>
       <c r="D139" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Enter hello in comment Field</t>
+          <t>Enter Johnny in first Field</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -31308,11 +31286,11 @@
     </row>
     <row r="140">
       <c r="D140" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+          <t>Enter Smith in Lname Field</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -31322,17 +31300,12 @@
       </c>
     </row>
     <row r="141">
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>NOMAC_Process1_TC27</t>
-        </is>
-      </c>
       <c r="D141" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Enter name3 in name Field</t>
+          <t>Enter 111 in comment Field</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -31343,11 +31316,11 @@
     </row>
     <row r="142">
       <c r="D142" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Enter %Lname% in Lname Field</t>
+          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -31357,12 +31330,17 @@
       </c>
     </row>
     <row r="143">
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC34</t>
+        </is>
+      </c>
       <c r="D143" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Enter Abou Haidar in Lname Field</t>
+          <t>Enter Johnny in first Field</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -31373,11 +31351,11 @@
     </row>
     <row r="144">
       <c r="D144" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Enter hello in comment Field</t>
+          <t>Enter lname3 in Lname Field</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
@@ -31388,46 +31366,46 @@
     </row>
     <row r="145">
       <c r="D145" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
+          <t>Enter 111 in comment Field</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="D146" t="n">
+        <v>4</v>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
           <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
         </is>
       </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>No validation Errors when entered</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>NOMAC_Process1_TC28</t>
-        </is>
-      </c>
-      <c r="D146" t="n">
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC35</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
         <v>1</v>
       </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>Enter name3 in name Field</t>
-        </is>
-      </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>No validation Errors when entered</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="D147" t="n">
-        <v>2</v>
-      </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Enter %Lname% in Lname Field</t>
+          <t>Enter Johnny in first Field</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -31438,11 +31416,11 @@
     </row>
     <row r="148">
       <c r="D148" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Enter Abou Haidar in Lname Field</t>
+          <t>Enter New in Lname Field</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -31453,11 +31431,11 @@
     </row>
     <row r="149">
       <c r="D149" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Enter sample comment1 in comment Field</t>
+          <t>Enter 111 in comment Field</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -31468,11 +31446,11 @@
     </row>
     <row r="150">
       <c r="D150" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+          <t>Upload nan in file2upload Field</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -31484,7 +31462,7 @@
     <row r="151">
       <c r="C151" t="inlineStr">
         <is>
-          <t>NOMAC_Process1_TC29</t>
+          <t>NOMAC_Process1_TC36</t>
         </is>
       </c>
       <c r="D151" t="n">
@@ -31492,7 +31470,7 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Enter name3 in name Field</t>
+          <t>Enter John in first Field</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -31507,7 +31485,7 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Enter %Lname% in Lname Field</t>
+          <t>Enter lname3 in Lname Field</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -31522,7 +31500,7 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Enter lname3 in Lname Field</t>
+          <t>Enter 111 in comment Field</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -31537,7 +31515,7 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Enter sample comment1 in comment Field</t>
+          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -31547,12 +31525,17 @@
       </c>
     </row>
     <row r="155">
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC37</t>
+        </is>
+      </c>
       <c r="D155" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Upload nan in file2upload Field</t>
+          <t>Enter Johnny in first Field</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -31562,17 +31545,12 @@
       </c>
     </row>
     <row r="156">
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>NOMAC_Process1_TC30</t>
-        </is>
-      </c>
       <c r="D156" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Enter name3 in name Field</t>
+          <t>Enter Smith in Lname Field</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -31583,11 +31561,11 @@
     </row>
     <row r="157">
       <c r="D157" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Enter %Lname% in Lname Field</t>
+          <t>Enter 111 in comment Field</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -31598,11 +31576,11 @@
     </row>
     <row r="158">
       <c r="D158" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Enter Abou Haidar in Lname Field</t>
+          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -31612,12 +31590,17 @@
       </c>
     </row>
     <row r="159">
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC38</t>
+        </is>
+      </c>
       <c r="D159" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Enter hello in comment Field</t>
+          <t>Enter John in first Field</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -31628,11 +31611,11 @@
     </row>
     <row r="160">
       <c r="D160" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+          <t>Enter New in Lname Field</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
@@ -31642,17 +31625,12 @@
       </c>
     </row>
     <row r="161">
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>NOMAC_Process1_TC31</t>
-        </is>
-      </c>
       <c r="D161" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Enter Johnny in name Field</t>
+          <t>Enter hello in comment Field</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -31663,11 +31641,11 @@
     </row>
     <row r="162">
       <c r="D162" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Enter %Lname% in Lname Field</t>
+          <t>Upload nan in file2upload Field</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -31677,12 +31655,17 @@
       </c>
     </row>
     <row r="163">
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC39</t>
+        </is>
+      </c>
       <c r="D163" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Enter lname3 in Lname Field</t>
+          <t>Enter John in first Field</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -31693,11 +31676,11 @@
     </row>
     <row r="164">
       <c r="D164" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Enter hello in comment Field</t>
+          <t>Enter Smith in Lname Field</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -31708,11 +31691,11 @@
     </row>
     <row r="165">
       <c r="D165" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Upload nan in file2upload Field</t>
+          <t>Enter 111 in comment Field</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -31722,32 +31705,32 @@
       </c>
     </row>
     <row r="166">
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>NOMAC_Process1_TC32</t>
-        </is>
-      </c>
       <c r="D166" t="n">
+        <v>4</v>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC40</t>
+        </is>
+      </c>
+      <c r="D167" t="n">
         <v>1</v>
       </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>Enter Johnny in name Field</t>
-        </is>
-      </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>No validation Errors when entered</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="D167" t="n">
-        <v>2</v>
-      </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Enter %Lname% in Lname Field</t>
+          <t>Enter John in first Field</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
@@ -31758,11 +31741,11 @@
     </row>
     <row r="168">
       <c r="D168" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Enter Abou Haidar in Lname Field</t>
+          <t>Enter lname3 in Lname Field</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
@@ -31773,11 +31756,11 @@
     </row>
     <row r="169">
       <c r="D169" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Enter sample comment1 in comment Field</t>
+          <t>Enter 111 in comment Field</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -31788,11 +31771,11 @@
     </row>
     <row r="170">
       <c r="D170" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+          <t>Upload nan in file2upload Field</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
@@ -31804,7 +31787,7 @@
     <row r="171">
       <c r="C171" t="inlineStr">
         <is>
-          <t>NOMAC_Process1_TC33</t>
+          <t>NOMAC_Process1_TC41</t>
         </is>
       </c>
       <c r="D171" t="n">
@@ -31812,7 +31795,7 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Enter Johnny in name Field</t>
+          <t>Enter Johnny in first Field</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -31827,7 +31810,7 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Enter %Lname% in Lname Field</t>
+          <t>Enter lname3 in Lname Field</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
@@ -31842,7 +31825,7 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Enter Abou Haidar in Lname Field</t>
+          <t>Enter 111 in comment Field</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
@@ -31857,7 +31840,7 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Enter hello in comment Field</t>
+          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -31867,12 +31850,17 @@
       </c>
     </row>
     <row r="175">
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC42</t>
+        </is>
+      </c>
       <c r="D175" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+          <t>Enter John in first Field</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -31882,17 +31870,12 @@
       </c>
     </row>
     <row r="176">
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>NOMAC_Process1_TC34</t>
-        </is>
-      </c>
       <c r="D176" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Enter name3 in name Field</t>
+          <t>Enter Smith in Lname Field</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
@@ -31903,11 +31886,11 @@
     </row>
     <row r="177">
       <c r="D177" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Enter %Lname% in Lname Field</t>
+          <t>Enter hello in comment Field</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
@@ -31918,11 +31901,11 @@
     </row>
     <row r="178">
       <c r="D178" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Enter Abou Haidar in Lname Field</t>
+          <t>Upload nan in file2upload Field</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
@@ -31932,12 +31915,17 @@
       </c>
     </row>
     <row r="179">
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC43</t>
+        </is>
+      </c>
       <c r="D179" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Enter sample comment1 in comment Field</t>
+          <t>Enter Johnny in first Field</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
@@ -31948,11 +31936,11 @@
     </row>
     <row r="180">
       <c r="D180" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+          <t>Enter New in Lname Field</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
@@ -31962,17 +31950,12 @@
       </c>
     </row>
     <row r="181">
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>NOMAC_Process1_TC35</t>
-        </is>
-      </c>
       <c r="D181" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Enter Johnny in name Field</t>
+          <t>Enter 111 in comment Field</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
@@ -31983,11 +31966,11 @@
     </row>
     <row r="182">
       <c r="D182" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Enter %Lname% in Lname Field</t>
+          <t>Upload nan in file2upload Field</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
@@ -31997,12 +31980,17 @@
       </c>
     </row>
     <row r="183">
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC44</t>
+        </is>
+      </c>
       <c r="D183" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Enter Abou Haidar in Lname Field</t>
+          <t>Enter John in first Field</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -32013,11 +32001,11 @@
     </row>
     <row r="184">
       <c r="D184" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Enter hello in comment Field</t>
+          <t>Enter Smith in Lname Field</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
@@ -32028,46 +32016,46 @@
     </row>
     <row r="185">
       <c r="D185" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
+          <t>Enter 111 in comment Field</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="D186" t="n">
+        <v>4</v>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
           <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
         </is>
       </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>No validation Errors when entered</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>NOMAC_Process1_TC36</t>
-        </is>
-      </c>
-      <c r="D186" t="n">
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC45</t>
+        </is>
+      </c>
+      <c r="D187" t="n">
         <v>1</v>
       </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>Enter Johnny in name Field</t>
-        </is>
-      </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>No validation Errors when entered</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="D187" t="n">
-        <v>2</v>
-      </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Enter %Lname% in Lname Field</t>
+          <t>Enter John in first Field</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
@@ -32078,11 +32066,11 @@
     </row>
     <row r="188">
       <c r="D188" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Enter Abou Haidar in Lname Field</t>
+          <t>Enter New in Lname Field</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
@@ -32093,11 +32081,11 @@
     </row>
     <row r="189">
       <c r="D189" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Enter hello in comment Field</t>
+          <t>Enter 111 in comment Field</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
@@ -32108,7 +32096,7 @@
     </row>
     <row r="190">
       <c r="D190" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
@@ -32124,7 +32112,7 @@
     <row r="191">
       <c r="C191" t="inlineStr">
         <is>
-          <t>NOMAC_Process1_TC37</t>
+          <t>NOMAC_Process1_TC46</t>
         </is>
       </c>
       <c r="D191" t="n">
@@ -32132,7 +32120,7 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Enter name3 in name Field</t>
+          <t>Enter John in first Field</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
@@ -32147,7 +32135,7 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Enter %Lname% in Lname Field</t>
+          <t>Enter Smith in Lname Field</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
@@ -32162,7 +32150,7 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Enter Abou Haidar in Lname Field</t>
+          <t>Enter 111 in comment Field</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
@@ -32177,7 +32165,7 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Enter hello in comment Field</t>
+          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
@@ -32187,12 +32175,17 @@
       </c>
     </row>
     <row r="195">
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC47</t>
+        </is>
+      </c>
       <c r="D195" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Upload nan in file2upload Field</t>
+          <t>Enter Johnny in first Field</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
@@ -32202,17 +32195,12 @@
       </c>
     </row>
     <row r="196">
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>NOMAC_Process1_TC38</t>
-        </is>
-      </c>
       <c r="D196" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Enter Johnny in name Field</t>
+          <t>Enter New in Lname Field</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
@@ -32223,11 +32211,11 @@
     </row>
     <row r="197">
       <c r="D197" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Enter %Lname% in Lname Field</t>
+          <t>Enter 111 in comment Field</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
@@ -32238,11 +32226,11 @@
     </row>
     <row r="198">
       <c r="D198" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Enter Abou Haidar in Lname Field</t>
+          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
@@ -32252,12 +32240,17 @@
       </c>
     </row>
     <row r="199">
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC48</t>
+        </is>
+      </c>
       <c r="D199" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Enter sample comment1 in comment Field</t>
+          <t>Enter Johnny in first Field</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
@@ -32268,11 +32261,11 @@
     </row>
     <row r="200">
       <c r="D200" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+          <t>Enter Smith in Lname Field</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
@@ -32282,17 +32275,12 @@
       </c>
     </row>
     <row r="201">
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>NOMAC_Process1_TC39</t>
-        </is>
-      </c>
       <c r="D201" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Enter name3 in name Field</t>
+          <t>Enter 111 in comment Field</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
@@ -32303,11 +32291,11 @@
     </row>
     <row r="202">
       <c r="D202" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Enter %Lname% in Lname Field</t>
+          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
@@ -32317,12 +32305,17 @@
       </c>
     </row>
     <row r="203">
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC49</t>
+        </is>
+      </c>
       <c r="D203" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Enter Abou Haidar in Lname Field</t>
+          <t>Enter John in first Field</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
@@ -32333,11 +32326,11 @@
     </row>
     <row r="204">
       <c r="D204" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Enter hello in comment Field</t>
+          <t>Enter lname3 in Lname Field</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
@@ -32348,11 +32341,11 @@
     </row>
     <row r="205">
       <c r="D205" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Upload nan in file2upload Field</t>
+          <t>Enter hello in comment Field</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
@@ -32362,32 +32355,32 @@
       </c>
     </row>
     <row r="206">
-      <c r="C206" t="inlineStr">
-        <is>
-          <t>NOMAC_Process1_TC40</t>
-        </is>
-      </c>
       <c r="D206" t="n">
+        <v>4</v>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC50</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
         <v>1</v>
       </c>
-      <c r="E206" t="inlineStr">
-        <is>
-          <t>Enter Johnny in name Field</t>
-        </is>
-      </c>
-      <c r="F206" t="inlineStr">
-        <is>
-          <t>No validation Errors when entered</t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="D207" t="n">
-        <v>2</v>
-      </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Enter %Lname% in Lname Field</t>
+          <t>Enter John in first Field</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
@@ -32398,11 +32391,11 @@
     </row>
     <row r="208">
       <c r="D208" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Enter Abou Haidar in Lname Field</t>
+          <t>Enter lname3 in Lname Field</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
@@ -32413,11 +32406,11 @@
     </row>
     <row r="209">
       <c r="D209" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Enter sample comment1 in comment Field</t>
+          <t>Enter 111 in comment Field</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
@@ -32428,11 +32421,11 @@
     </row>
     <row r="210">
       <c r="D210" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Upload nan in file2upload Field</t>
+          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
@@ -32444,7 +32437,7 @@
     <row r="211">
       <c r="C211" t="inlineStr">
         <is>
-          <t>NOMAC_Process1_TC41</t>
+          <t>NOMAC_Process1_TC51</t>
         </is>
       </c>
       <c r="D211" t="n">
@@ -32452,7 +32445,7 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Enter Johnny in name Field</t>
+          <t>Enter John in first Field</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
@@ -32467,7 +32460,7 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Enter %Lname% in Lname Field</t>
+          <t>Enter lname3 in Lname Field</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
@@ -32482,7 +32475,7 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Enter lname3 in Lname Field</t>
+          <t>Enter 111 in comment Field</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
@@ -32497,7 +32490,7 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Enter hello in comment Field</t>
+          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
@@ -32507,12 +32500,17 @@
       </c>
     </row>
     <row r="215">
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC52</t>
+        </is>
+      </c>
       <c r="D215" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+          <t>Enter John in first Field</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
@@ -32522,17 +32520,12 @@
       </c>
     </row>
     <row r="216">
-      <c r="C216" t="inlineStr">
-        <is>
-          <t>NOMAC_Process1_TC42</t>
-        </is>
-      </c>
       <c r="D216" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Enter Johnny in name Field</t>
+          <t>Enter New in Lname Field</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
@@ -32543,11 +32536,11 @@
     </row>
     <row r="217">
       <c r="D217" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Enter %Lname% in Lname Field</t>
+          <t>Enter 111 in comment Field</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
@@ -32558,11 +32551,11 @@
     </row>
     <row r="218">
       <c r="D218" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Enter lname3 in Lname Field</t>
+          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
@@ -32572,12 +32565,17 @@
       </c>
     </row>
     <row r="219">
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC53</t>
+        </is>
+      </c>
       <c r="D219" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Enter hello in comment Field</t>
+          <t>Enter Johnny in first Field</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
@@ -32588,11 +32586,11 @@
     </row>
     <row r="220">
       <c r="D220" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+          <t>Enter New in Lname Field</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
@@ -32602,17 +32600,12 @@
       </c>
     </row>
     <row r="221">
-      <c r="C221" t="inlineStr">
-        <is>
-          <t>NOMAC_Process1_TC43</t>
-        </is>
-      </c>
       <c r="D221" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Enter Johnny in name Field</t>
+          <t>Enter 111 in comment Field</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
@@ -32623,11 +32616,11 @@
     </row>
     <row r="222">
       <c r="D222" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Enter %Lname% in Lname Field</t>
+          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
@@ -32637,12 +32630,17 @@
       </c>
     </row>
     <row r="223">
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC54</t>
+        </is>
+      </c>
       <c r="D223" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Enter lname3 in Lname Field</t>
+          <t>Enter John in first Field</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
@@ -32653,11 +32651,11 @@
     </row>
     <row r="224">
       <c r="D224" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Enter hello in comment Field</t>
+          <t>Enter Smith in Lname Field</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
@@ -32668,46 +32666,46 @@
     </row>
     <row r="225">
       <c r="D225" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E225" t="inlineStr">
         <is>
+          <t>Enter 111 in comment Field</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="D226" t="n">
+        <v>4</v>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
           <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
         </is>
       </c>
-      <c r="F225" t="inlineStr">
-        <is>
-          <t>No validation Errors when entered</t>
-        </is>
-      </c>
-    </row>
-    <row r="226">
-      <c r="C226" t="inlineStr">
-        <is>
-          <t>NOMAC_Process1_TC44</t>
-        </is>
-      </c>
-      <c r="D226" t="n">
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC55</t>
+        </is>
+      </c>
+      <c r="D227" t="n">
         <v>1</v>
       </c>
-      <c r="E226" t="inlineStr">
-        <is>
-          <t>Enter Johnny in name Field</t>
-        </is>
-      </c>
-      <c r="F226" t="inlineStr">
-        <is>
-          <t>No validation Errors when entered</t>
-        </is>
-      </c>
-    </row>
-    <row r="227">
-      <c r="D227" t="n">
-        <v>2</v>
-      </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Enter %Lname% in Lname Field</t>
+          <t>Enter John in first Field</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
@@ -32718,11 +32716,11 @@
     </row>
     <row r="228">
       <c r="D228" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Enter Abou Haidar in Lname Field</t>
+          <t>Enter Smith in Lname Field</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
@@ -32733,11 +32731,11 @@
     </row>
     <row r="229">
       <c r="D229" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Enter sample comment1 in comment Field</t>
+          <t>Enter 111 in comment Field</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
@@ -32748,11 +32746,11 @@
     </row>
     <row r="230">
       <c r="D230" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Upload nan in file2upload Field</t>
+          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
@@ -32764,7 +32762,7 @@
     <row r="231">
       <c r="C231" t="inlineStr">
         <is>
-          <t>NOMAC_Process1_TC45</t>
+          <t>NOMAC_Process1_TC56</t>
         </is>
       </c>
       <c r="D231" t="n">
@@ -32772,7 +32770,7 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Enter Johnny in name Field</t>
+          <t>Enter Johnny in first Field</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
@@ -32787,7 +32785,7 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Enter %Lname% in Lname Field</t>
+          <t>Enter Smith in Lname Field</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
@@ -32802,7 +32800,7 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Enter Abou Haidar in Lname Field</t>
+          <t>Enter 111 in comment Field</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
@@ -32817,7 +32815,7 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Enter sample comment1 in comment Field</t>
+          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
@@ -32827,12 +32825,17 @@
       </c>
     </row>
     <row r="235">
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC57</t>
+        </is>
+      </c>
       <c r="D235" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+          <t>Enter Johnny in first Field</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
@@ -32842,17 +32845,12 @@
       </c>
     </row>
     <row r="236">
-      <c r="C236" t="inlineStr">
-        <is>
-          <t>NOMAC_Process1_TC46</t>
-        </is>
-      </c>
       <c r="D236" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Enter Johnny in name Field</t>
+          <t>Enter New in Lname Field</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
@@ -32863,11 +32861,11 @@
     </row>
     <row r="237">
       <c r="D237" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Enter %Lname% in Lname Field</t>
+          <t>Enter 111 in comment Field</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
@@ -32878,11 +32876,11 @@
     </row>
     <row r="238">
       <c r="D238" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Enter lname3 in Lname Field</t>
+          <t>Upload nan in file2upload Field</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
@@ -32892,12 +32890,17 @@
       </c>
     </row>
     <row r="239">
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC58</t>
+        </is>
+      </c>
       <c r="D239" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Enter hello in comment Field</t>
+          <t>Enter Johnny in first Field</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
@@ -32908,11 +32911,11 @@
     </row>
     <row r="240">
       <c r="D240" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+          <t>Enter New in Lname Field</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
@@ -32922,17 +32925,12 @@
       </c>
     </row>
     <row r="241">
-      <c r="C241" t="inlineStr">
-        <is>
-          <t>NOMAC_Process1_TC47</t>
-        </is>
-      </c>
       <c r="D241" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>Enter Johnny in name Field</t>
+          <t>Enter hello in comment Field</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
@@ -32943,11 +32941,11 @@
     </row>
     <row r="242">
       <c r="D242" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>Enter %Lname% in Lname Field</t>
+          <t>Upload nan in file2upload Field</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
@@ -32957,12 +32955,17 @@
       </c>
     </row>
     <row r="243">
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC59</t>
+        </is>
+      </c>
       <c r="D243" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>Enter Abou Haidar in Lname Field</t>
+          <t>Enter Johnny in first Field</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
@@ -32973,11 +32976,11 @@
     </row>
     <row r="244">
       <c r="D244" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>Enter hello in comment Field</t>
+          <t>Enter New in Lname Field</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
@@ -32988,46 +32991,46 @@
     </row>
     <row r="245">
       <c r="D245" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E245" t="inlineStr">
         <is>
+          <t>Enter hello in comment Field</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="D246" t="n">
+        <v>4</v>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
           <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
         </is>
       </c>
-      <c r="F245" t="inlineStr">
-        <is>
-          <t>No validation Errors when entered</t>
-        </is>
-      </c>
-    </row>
-    <row r="246">
-      <c r="C246" t="inlineStr">
-        <is>
-          <t>NOMAC_Process1_TC48</t>
-        </is>
-      </c>
-      <c r="D246" t="n">
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC60</t>
+        </is>
+      </c>
+      <c r="D247" t="n">
         <v>1</v>
       </c>
-      <c r="E246" t="inlineStr">
-        <is>
-          <t>Enter Johnny in name Field</t>
-        </is>
-      </c>
-      <c r="F246" t="inlineStr">
-        <is>
-          <t>No validation Errors when entered</t>
-        </is>
-      </c>
-    </row>
-    <row r="247">
-      <c r="D247" t="n">
-        <v>2</v>
-      </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>Enter %Lname% in Lname Field</t>
+          <t>Enter Johnny in first Field</t>
         </is>
       </c>
       <c r="F247" t="inlineStr">
@@ -33038,7 +33041,7 @@
     </row>
     <row r="248">
       <c r="D248" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E248" t="inlineStr">
         <is>
@@ -33053,11 +33056,11 @@
     </row>
     <row r="249">
       <c r="D249" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>Enter hello in comment Field</t>
+          <t>Enter 111 in comment Field</t>
         </is>
       </c>
       <c r="F249" t="inlineStr">
@@ -33068,7 +33071,7 @@
     </row>
     <row r="250">
       <c r="D250" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E250" t="inlineStr">
         <is>
@@ -33084,7 +33087,7 @@
     <row r="251">
       <c r="C251" t="inlineStr">
         <is>
-          <t>NOMAC_Process1_TC49</t>
+          <t>NOMAC_Process1_TC61</t>
         </is>
       </c>
       <c r="D251" t="n">
@@ -33092,7 +33095,7 @@
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>Enter name3 in name Field</t>
+          <t>Enter Johnny in first Field</t>
         </is>
       </c>
       <c r="F251" t="inlineStr">
@@ -33107,7 +33110,7 @@
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>Enter %Lname% in Lname Field</t>
+          <t>Enter Smith in Lname Field</t>
         </is>
       </c>
       <c r="F252" t="inlineStr">
@@ -33122,7 +33125,7 @@
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>Enter Abou Haidar in Lname Field</t>
+          <t>Enter 111 in comment Field</t>
         </is>
       </c>
       <c r="F253" t="inlineStr">
@@ -33137,7 +33140,7 @@
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>Enter sample comment1 in comment Field</t>
+          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F254" t="inlineStr">
@@ -33147,12 +33150,17 @@
       </c>
     </row>
     <row r="255">
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC62</t>
+        </is>
+      </c>
       <c r="D255" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>Upload nan in file2upload Field</t>
+          <t>Enter Johnny in first Field</t>
         </is>
       </c>
       <c r="F255" t="inlineStr">
@@ -33162,17 +33170,12 @@
       </c>
     </row>
     <row r="256">
-      <c r="C256" t="inlineStr">
-        <is>
-          <t>NOMAC_Process1_TC50</t>
-        </is>
-      </c>
       <c r="D256" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>Enter Johnny in name Field</t>
+          <t>Enter Smith in Lname Field</t>
         </is>
       </c>
       <c r="F256" t="inlineStr">
@@ -33183,11 +33186,11 @@
     </row>
     <row r="257">
       <c r="D257" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>Enter %Lname% in Lname Field</t>
+          <t>Enter 111 in comment Field</t>
         </is>
       </c>
       <c r="F257" t="inlineStr">
@@ -33198,11 +33201,11 @@
     </row>
     <row r="258">
       <c r="D258" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>Enter Abou Haidar in Lname Field</t>
+          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F258" t="inlineStr">
@@ -33212,12 +33215,17 @@
       </c>
     </row>
     <row r="259">
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC63</t>
+        </is>
+      </c>
       <c r="D259" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>Enter sample comment1 in comment Field</t>
+          <t>Enter Johnny in first Field</t>
         </is>
       </c>
       <c r="F259" t="inlineStr">
@@ -33228,11 +33236,11 @@
     </row>
     <row r="260">
       <c r="D260" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+          <t>Enter Smith in Lname Field</t>
         </is>
       </c>
       <c r="F260" t="inlineStr">
@@ -33242,17 +33250,12 @@
       </c>
     </row>
     <row r="261">
-      <c r="C261" t="inlineStr">
-        <is>
-          <t>NOMAC_Process1_TC51</t>
-        </is>
-      </c>
       <c r="D261" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>Enter Johnny in name Field</t>
+          <t>Enter 111 in comment Field</t>
         </is>
       </c>
       <c r="F261" t="inlineStr">
@@ -33263,11 +33266,11 @@
     </row>
     <row r="262">
       <c r="D262" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>Enter %Lname% in Lname Field</t>
+          <t>Upload nan in file2upload Field</t>
         </is>
       </c>
       <c r="F262" t="inlineStr">
@@ -33277,12 +33280,17 @@
       </c>
     </row>
     <row r="263">
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC64</t>
+        </is>
+      </c>
       <c r="D263" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>Enter Abou Haidar in Lname Field</t>
+          <t>Enter Johnny in first Field</t>
         </is>
       </c>
       <c r="F263" t="inlineStr">
@@ -33293,11 +33301,11 @@
     </row>
     <row r="264">
       <c r="D264" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>Enter sample comment1 in comment Field</t>
+          <t>Enter Smith in Lname Field</t>
         </is>
       </c>
       <c r="F264" t="inlineStr">
@@ -33308,11 +33316,11 @@
     </row>
     <row r="265">
       <c r="D265" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+          <t>Enter 111 in comment Field</t>
         </is>
       </c>
       <c r="F265" t="inlineStr">
@@ -33322,32 +33330,32 @@
       </c>
     </row>
     <row r="266">
-      <c r="C266" t="inlineStr">
-        <is>
-          <t>NOMAC_Process1_TC52</t>
-        </is>
-      </c>
       <c r="D266" t="n">
+        <v>4</v>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>Upload nan in file2upload Field</t>
+        </is>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC65</t>
+        </is>
+      </c>
+      <c r="D267" t="n">
         <v>1</v>
       </c>
-      <c r="E266" t="inlineStr">
-        <is>
-          <t>Enter Johnny in name Field</t>
-        </is>
-      </c>
-      <c r="F266" t="inlineStr">
-        <is>
-          <t>No validation Errors when entered</t>
-        </is>
-      </c>
-    </row>
-    <row r="267">
-      <c r="D267" t="n">
-        <v>2</v>
-      </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>Enter %Lname% in Lname Field</t>
+          <t>Enter John in first Field</t>
         </is>
       </c>
       <c r="F267" t="inlineStr">
@@ -33358,11 +33366,11 @@
     </row>
     <row r="268">
       <c r="D268" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>Enter lname3 in Lname Field</t>
+          <t>Enter New in Lname Field</t>
         </is>
       </c>
       <c r="F268" t="inlineStr">
@@ -33373,11 +33381,11 @@
     </row>
     <row r="269">
       <c r="D269" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>Enter sample comment1 in comment Field</t>
+          <t>Enter 111 in comment Field</t>
         </is>
       </c>
       <c r="F269" t="inlineStr">
@@ -33388,7 +33396,7 @@
     </row>
     <row r="270">
       <c r="D270" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E270" t="inlineStr">
         <is>
@@ -33404,7 +33412,7 @@
     <row r="271">
       <c r="C271" t="inlineStr">
         <is>
-          <t>NOMAC_Process1_TC53</t>
+          <t>NOMAC_Process1_TC66</t>
         </is>
       </c>
       <c r="D271" t="n">
@@ -33412,7 +33420,7 @@
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>Enter Johnny in name Field</t>
+          <t>Enter John in first Field</t>
         </is>
       </c>
       <c r="F271" t="inlineStr">
@@ -33427,7 +33435,7 @@
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>Enter %Lname% in Lname Field</t>
+          <t>Enter New in Lname Field</t>
         </is>
       </c>
       <c r="F272" t="inlineStr">
@@ -33442,7 +33450,7 @@
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>Enter Abou Haidar in Lname Field</t>
+          <t>Enter hello in comment Field</t>
         </is>
       </c>
       <c r="F273" t="inlineStr">
@@ -33457,7 +33465,7 @@
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>Enter hello in comment Field</t>
+          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F274" t="inlineStr">
@@ -33467,12 +33475,17 @@
       </c>
     </row>
     <row r="275">
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC67</t>
+        </is>
+      </c>
       <c r="D275" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+          <t>Enter Johnny in first Field</t>
         </is>
       </c>
       <c r="F275" t="inlineStr">
@@ -33482,17 +33495,12 @@
       </c>
     </row>
     <row r="276">
-      <c r="C276" t="inlineStr">
-        <is>
-          <t>NOMAC_Process1_TC54</t>
-        </is>
-      </c>
       <c r="D276" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>Enter Johnny in name Field</t>
+          <t>Enter lname3 in Lname Field</t>
         </is>
       </c>
       <c r="F276" t="inlineStr">
@@ -33503,11 +33511,11 @@
     </row>
     <row r="277">
       <c r="D277" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>Enter %Lname% in Lname Field</t>
+          <t>Enter 111 in comment Field</t>
         </is>
       </c>
       <c r="F277" t="inlineStr">
@@ -33518,11 +33526,11 @@
     </row>
     <row r="278">
       <c r="D278" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>Enter Abou Haidar in Lname Field</t>
+          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F278" t="inlineStr">
@@ -33532,12 +33540,17 @@
       </c>
     </row>
     <row r="279">
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC68</t>
+        </is>
+      </c>
       <c r="D279" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>Enter hello in comment Field</t>
+          <t>Enter Johnny in first Field</t>
         </is>
       </c>
       <c r="F279" t="inlineStr">
@@ -33548,11 +33561,11 @@
     </row>
     <row r="280">
       <c r="D280" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+          <t>Enter New in Lname Field</t>
         </is>
       </c>
       <c r="F280" t="inlineStr">
@@ -33562,17 +33575,12 @@
       </c>
     </row>
     <row r="281">
-      <c r="C281" t="inlineStr">
-        <is>
-          <t>NOMAC_Process1_TC55</t>
-        </is>
-      </c>
       <c r="D281" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>Enter Johnny in name Field</t>
+          <t>Enter 111 in comment Field</t>
         </is>
       </c>
       <c r="F281" t="inlineStr">
@@ -33583,11 +33591,11 @@
     </row>
     <row r="282">
       <c r="D282" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>Enter %Lname% in Lname Field</t>
+          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F282" t="inlineStr">
@@ -33597,12 +33605,17 @@
       </c>
     </row>
     <row r="283">
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC69</t>
+        </is>
+      </c>
       <c r="D283" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>Enter Abou Haidar in Lname Field</t>
+          <t>Enter Johnny in first Field</t>
         </is>
       </c>
       <c r="F283" t="inlineStr">
@@ -33613,11 +33626,11 @@
     </row>
     <row r="284">
       <c r="D284" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>Enter sample comment1 in comment Field</t>
+          <t>Enter Smith in Lname Field</t>
         </is>
       </c>
       <c r="F284" t="inlineStr">
@@ -33628,46 +33641,46 @@
     </row>
     <row r="285">
       <c r="D285" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E285" t="inlineStr">
         <is>
+          <t>Enter 111 in comment Field</t>
+        </is>
+      </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="D286" t="n">
+        <v>4</v>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
           <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
         </is>
       </c>
-      <c r="F285" t="inlineStr">
-        <is>
-          <t>No validation Errors when entered</t>
-        </is>
-      </c>
-    </row>
-    <row r="286">
-      <c r="C286" t="inlineStr">
-        <is>
-          <t>NOMAC_Process1_TC56</t>
-        </is>
-      </c>
-      <c r="D286" t="n">
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC70</t>
+        </is>
+      </c>
+      <c r="D287" t="n">
         <v>1</v>
       </c>
-      <c r="E286" t="inlineStr">
-        <is>
-          <t>Enter Johnny in name Field</t>
-        </is>
-      </c>
-      <c r="F286" t="inlineStr">
-        <is>
-          <t>No validation Errors when entered</t>
-        </is>
-      </c>
-    </row>
-    <row r="287">
-      <c r="D287" t="n">
-        <v>2</v>
-      </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>Enter %Lname% in Lname Field</t>
+          <t>Enter Johnny in first Field</t>
         </is>
       </c>
       <c r="F287" t="inlineStr">
@@ -33678,11 +33691,11 @@
     </row>
     <row r="288">
       <c r="D288" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>Enter lname3 in Lname Field</t>
+          <t>Enter Smith in Lname Field</t>
         </is>
       </c>
       <c r="F288" t="inlineStr">
@@ -33693,11 +33706,11 @@
     </row>
     <row r="289">
       <c r="D289" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>Enter sample comment1 in comment Field</t>
+          <t>Enter hello in comment Field</t>
         </is>
       </c>
       <c r="F289" t="inlineStr">
@@ -33708,11 +33721,11 @@
     </row>
     <row r="290">
       <c r="D290" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>Upload nan in file2upload Field</t>
+          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F290" t="inlineStr">
@@ -33724,7 +33737,7 @@
     <row r="291">
       <c r="C291" t="inlineStr">
         <is>
-          <t>NOMAC_Process1_TC57</t>
+          <t>NOMAC_Process1_TC71</t>
         </is>
       </c>
       <c r="D291" t="n">
@@ -33732,7 +33745,7 @@
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>Enter Johnny in name Field</t>
+          <t>Enter Johnny in first Field</t>
         </is>
       </c>
       <c r="F291" t="inlineStr">
@@ -33747,7 +33760,7 @@
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>Enter %Lname% in Lname Field</t>
+          <t>Enter New in Lname Field</t>
         </is>
       </c>
       <c r="F292" t="inlineStr">
@@ -33762,7 +33775,7 @@
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>Enter Abou Haidar in Lname Field</t>
+          <t>Enter 111 in comment Field</t>
         </is>
       </c>
       <c r="F293" t="inlineStr">
@@ -33777,7 +33790,7 @@
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>Enter sample comment1 in comment Field</t>
+          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F294" t="inlineStr">
@@ -33787,12 +33800,17 @@
       </c>
     </row>
     <row r="295">
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC72</t>
+        </is>
+      </c>
       <c r="D295" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+          <t>Enter Johnny in first Field</t>
         </is>
       </c>
       <c r="F295" t="inlineStr">
@@ -33802,17 +33820,12 @@
       </c>
     </row>
     <row r="296">
-      <c r="C296" t="inlineStr">
-        <is>
-          <t>NOMAC_Process1_TC58</t>
-        </is>
-      </c>
       <c r="D296" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>Enter Johnny in name Field</t>
+          <t>Enter Smith in Lname Field</t>
         </is>
       </c>
       <c r="F296" t="inlineStr">
@@ -33823,11 +33836,11 @@
     </row>
     <row r="297">
       <c r="D297" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>Enter %Lname% in Lname Field</t>
+          <t>Enter hello in comment Field</t>
         </is>
       </c>
       <c r="F297" t="inlineStr">
@@ -33838,11 +33851,11 @@
     </row>
     <row r="298">
       <c r="D298" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>Enter lname3 in Lname Field</t>
+          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F298" t="inlineStr">
@@ -33852,12 +33865,17 @@
       </c>
     </row>
     <row r="299">
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC73</t>
+        </is>
+      </c>
       <c r="D299" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>Enter hello in comment Field</t>
+          <t>Enter Johnny in first Field</t>
         </is>
       </c>
       <c r="F299" t="inlineStr">
@@ -33868,11 +33886,11 @@
     </row>
     <row r="300">
       <c r="D300" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+          <t>Enter lname3 in Lname Field</t>
         </is>
       </c>
       <c r="F300" t="inlineStr">
@@ -33882,17 +33900,12 @@
       </c>
     </row>
     <row r="301">
-      <c r="C301" t="inlineStr">
-        <is>
-          <t>NOMAC_Process1_TC59</t>
-        </is>
-      </c>
       <c r="D301" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>Enter name3 in name Field</t>
+          <t>Enter hello in comment Field</t>
         </is>
       </c>
       <c r="F301" t="inlineStr">
@@ -33903,11 +33916,11 @@
     </row>
     <row r="302">
       <c r="D302" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>Enter %Lname% in Lname Field</t>
+          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F302" t="inlineStr">
@@ -33917,12 +33930,17 @@
       </c>
     </row>
     <row r="303">
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC74</t>
+        </is>
+      </c>
       <c r="D303" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>Enter Abou Haidar in Lname Field</t>
+          <t>Enter John in first Field</t>
         </is>
       </c>
       <c r="F303" t="inlineStr">
@@ -33933,11 +33951,11 @@
     </row>
     <row r="304">
       <c r="D304" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>Enter hello in comment Field</t>
+          <t>Enter New in Lname Field</t>
         </is>
       </c>
       <c r="F304" t="inlineStr">
@@ -33948,11 +33966,11 @@
     </row>
     <row r="305">
       <c r="D305" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+          <t>Enter 111 in comment Field</t>
         </is>
       </c>
       <c r="F305" t="inlineStr">
@@ -33962,32 +33980,32 @@
       </c>
     </row>
     <row r="306">
-      <c r="C306" t="inlineStr">
-        <is>
-          <t>NOMAC_Process1_TC60</t>
-        </is>
-      </c>
       <c r="D306" t="n">
+        <v>4</v>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>Upload nan in file2upload Field</t>
+        </is>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC75</t>
+        </is>
+      </c>
+      <c r="D307" t="n">
         <v>1</v>
       </c>
-      <c r="E306" t="inlineStr">
-        <is>
-          <t>Enter Johnny in name Field</t>
-        </is>
-      </c>
-      <c r="F306" t="inlineStr">
-        <is>
-          <t>No validation Errors when entered</t>
-        </is>
-      </c>
-    </row>
-    <row r="307">
-      <c r="D307" t="n">
-        <v>2</v>
-      </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>Enter %Lname% in Lname Field</t>
+          <t>Enter John in first Field</t>
         </is>
       </c>
       <c r="F307" t="inlineStr">
@@ -33998,11 +34016,11 @@
     </row>
     <row r="308">
       <c r="D308" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>Enter Abou Haidar in Lname Field</t>
+          <t>Enter New in Lname Field</t>
         </is>
       </c>
       <c r="F308" t="inlineStr">
@@ -34013,7 +34031,7 @@
     </row>
     <row r="309">
       <c r="D309" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E309" t="inlineStr">
         <is>
@@ -34028,7 +34046,7 @@
     </row>
     <row r="310">
       <c r="D310" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E310" t="inlineStr">
         <is>
@@ -34044,7 +34062,7 @@
     <row r="311">
       <c r="C311" t="inlineStr">
         <is>
-          <t>NOMAC_Process1_TC61</t>
+          <t>NOMAC_Process1_TC76</t>
         </is>
       </c>
       <c r="D311" t="n">
@@ -34052,7 +34070,7 @@
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>Enter Johnny in name Field</t>
+          <t>Enter John in first Field</t>
         </is>
       </c>
       <c r="F311" t="inlineStr">
@@ -34067,7 +34085,7 @@
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>Enter %Lname% in Lname Field</t>
+          <t>Enter Smith in Lname Field</t>
         </is>
       </c>
       <c r="F312" t="inlineStr">
@@ -34082,7 +34100,7 @@
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>Enter Abou Haidar in Lname Field</t>
+          <t>Enter 111 in comment Field</t>
         </is>
       </c>
       <c r="F313" t="inlineStr">
@@ -34097,7 +34115,7 @@
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>Enter hello in comment Field</t>
+          <t>Upload nan in file2upload Field</t>
         </is>
       </c>
       <c r="F314" t="inlineStr">
@@ -34107,12 +34125,17 @@
       </c>
     </row>
     <row r="315">
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC77</t>
+        </is>
+      </c>
       <c r="D315" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+          <t>Enter John in first Field</t>
         </is>
       </c>
       <c r="F315" t="inlineStr">
@@ -34122,17 +34145,12 @@
       </c>
     </row>
     <row r="316">
-      <c r="C316" t="inlineStr">
-        <is>
-          <t>NOMAC_Process1_TC62</t>
-        </is>
-      </c>
       <c r="D316" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>Enter name3 in name Field</t>
+          <t>Enter lname3 in Lname Field</t>
         </is>
       </c>
       <c r="F316" t="inlineStr">
@@ -34143,11 +34161,11 @@
     </row>
     <row r="317">
       <c r="D317" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>Enter %Lname% in Lname Field</t>
+          <t>Enter hello in comment Field</t>
         </is>
       </c>
       <c r="F317" t="inlineStr">
@@ -34158,11 +34176,11 @@
     </row>
     <row r="318">
       <c r="D318" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>Enter Abou Haidar in Lname Field</t>
+          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F318" t="inlineStr">
@@ -34172,12 +34190,17 @@
       </c>
     </row>
     <row r="319">
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC78</t>
+        </is>
+      </c>
       <c r="D319" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>Enter sample comment1 in comment Field</t>
+          <t>Enter John in first Field</t>
         </is>
       </c>
       <c r="F319" t="inlineStr">
@@ -34188,11 +34211,11 @@
     </row>
     <row r="320">
       <c r="D320" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+          <t>Enter New in Lname Field</t>
         </is>
       </c>
       <c r="F320" t="inlineStr">
@@ -34202,17 +34225,12 @@
       </c>
     </row>
     <row r="321">
-      <c r="C321" t="inlineStr">
-        <is>
-          <t>NOMAC_Process1_TC63</t>
-        </is>
-      </c>
       <c r="D321" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>Enter name3 in name Field</t>
+          <t>Enter 111 in comment Field</t>
         </is>
       </c>
       <c r="F321" t="inlineStr">
@@ -34223,11 +34241,11 @@
     </row>
     <row r="322">
       <c r="D322" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>Enter %Lname% in Lname Field</t>
+          <t>Upload nan in file2upload Field</t>
         </is>
       </c>
       <c r="F322" t="inlineStr">
@@ -34237,12 +34255,17 @@
       </c>
     </row>
     <row r="323">
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC79</t>
+        </is>
+      </c>
       <c r="D323" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>Enter lname3 in Lname Field</t>
+          <t>Enter John in first Field</t>
         </is>
       </c>
       <c r="F323" t="inlineStr">
@@ -34253,11 +34276,11 @@
     </row>
     <row r="324">
       <c r="D324" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>Enter hello in comment Field</t>
+          <t>Enter Smith in Lname Field</t>
         </is>
       </c>
       <c r="F324" t="inlineStr">
@@ -34268,46 +34291,46 @@
     </row>
     <row r="325">
       <c r="D325" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E325" t="inlineStr">
         <is>
+          <t>Enter 111 in comment Field</t>
+        </is>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="D326" t="n">
+        <v>4</v>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
           <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
         </is>
       </c>
-      <c r="F325" t="inlineStr">
-        <is>
-          <t>No validation Errors when entered</t>
-        </is>
-      </c>
-    </row>
-    <row r="326">
-      <c r="C326" t="inlineStr">
-        <is>
-          <t>NOMAC_Process1_TC64</t>
-        </is>
-      </c>
-      <c r="D326" t="n">
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC80</t>
+        </is>
+      </c>
+      <c r="D327" t="n">
         <v>1</v>
       </c>
-      <c r="E326" t="inlineStr">
-        <is>
-          <t>Enter Johnny in name Field</t>
-        </is>
-      </c>
-      <c r="F326" t="inlineStr">
-        <is>
-          <t>No validation Errors when entered</t>
-        </is>
-      </c>
-    </row>
-    <row r="327">
-      <c r="D327" t="n">
-        <v>2</v>
-      </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>Enter %Lname% in Lname Field</t>
+          <t>Enter Johnny in first Field</t>
         </is>
       </c>
       <c r="F327" t="inlineStr">
@@ -34318,11 +34341,11 @@
     </row>
     <row r="328">
       <c r="D328" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>Enter Abou Haidar in Lname Field</t>
+          <t>Enter Smith in Lname Field</t>
         </is>
       </c>
       <c r="F328" t="inlineStr">
@@ -34333,7 +34356,7 @@
     </row>
     <row r="329">
       <c r="D329" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E329" t="inlineStr">
         <is>
@@ -34348,11 +34371,11 @@
     </row>
     <row r="330">
       <c r="D330" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+          <t>Upload nan in file2upload Field</t>
         </is>
       </c>
       <c r="F330" t="inlineStr">
@@ -34364,7 +34387,7 @@
     <row r="331">
       <c r="C331" t="inlineStr">
         <is>
-          <t>NOMAC_Process1_TC65</t>
+          <t>NOMAC_Process1_TC81</t>
         </is>
       </c>
       <c r="D331" t="n">
@@ -34372,7 +34395,7 @@
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>Enter Johnny in name Field</t>
+          <t>Enter John in first Field</t>
         </is>
       </c>
       <c r="F331" t="inlineStr">
@@ -34387,7 +34410,7 @@
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>Enter %Lname% in Lname Field</t>
+          <t>Enter Smith in Lname Field</t>
         </is>
       </c>
       <c r="F332" t="inlineStr">
@@ -34402,7 +34425,7 @@
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>Enter Abou Haidar in Lname Field</t>
+          <t>Enter 111 in comment Field</t>
         </is>
       </c>
       <c r="F333" t="inlineStr">
@@ -34417,7 +34440,7 @@
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>Enter hello in comment Field</t>
+          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F334" t="inlineStr">
@@ -34427,12 +34450,17 @@
       </c>
     </row>
     <row r="335">
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC82</t>
+        </is>
+      </c>
       <c r="D335" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+          <t>Enter John in first Field</t>
         </is>
       </c>
       <c r="F335" t="inlineStr">
@@ -34442,17 +34470,12 @@
       </c>
     </row>
     <row r="336">
-      <c r="C336" t="inlineStr">
-        <is>
-          <t>NOMAC_Process1_TC66</t>
-        </is>
-      </c>
       <c r="D336" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>Enter Johnny in name Field</t>
+          <t>Enter lname3 in Lname Field</t>
         </is>
       </c>
       <c r="F336" t="inlineStr">
@@ -34463,11 +34486,11 @@
     </row>
     <row r="337">
       <c r="D337" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>Enter %Lname% in Lname Field</t>
+          <t>Enter 111 in comment Field</t>
         </is>
       </c>
       <c r="F337" t="inlineStr">
@@ -34478,11 +34501,11 @@
     </row>
     <row r="338">
       <c r="D338" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>Enter Abou Haidar in Lname Field</t>
+          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F338" t="inlineStr">
@@ -34492,12 +34515,17 @@
       </c>
     </row>
     <row r="339">
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC83</t>
+        </is>
+      </c>
       <c r="D339" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>Enter hello in comment Field</t>
+          <t>Enter Johnny in first Field</t>
         </is>
       </c>
       <c r="F339" t="inlineStr">
@@ -34508,11 +34536,11 @@
     </row>
     <row r="340">
       <c r="D340" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+          <t>Enter Smith in Lname Field</t>
         </is>
       </c>
       <c r="F340" t="inlineStr">
@@ -34522,17 +34550,12 @@
       </c>
     </row>
     <row r="341">
-      <c r="C341" t="inlineStr">
-        <is>
-          <t>NOMAC_Process1_TC67</t>
-        </is>
-      </c>
       <c r="D341" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>Enter Johnny in name Field</t>
+          <t>Enter 111 in comment Field</t>
         </is>
       </c>
       <c r="F341" t="inlineStr">
@@ -34543,11 +34566,11 @@
     </row>
     <row r="342">
       <c r="D342" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>Enter %Lname% in Lname Field</t>
+          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F342" t="inlineStr">
@@ -34557,12 +34580,17 @@
       </c>
     </row>
     <row r="343">
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC84</t>
+        </is>
+      </c>
       <c r="D343" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>Enter lname3 in Lname Field</t>
+          <t>Enter John in first Field</t>
         </is>
       </c>
       <c r="F343" t="inlineStr">
@@ -34573,11 +34601,11 @@
     </row>
     <row r="344">
       <c r="D344" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>Enter hello in comment Field</t>
+          <t>Enter New in Lname Field</t>
         </is>
       </c>
       <c r="F344" t="inlineStr">
@@ -34588,11 +34616,11 @@
     </row>
     <row r="345">
       <c r="D345" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+          <t>Enter hello in comment Field</t>
         </is>
       </c>
       <c r="F345" t="inlineStr">
@@ -34602,32 +34630,32 @@
       </c>
     </row>
     <row r="346">
-      <c r="C346" t="inlineStr">
-        <is>
-          <t>NOMAC_Process1_TC68</t>
-        </is>
-      </c>
       <c r="D346" t="n">
+        <v>4</v>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t>Upload nan in file2upload Field</t>
+        </is>
+      </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC85</t>
+        </is>
+      </c>
+      <c r="D347" t="n">
         <v>1</v>
       </c>
-      <c r="E346" t="inlineStr">
-        <is>
-          <t>Enter Johnny in name Field</t>
-        </is>
-      </c>
-      <c r="F346" t="inlineStr">
-        <is>
-          <t>No validation Errors when entered</t>
-        </is>
-      </c>
-    </row>
-    <row r="347">
-      <c r="D347" t="n">
-        <v>2</v>
-      </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>Enter %Lname% in Lname Field</t>
+          <t>Enter John in first Field</t>
         </is>
       </c>
       <c r="F347" t="inlineStr">
@@ -34638,7 +34666,7 @@
     </row>
     <row r="348">
       <c r="D348" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E348" t="inlineStr">
         <is>
@@ -34653,11 +34681,11 @@
     </row>
     <row r="349">
       <c r="D349" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>Enter hello in comment Field</t>
+          <t>Enter 111 in comment Field</t>
         </is>
       </c>
       <c r="F349" t="inlineStr">
@@ -34668,7 +34696,7 @@
     </row>
     <row r="350">
       <c r="D350" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E350" t="inlineStr">
         <is>
@@ -34684,7 +34712,7 @@
     <row r="351">
       <c r="C351" t="inlineStr">
         <is>
-          <t>NOMAC_Process1_TC69</t>
+          <t>NOMAC_Process1_TC86</t>
         </is>
       </c>
       <c r="D351" t="n">
@@ -34692,7 +34720,7 @@
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>Enter Johnny in name Field</t>
+          <t>Enter John in first Field</t>
         </is>
       </c>
       <c r="F351" t="inlineStr">
@@ -34707,7 +34735,7 @@
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>Enter %Lname% in Lname Field</t>
+          <t>Enter New in Lname Field</t>
         </is>
       </c>
       <c r="F352" t="inlineStr">
@@ -34722,7 +34750,7 @@
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>Enter lname3 in Lname Field</t>
+          <t>Enter 111 in comment Field</t>
         </is>
       </c>
       <c r="F353" t="inlineStr">
@@ -34737,7 +34765,7 @@
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>Enter sample comment1 in comment Field</t>
+          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F354" t="inlineStr">
@@ -34747,12 +34775,17 @@
       </c>
     </row>
     <row r="355">
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC87</t>
+        </is>
+      </c>
       <c r="D355" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+          <t>Enter Johnny in first Field</t>
         </is>
       </c>
       <c r="F355" t="inlineStr">
@@ -34762,17 +34795,12 @@
       </c>
     </row>
     <row r="356">
-      <c r="C356" t="inlineStr">
-        <is>
-          <t>NOMAC_Process1_TC70</t>
-        </is>
-      </c>
       <c r="D356" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>Enter Johnny in name Field</t>
+          <t>Enter Smith in Lname Field</t>
         </is>
       </c>
       <c r="F356" t="inlineStr">
@@ -34783,11 +34811,11 @@
     </row>
     <row r="357">
       <c r="D357" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>Enter %Lname% in Lname Field</t>
+          <t>Enter 111 in comment Field</t>
         </is>
       </c>
       <c r="F357" t="inlineStr">
@@ -34798,11 +34826,11 @@
     </row>
     <row r="358">
       <c r="D358" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>Enter Abou Haidar in Lname Field</t>
+          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F358" t="inlineStr">
@@ -34812,12 +34840,17 @@
       </c>
     </row>
     <row r="359">
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC88</t>
+        </is>
+      </c>
       <c r="D359" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>Enter sample comment1 in comment Field</t>
+          <t>Enter Johnny in first Field</t>
         </is>
       </c>
       <c r="F359" t="inlineStr">
@@ -34828,11 +34861,11 @@
     </row>
     <row r="360">
       <c r="D360" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+          <t>Enter New in Lname Field</t>
         </is>
       </c>
       <c r="F360" t="inlineStr">
@@ -34842,17 +34875,12 @@
       </c>
     </row>
     <row r="361">
-      <c r="C361" t="inlineStr">
-        <is>
-          <t>NOMAC_Process1_TC71</t>
-        </is>
-      </c>
       <c r="D361" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>Enter Johnny in name Field</t>
+          <t>Enter hello in comment Field</t>
         </is>
       </c>
       <c r="F361" t="inlineStr">
@@ -34863,11 +34891,11 @@
     </row>
     <row r="362">
       <c r="D362" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>Enter %Lname% in Lname Field</t>
+          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F362" t="inlineStr">
@@ -34877,12 +34905,17 @@
       </c>
     </row>
     <row r="363">
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC89</t>
+        </is>
+      </c>
       <c r="D363" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>Enter Abou Haidar in Lname Field</t>
+          <t>Enter John in first Field</t>
         </is>
       </c>
       <c r="F363" t="inlineStr">
@@ -34893,11 +34926,11 @@
     </row>
     <row r="364">
       <c r="D364" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>Enter hello in comment Field</t>
+          <t>Enter New in Lname Field</t>
         </is>
       </c>
       <c r="F364" t="inlineStr">
@@ -34908,11 +34941,11 @@
     </row>
     <row r="365">
       <c r="D365" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>Upload nan in file2upload Field</t>
+          <t>Enter hello in comment Field</t>
         </is>
       </c>
       <c r="F365" t="inlineStr">
@@ -34922,32 +34955,32 @@
       </c>
     </row>
     <row r="366">
-      <c r="C366" t="inlineStr">
-        <is>
-          <t>NOMAC_Process1_TC72</t>
-        </is>
-      </c>
       <c r="D366" t="n">
+        <v>4</v>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+        </is>
+      </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC90</t>
+        </is>
+      </c>
+      <c r="D367" t="n">
         <v>1</v>
       </c>
-      <c r="E366" t="inlineStr">
-        <is>
-          <t>Enter Johnny in name Field</t>
-        </is>
-      </c>
-      <c r="F366" t="inlineStr">
-        <is>
-          <t>No validation Errors when entered</t>
-        </is>
-      </c>
-    </row>
-    <row r="367">
-      <c r="D367" t="n">
-        <v>2</v>
-      </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>Enter %Lname% in Lname Field</t>
+          <t>Enter John in first Field</t>
         </is>
       </c>
       <c r="F367" t="inlineStr">
@@ -34958,11 +34991,11 @@
     </row>
     <row r="368">
       <c r="D368" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>Enter Abou Haidar in Lname Field</t>
+          <t>Enter New in Lname Field</t>
         </is>
       </c>
       <c r="F368" t="inlineStr">
@@ -34973,11 +35006,11 @@
     </row>
     <row r="369">
       <c r="D369" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E369" t="inlineStr">
         <is>
-          <t>Enter sample comment1 in comment Field</t>
+          <t>Enter 111 in comment Field</t>
         </is>
       </c>
       <c r="F369" t="inlineStr">
@@ -34988,11 +35021,11 @@
     </row>
     <row r="370">
       <c r="D370" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E370" t="inlineStr">
         <is>
-          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+          <t>Upload nan in file2upload Field</t>
         </is>
       </c>
       <c r="F370" t="inlineStr">
@@ -35004,7 +35037,7 @@
     <row r="371">
       <c r="C371" t="inlineStr">
         <is>
-          <t>NOMAC_Process1_TC73</t>
+          <t>NOMAC_Process1_TC91</t>
         </is>
       </c>
       <c r="D371" t="n">
@@ -35012,7 +35045,7 @@
       </c>
       <c r="E371" t="inlineStr">
         <is>
-          <t>Enter Johnny in name Field</t>
+          <t>Enter Johnny in first Field</t>
         </is>
       </c>
       <c r="F371" t="inlineStr">
@@ -35027,7 +35060,7 @@
       </c>
       <c r="E372" t="inlineStr">
         <is>
-          <t>Enter %Lname% in Lname Field</t>
+          <t>Enter Smith in Lname Field</t>
         </is>
       </c>
       <c r="F372" t="inlineStr">
@@ -35042,7 +35075,7 @@
       </c>
       <c r="E373" t="inlineStr">
         <is>
-          <t>Enter lname3 in Lname Field</t>
+          <t>Enter 111 in comment Field</t>
         </is>
       </c>
       <c r="F373" t="inlineStr">
@@ -35057,7 +35090,7 @@
       </c>
       <c r="E374" t="inlineStr">
         <is>
-          <t>Enter hello in comment Field</t>
+          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F374" t="inlineStr">
@@ -35067,12 +35100,17 @@
       </c>
     </row>
     <row r="375">
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC92</t>
+        </is>
+      </c>
       <c r="D375" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E375" t="inlineStr">
         <is>
-          <t>Upload nan in file2upload Field</t>
+          <t>Enter Johnny in first Field</t>
         </is>
       </c>
       <c r="F375" t="inlineStr">
@@ -35082,17 +35120,12 @@
       </c>
     </row>
     <row r="376">
-      <c r="C376" t="inlineStr">
-        <is>
-          <t>NOMAC_Process1_TC74</t>
-        </is>
-      </c>
       <c r="D376" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E376" t="inlineStr">
         <is>
-          <t>Enter Johnny in name Field</t>
+          <t>Enter Smith in Lname Field</t>
         </is>
       </c>
       <c r="F376" t="inlineStr">
@@ -35103,11 +35136,11 @@
     </row>
     <row r="377">
       <c r="D377" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E377" t="inlineStr">
         <is>
-          <t>Enter %Lname% in Lname Field</t>
+          <t>Enter 111 in comment Field</t>
         </is>
       </c>
       <c r="F377" t="inlineStr">
@@ -35118,11 +35151,11 @@
     </row>
     <row r="378">
       <c r="D378" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E378" t="inlineStr">
         <is>
-          <t>Enter lname3 in Lname Field</t>
+          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F378" t="inlineStr">
@@ -35132,12 +35165,17 @@
       </c>
     </row>
     <row r="379">
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC93</t>
+        </is>
+      </c>
       <c r="D379" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E379" t="inlineStr">
         <is>
-          <t>Enter hello in comment Field</t>
+          <t>Enter Johnny in first Field</t>
         </is>
       </c>
       <c r="F379" t="inlineStr">
@@ -35148,11 +35186,11 @@
     </row>
     <row r="380">
       <c r="D380" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E380" t="inlineStr">
         <is>
-          <t>Upload nan in file2upload Field</t>
+          <t>Enter lname3 in Lname Field</t>
         </is>
       </c>
       <c r="F380" t="inlineStr">
@@ -35162,17 +35200,12 @@
       </c>
     </row>
     <row r="381">
-      <c r="C381" t="inlineStr">
-        <is>
-          <t>NOMAC_Process1_TC75</t>
-        </is>
-      </c>
       <c r="D381" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E381" t="inlineStr">
         <is>
-          <t>Enter Johnny in name Field</t>
+          <t>Enter 111 in comment Field</t>
         </is>
       </c>
       <c r="F381" t="inlineStr">
@@ -35183,11 +35216,11 @@
     </row>
     <row r="382">
       <c r="D382" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E382" t="inlineStr">
         <is>
-          <t>Enter %Lname% in Lname Field</t>
+          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F382" t="inlineStr">
@@ -35197,12 +35230,17 @@
       </c>
     </row>
     <row r="383">
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC94</t>
+        </is>
+      </c>
       <c r="D383" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E383" t="inlineStr">
         <is>
-          <t>Enter Abou Haidar in Lname Field</t>
+          <t>Enter Johnny in first Field</t>
         </is>
       </c>
       <c r="F383" t="inlineStr">
@@ -35213,11 +35251,11 @@
     </row>
     <row r="384">
       <c r="D384" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E384" t="inlineStr">
         <is>
-          <t>Enter hello in comment Field</t>
+          <t>Enter Smith in Lname Field</t>
         </is>
       </c>
       <c r="F384" t="inlineStr">
@@ -35228,46 +35266,46 @@
     </row>
     <row r="385">
       <c r="D385" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E385" t="inlineStr">
         <is>
+          <t>Enter hello in comment Field</t>
+        </is>
+      </c>
+      <c r="F385" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="D386" t="n">
+        <v>4</v>
+      </c>
+      <c r="E386" t="inlineStr">
+        <is>
           <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
         </is>
       </c>
-      <c r="F385" t="inlineStr">
-        <is>
-          <t>No validation Errors when entered</t>
-        </is>
-      </c>
-    </row>
-    <row r="386">
-      <c r="C386" t="inlineStr">
-        <is>
-          <t>NOMAC_Process1_TC76</t>
-        </is>
-      </c>
-      <c r="D386" t="n">
+      <c r="F386" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC95</t>
+        </is>
+      </c>
+      <c r="D387" t="n">
         <v>1</v>
       </c>
-      <c r="E386" t="inlineStr">
-        <is>
-          <t>Enter Johnny in name Field</t>
-        </is>
-      </c>
-      <c r="F386" t="inlineStr">
-        <is>
-          <t>No validation Errors when entered</t>
-        </is>
-      </c>
-    </row>
-    <row r="387">
-      <c r="D387" t="n">
-        <v>2</v>
-      </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>Enter %Lname% in Lname Field</t>
+          <t>Enter Johnny in first Field</t>
         </is>
       </c>
       <c r="F387" t="inlineStr">
@@ -35278,11 +35316,11 @@
     </row>
     <row r="388">
       <c r="D388" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>Enter Abou Haidar in Lname Field</t>
+          <t>Enter New in Lname Field</t>
         </is>
       </c>
       <c r="F388" t="inlineStr">
@@ -35293,11 +35331,11 @@
     </row>
     <row r="389">
       <c r="D389" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E389" t="inlineStr">
         <is>
-          <t>Enter sample comment1 in comment Field</t>
+          <t>Enter 111 in comment Field</t>
         </is>
       </c>
       <c r="F389" t="inlineStr">
@@ -35308,11 +35346,11 @@
     </row>
     <row r="390">
       <c r="D390" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E390" t="inlineStr">
         <is>
-          <t>Upload nan in file2upload Field</t>
+          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F390" t="inlineStr">
@@ -35324,7 +35362,7 @@
     <row r="391">
       <c r="C391" t="inlineStr">
         <is>
-          <t>NOMAC_Process1_TC77</t>
+          <t>NOMAC_Process1_TC96</t>
         </is>
       </c>
       <c r="D391" t="n">
@@ -35332,7 +35370,7 @@
       </c>
       <c r="E391" t="inlineStr">
         <is>
-          <t>Enter Johnny in name Field</t>
+          <t>Enter Johnny in first Field</t>
         </is>
       </c>
       <c r="F391" t="inlineStr">
@@ -35347,7 +35385,7 @@
       </c>
       <c r="E392" t="inlineStr">
         <is>
-          <t>Enter %Lname% in Lname Field</t>
+          <t>Enter Smith in Lname Field</t>
         </is>
       </c>
       <c r="F392" t="inlineStr">
@@ -35362,7 +35400,7 @@
       </c>
       <c r="E393" t="inlineStr">
         <is>
-          <t>Enter lname3 in Lname Field</t>
+          <t>Enter 111 in comment Field</t>
         </is>
       </c>
       <c r="F393" t="inlineStr">
@@ -35377,7 +35415,7 @@
       </c>
       <c r="E394" t="inlineStr">
         <is>
-          <t>Enter hello in comment Field</t>
+          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F394" t="inlineStr">
@@ -35387,12 +35425,17 @@
       </c>
     </row>
     <row r="395">
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC97</t>
+        </is>
+      </c>
       <c r="D395" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E395" t="inlineStr">
         <is>
-          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+          <t>Enter Johnny in first Field</t>
         </is>
       </c>
       <c r="F395" t="inlineStr">
@@ -35402,17 +35445,12 @@
       </c>
     </row>
     <row r="396">
-      <c r="C396" t="inlineStr">
-        <is>
-          <t>NOMAC_Process1_TC78</t>
-        </is>
-      </c>
       <c r="D396" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E396" t="inlineStr">
         <is>
-          <t>Enter Johnny in name Field</t>
+          <t>Enter Smith in Lname Field</t>
         </is>
       </c>
       <c r="F396" t="inlineStr">
@@ -35423,11 +35461,11 @@
     </row>
     <row r="397">
       <c r="D397" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E397" t="inlineStr">
         <is>
-          <t>Enter %Lname% in Lname Field</t>
+          <t>Enter 111 in comment Field</t>
         </is>
       </c>
       <c r="F397" t="inlineStr">
@@ -35438,11 +35476,11 @@
     </row>
     <row r="398">
       <c r="D398" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E398" t="inlineStr">
         <is>
-          <t>Enter Abou Haidar in Lname Field</t>
+          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F398" t="inlineStr">
@@ -35452,12 +35490,17 @@
       </c>
     </row>
     <row r="399">
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC98</t>
+        </is>
+      </c>
       <c r="D399" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E399" t="inlineStr">
         <is>
-          <t>Enter hello in comment Field</t>
+          <t>Enter John in first Field</t>
         </is>
       </c>
       <c r="F399" t="inlineStr">
@@ -35468,11 +35511,11 @@
     </row>
     <row r="400">
       <c r="D400" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E400" t="inlineStr">
         <is>
-          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+          <t>Enter New in Lname Field</t>
         </is>
       </c>
       <c r="F400" t="inlineStr">
@@ -35482,17 +35525,12 @@
       </c>
     </row>
     <row r="401">
-      <c r="C401" t="inlineStr">
-        <is>
-          <t>NOMAC_Process1_TC79</t>
-        </is>
-      </c>
       <c r="D401" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E401" t="inlineStr">
         <is>
-          <t>Enter Johnny in name Field</t>
+          <t>Enter 111 in comment Field</t>
         </is>
       </c>
       <c r="F401" t="inlineStr">
@@ -35503,11 +35541,11 @@
     </row>
     <row r="402">
       <c r="D402" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E402" t="inlineStr">
         <is>
-          <t>Enter %Lname% in Lname Field</t>
+          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F402" t="inlineStr">
@@ -35517,12 +35555,17 @@
       </c>
     </row>
     <row r="403">
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC99</t>
+        </is>
+      </c>
       <c r="D403" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E403" t="inlineStr">
         <is>
-          <t>Enter Abou Haidar in Lname Field</t>
+          <t>Enter Johnny in first Field</t>
         </is>
       </c>
       <c r="F403" t="inlineStr">
@@ -35533,11 +35576,11 @@
     </row>
     <row r="404">
       <c r="D404" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E404" t="inlineStr">
         <is>
-          <t>Enter hello in comment Field</t>
+          <t>Enter Smith in Lname Field</t>
         </is>
       </c>
       <c r="F404" t="inlineStr">
@@ -35548,46 +35591,46 @@
     </row>
     <row r="405">
       <c r="D405" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E405" t="inlineStr">
         <is>
+          <t>Enter hello in comment Field</t>
+        </is>
+      </c>
+      <c r="F405" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="D406" t="n">
+        <v>4</v>
+      </c>
+      <c r="E406" t="inlineStr">
+        <is>
           <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
         </is>
       </c>
-      <c r="F405" t="inlineStr">
-        <is>
-          <t>No validation Errors when entered</t>
-        </is>
-      </c>
-    </row>
-    <row r="406">
-      <c r="C406" t="inlineStr">
-        <is>
-          <t>NOMAC_Process1_TC80</t>
-        </is>
-      </c>
-      <c r="D406" t="n">
+      <c r="F406" t="inlineStr">
+        <is>
+          <t>No validation Errors when entered</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>NOMAC_Process1_TC100</t>
+        </is>
+      </c>
+      <c r="D407" t="n">
         <v>1</v>
       </c>
-      <c r="E406" t="inlineStr">
-        <is>
-          <t>Enter Johnny in name Field</t>
-        </is>
-      </c>
-      <c r="F406" t="inlineStr">
-        <is>
-          <t>No validation Errors when entered</t>
-        </is>
-      </c>
-    </row>
-    <row r="407">
-      <c r="D407" t="n">
-        <v>2</v>
-      </c>
       <c r="E407" t="inlineStr">
         <is>
-          <t>Enter %Lname% in Lname Field</t>
+          <t>Enter Johnny in first Field</t>
         </is>
       </c>
       <c r="F407" t="inlineStr">
@@ -35598,7 +35641,7 @@
     </row>
     <row r="408">
       <c r="D408" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E408" t="inlineStr">
         <is>
@@ -35613,11 +35656,11 @@
     </row>
     <row r="409">
       <c r="D409" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E409" t="inlineStr">
         <is>
-          <t>Enter sample comment1 in comment Field</t>
+          <t>Enter 111 in comment Field</t>
         </is>
       </c>
       <c r="F409" t="inlineStr">
@@ -35628,11 +35671,11 @@
     </row>
     <row r="410">
       <c r="D410" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E410" t="inlineStr">
         <is>
-          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+          <t>Upload nan in file2upload Field</t>
         </is>
       </c>
       <c r="F410" t="inlineStr">
@@ -35641,1606 +35684,106 @@
         </is>
       </c>
     </row>
-    <row r="411">
-      <c r="C411" t="inlineStr">
-        <is>
-          <t>NOMAC_Process1_TC81</t>
-        </is>
-      </c>
-      <c r="D411" t="n">
-        <v>1</v>
-      </c>
-      <c r="E411" t="inlineStr">
-        <is>
-          <t>Enter Johnny in name Field</t>
-        </is>
-      </c>
-      <c r="F411" t="inlineStr">
-        <is>
-          <t>No validation Errors when entered</t>
-        </is>
-      </c>
-    </row>
-    <row r="412">
-      <c r="D412" t="n">
-        <v>2</v>
-      </c>
-      <c r="E412" t="inlineStr">
-        <is>
-          <t>Enter %Lname% in Lname Field</t>
-        </is>
-      </c>
-      <c r="F412" t="inlineStr">
-        <is>
-          <t>No validation Errors when entered</t>
-        </is>
-      </c>
-    </row>
-    <row r="413">
-      <c r="D413" t="n">
-        <v>3</v>
-      </c>
-      <c r="E413" t="inlineStr">
-        <is>
-          <t>Enter lname3 in Lname Field</t>
-        </is>
-      </c>
-      <c r="F413" t="inlineStr">
-        <is>
-          <t>No validation Errors when entered</t>
-        </is>
-      </c>
-    </row>
-    <row r="414">
-      <c r="D414" t="n">
-        <v>4</v>
-      </c>
-      <c r="E414" t="inlineStr">
-        <is>
-          <t>Enter sample comment1 in comment Field</t>
-        </is>
-      </c>
-      <c r="F414" t="inlineStr">
-        <is>
-          <t>No validation Errors when entered</t>
-        </is>
-      </c>
-    </row>
-    <row r="415">
-      <c r="D415" t="n">
-        <v>5</v>
-      </c>
-      <c r="E415" t="inlineStr">
-        <is>
-          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
-        </is>
-      </c>
-      <c r="F415" t="inlineStr">
-        <is>
-          <t>No validation Errors when entered</t>
-        </is>
-      </c>
-    </row>
-    <row r="416">
-      <c r="C416" t="inlineStr">
-        <is>
-          <t>NOMAC_Process1_TC82</t>
-        </is>
-      </c>
-      <c r="D416" t="n">
-        <v>1</v>
-      </c>
-      <c r="E416" t="inlineStr">
-        <is>
-          <t>Enter Johnny in name Field</t>
-        </is>
-      </c>
-      <c r="F416" t="inlineStr">
-        <is>
-          <t>No validation Errors when entered</t>
-        </is>
-      </c>
-    </row>
-    <row r="417">
-      <c r="D417" t="n">
-        <v>2</v>
-      </c>
-      <c r="E417" t="inlineStr">
-        <is>
-          <t>Enter %Lname% in Lname Field</t>
-        </is>
-      </c>
-      <c r="F417" t="inlineStr">
-        <is>
-          <t>No validation Errors when entered</t>
-        </is>
-      </c>
-    </row>
-    <row r="418">
-      <c r="D418" t="n">
-        <v>3</v>
-      </c>
-      <c r="E418" t="inlineStr">
-        <is>
-          <t>Enter lname3 in Lname Field</t>
-        </is>
-      </c>
-      <c r="F418" t="inlineStr">
-        <is>
-          <t>No validation Errors when entered</t>
-        </is>
-      </c>
-    </row>
-    <row r="419">
-      <c r="D419" t="n">
-        <v>4</v>
-      </c>
-      <c r="E419" t="inlineStr">
-        <is>
-          <t>Enter hello in comment Field</t>
-        </is>
-      </c>
-      <c r="F419" t="inlineStr">
-        <is>
-          <t>No validation Errors when entered</t>
-        </is>
-      </c>
-    </row>
-    <row r="420">
-      <c r="D420" t="n">
-        <v>5</v>
-      </c>
-      <c r="E420" t="inlineStr">
-        <is>
-          <t>Upload nan in file2upload Field</t>
-        </is>
-      </c>
-      <c r="F420" t="inlineStr">
-        <is>
-          <t>No validation Errors when entered</t>
-        </is>
-      </c>
-    </row>
-    <row r="421">
-      <c r="C421" t="inlineStr">
-        <is>
-          <t>NOMAC_Process1_TC83</t>
-        </is>
-      </c>
-      <c r="D421" t="n">
-        <v>1</v>
-      </c>
-      <c r="E421" t="inlineStr">
-        <is>
-          <t>Enter Johnny in name Field</t>
-        </is>
-      </c>
-      <c r="F421" t="inlineStr">
-        <is>
-          <t>No validation Errors when entered</t>
-        </is>
-      </c>
-    </row>
-    <row r="422">
-      <c r="D422" t="n">
-        <v>2</v>
-      </c>
-      <c r="E422" t="inlineStr">
-        <is>
-          <t>Enter %Lname% in Lname Field</t>
-        </is>
-      </c>
-      <c r="F422" t="inlineStr">
-        <is>
-          <t>No validation Errors when entered</t>
-        </is>
-      </c>
-    </row>
-    <row r="423">
-      <c r="D423" t="n">
-        <v>3</v>
-      </c>
-      <c r="E423" t="inlineStr">
-        <is>
-          <t>Enter Abou Haidar in Lname Field</t>
-        </is>
-      </c>
-      <c r="F423" t="inlineStr">
-        <is>
-          <t>No validation Errors when entered</t>
-        </is>
-      </c>
-    </row>
-    <row r="424">
-      <c r="D424" t="n">
-        <v>4</v>
-      </c>
-      <c r="E424" t="inlineStr">
-        <is>
-          <t>Enter hello in comment Field</t>
-        </is>
-      </c>
-      <c r="F424" t="inlineStr">
-        <is>
-          <t>No validation Errors when entered</t>
-        </is>
-      </c>
-    </row>
-    <row r="425">
-      <c r="D425" t="n">
-        <v>5</v>
-      </c>
-      <c r="E425" t="inlineStr">
-        <is>
-          <t>Upload nan in file2upload Field</t>
-        </is>
-      </c>
-      <c r="F425" t="inlineStr">
-        <is>
-          <t>No validation Errors when entered</t>
-        </is>
-      </c>
-    </row>
-    <row r="426">
-      <c r="C426" t="inlineStr">
-        <is>
-          <t>NOMAC_Process1_TC84</t>
-        </is>
-      </c>
-      <c r="D426" t="n">
-        <v>1</v>
-      </c>
-      <c r="E426" t="inlineStr">
-        <is>
-          <t>Enter Johnny in name Field</t>
-        </is>
-      </c>
-      <c r="F426" t="inlineStr">
-        <is>
-          <t>No validation Errors when entered</t>
-        </is>
-      </c>
-    </row>
-    <row r="427">
-      <c r="D427" t="n">
-        <v>2</v>
-      </c>
-      <c r="E427" t="inlineStr">
-        <is>
-          <t>Enter %Lname% in Lname Field</t>
-        </is>
-      </c>
-      <c r="F427" t="inlineStr">
-        <is>
-          <t>No validation Errors when entered</t>
-        </is>
-      </c>
-    </row>
-    <row r="428">
-      <c r="D428" t="n">
-        <v>3</v>
-      </c>
-      <c r="E428" t="inlineStr">
-        <is>
-          <t>Enter lname3 in Lname Field</t>
-        </is>
-      </c>
-      <c r="F428" t="inlineStr">
-        <is>
-          <t>No validation Errors when entered</t>
-        </is>
-      </c>
-    </row>
-    <row r="429">
-      <c r="D429" t="n">
-        <v>4</v>
-      </c>
-      <c r="E429" t="inlineStr">
-        <is>
-          <t>Enter hello in comment Field</t>
-        </is>
-      </c>
-      <c r="F429" t="inlineStr">
-        <is>
-          <t>No validation Errors when entered</t>
-        </is>
-      </c>
-    </row>
-    <row r="430">
-      <c r="D430" t="n">
-        <v>5</v>
-      </c>
-      <c r="E430" t="inlineStr">
-        <is>
-          <t>Upload nan in file2upload Field</t>
-        </is>
-      </c>
-      <c r="F430" t="inlineStr">
-        <is>
-          <t>No validation Errors when entered</t>
-        </is>
-      </c>
-    </row>
-    <row r="431">
-      <c r="C431" t="inlineStr">
-        <is>
-          <t>NOMAC_Process1_TC85</t>
-        </is>
-      </c>
-      <c r="D431" t="n">
-        <v>1</v>
-      </c>
-      <c r="E431" t="inlineStr">
-        <is>
-          <t>Enter Johnny in name Field</t>
-        </is>
-      </c>
-      <c r="F431" t="inlineStr">
-        <is>
-          <t>No validation Errors when entered</t>
-        </is>
-      </c>
-    </row>
-    <row r="432">
-      <c r="D432" t="n">
-        <v>2</v>
-      </c>
-      <c r="E432" t="inlineStr">
-        <is>
-          <t>Enter %Lname% in Lname Field</t>
-        </is>
-      </c>
-      <c r="F432" t="inlineStr">
-        <is>
-          <t>No validation Errors when entered</t>
-        </is>
-      </c>
-    </row>
-    <row r="433">
-      <c r="D433" t="n">
-        <v>3</v>
-      </c>
-      <c r="E433" t="inlineStr">
-        <is>
-          <t>Enter lname3 in Lname Field</t>
-        </is>
-      </c>
-      <c r="F433" t="inlineStr">
-        <is>
-          <t>No validation Errors when entered</t>
-        </is>
-      </c>
-    </row>
-    <row r="434">
-      <c r="D434" t="n">
-        <v>4</v>
-      </c>
-      <c r="E434" t="inlineStr">
-        <is>
-          <t>Enter hello in comment Field</t>
-        </is>
-      </c>
-      <c r="F434" t="inlineStr">
-        <is>
-          <t>No validation Errors when entered</t>
-        </is>
-      </c>
-    </row>
-    <row r="435">
-      <c r="D435" t="n">
-        <v>5</v>
-      </c>
-      <c r="E435" t="inlineStr">
-        <is>
-          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
-        </is>
-      </c>
-      <c r="F435" t="inlineStr">
-        <is>
-          <t>No validation Errors when entered</t>
-        </is>
-      </c>
-    </row>
-    <row r="436">
-      <c r="C436" t="inlineStr">
-        <is>
-          <t>NOMAC_Process1_TC86</t>
-        </is>
-      </c>
-      <c r="D436" t="n">
-        <v>1</v>
-      </c>
-      <c r="E436" t="inlineStr">
-        <is>
-          <t>Enter Johnny in name Field</t>
-        </is>
-      </c>
-      <c r="F436" t="inlineStr">
-        <is>
-          <t>No validation Errors when entered</t>
-        </is>
-      </c>
-    </row>
-    <row r="437">
-      <c r="D437" t="n">
-        <v>2</v>
-      </c>
-      <c r="E437" t="inlineStr">
-        <is>
-          <t>Enter %Lname% in Lname Field</t>
-        </is>
-      </c>
-      <c r="F437" t="inlineStr">
-        <is>
-          <t>No validation Errors when entered</t>
-        </is>
-      </c>
-    </row>
-    <row r="438">
-      <c r="D438" t="n">
-        <v>3</v>
-      </c>
-      <c r="E438" t="inlineStr">
-        <is>
-          <t>Enter Abou Haidar in Lname Field</t>
-        </is>
-      </c>
-      <c r="F438" t="inlineStr">
-        <is>
-          <t>No validation Errors when entered</t>
-        </is>
-      </c>
-    </row>
-    <row r="439">
-      <c r="D439" t="n">
-        <v>4</v>
-      </c>
-      <c r="E439" t="inlineStr">
-        <is>
-          <t>Enter hello in comment Field</t>
-        </is>
-      </c>
-      <c r="F439" t="inlineStr">
-        <is>
-          <t>No validation Errors when entered</t>
-        </is>
-      </c>
-    </row>
-    <row r="440">
-      <c r="D440" t="n">
-        <v>5</v>
-      </c>
-      <c r="E440" t="inlineStr">
-        <is>
-          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
-        </is>
-      </c>
-      <c r="F440" t="inlineStr">
-        <is>
-          <t>No validation Errors when entered</t>
-        </is>
-      </c>
-    </row>
-    <row r="441">
-      <c r="C441" t="inlineStr">
-        <is>
-          <t>NOMAC_Process1_TC87</t>
-        </is>
-      </c>
-      <c r="D441" t="n">
-        <v>1</v>
-      </c>
-      <c r="E441" t="inlineStr">
-        <is>
-          <t>Enter Johnny in name Field</t>
-        </is>
-      </c>
-      <c r="F441" t="inlineStr">
-        <is>
-          <t>No validation Errors when entered</t>
-        </is>
-      </c>
-    </row>
-    <row r="442">
-      <c r="D442" t="n">
-        <v>2</v>
-      </c>
-      <c r="E442" t="inlineStr">
-        <is>
-          <t>Enter %Lname% in Lname Field</t>
-        </is>
-      </c>
-      <c r="F442" t="inlineStr">
-        <is>
-          <t>No validation Errors when entered</t>
-        </is>
-      </c>
-    </row>
-    <row r="443">
-      <c r="D443" t="n">
-        <v>3</v>
-      </c>
-      <c r="E443" t="inlineStr">
-        <is>
-          <t>Enter Abou Haidar in Lname Field</t>
-        </is>
-      </c>
-      <c r="F443" t="inlineStr">
-        <is>
-          <t>No validation Errors when entered</t>
-        </is>
-      </c>
-    </row>
-    <row r="444">
-      <c r="D444" t="n">
-        <v>4</v>
-      </c>
-      <c r="E444" t="inlineStr">
-        <is>
-          <t>Enter sample comment1 in comment Field</t>
-        </is>
-      </c>
-      <c r="F444" t="inlineStr">
-        <is>
-          <t>No validation Errors when entered</t>
-        </is>
-      </c>
-    </row>
-    <row r="445">
-      <c r="D445" t="n">
-        <v>5</v>
-      </c>
-      <c r="E445" t="inlineStr">
-        <is>
-          <t>Upload nan in file2upload Field</t>
-        </is>
-      </c>
-      <c r="F445" t="inlineStr">
-        <is>
-          <t>No validation Errors when entered</t>
-        </is>
-      </c>
-    </row>
-    <row r="446">
-      <c r="C446" t="inlineStr">
-        <is>
-          <t>NOMAC_Process1_TC88</t>
-        </is>
-      </c>
-      <c r="D446" t="n">
-        <v>1</v>
-      </c>
-      <c r="E446" t="inlineStr">
-        <is>
-          <t>Enter name3 in name Field</t>
-        </is>
-      </c>
-      <c r="F446" t="inlineStr">
-        <is>
-          <t>No validation Errors when entered</t>
-        </is>
-      </c>
-    </row>
-    <row r="447">
-      <c r="D447" t="n">
-        <v>2</v>
-      </c>
-      <c r="E447" t="inlineStr">
-        <is>
-          <t>Enter %Lname% in Lname Field</t>
-        </is>
-      </c>
-      <c r="F447" t="inlineStr">
-        <is>
-          <t>No validation Errors when entered</t>
-        </is>
-      </c>
-    </row>
-    <row r="448">
-      <c r="D448" t="n">
-        <v>3</v>
-      </c>
-      <c r="E448" t="inlineStr">
-        <is>
-          <t>Enter lname3 in Lname Field</t>
-        </is>
-      </c>
-      <c r="F448" t="inlineStr">
-        <is>
-          <t>No validation Errors when entered</t>
-        </is>
-      </c>
-    </row>
-    <row r="449">
-      <c r="D449" t="n">
-        <v>4</v>
-      </c>
-      <c r="E449" t="inlineStr">
-        <is>
-          <t>Enter sample comment1 in comment Field</t>
-        </is>
-      </c>
-      <c r="F449" t="inlineStr">
-        <is>
-          <t>No validation Errors when entered</t>
-        </is>
-      </c>
-    </row>
-    <row r="450">
-      <c r="D450" t="n">
-        <v>5</v>
-      </c>
-      <c r="E450" t="inlineStr">
-        <is>
-          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
-        </is>
-      </c>
-      <c r="F450" t="inlineStr">
-        <is>
-          <t>No validation Errors when entered</t>
-        </is>
-      </c>
-    </row>
-    <row r="451">
-      <c r="C451" t="inlineStr">
-        <is>
-          <t>NOMAC_Process1_TC89</t>
-        </is>
-      </c>
-      <c r="D451" t="n">
-        <v>1</v>
-      </c>
-      <c r="E451" t="inlineStr">
-        <is>
-          <t>Enter Johnny in name Field</t>
-        </is>
-      </c>
-      <c r="F451" t="inlineStr">
-        <is>
-          <t>No validation Errors when entered</t>
-        </is>
-      </c>
-    </row>
-    <row r="452">
-      <c r="D452" t="n">
-        <v>2</v>
-      </c>
-      <c r="E452" t="inlineStr">
-        <is>
-          <t>Enter %Lname% in Lname Field</t>
-        </is>
-      </c>
-      <c r="F452" t="inlineStr">
-        <is>
-          <t>No validation Errors when entered</t>
-        </is>
-      </c>
-    </row>
-    <row r="453">
-      <c r="D453" t="n">
-        <v>3</v>
-      </c>
-      <c r="E453" t="inlineStr">
-        <is>
-          <t>Enter Abou Haidar in Lname Field</t>
-        </is>
-      </c>
-      <c r="F453" t="inlineStr">
-        <is>
-          <t>No validation Errors when entered</t>
-        </is>
-      </c>
-    </row>
-    <row r="454">
-      <c r="D454" t="n">
-        <v>4</v>
-      </c>
-      <c r="E454" t="inlineStr">
-        <is>
-          <t>Enter sample comment1 in comment Field</t>
-        </is>
-      </c>
-      <c r="F454" t="inlineStr">
-        <is>
-          <t>No validation Errors when entered</t>
-        </is>
-      </c>
-    </row>
-    <row r="455">
-      <c r="D455" t="n">
-        <v>5</v>
-      </c>
-      <c r="E455" t="inlineStr">
-        <is>
-          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
-        </is>
-      </c>
-      <c r="F455" t="inlineStr">
-        <is>
-          <t>No validation Errors when entered</t>
-        </is>
-      </c>
-    </row>
-    <row r="456">
-      <c r="C456" t="inlineStr">
-        <is>
-          <t>NOMAC_Process1_TC90</t>
-        </is>
-      </c>
-      <c r="D456" t="n">
-        <v>1</v>
-      </c>
-      <c r="E456" t="inlineStr">
-        <is>
-          <t>Enter name3 in name Field</t>
-        </is>
-      </c>
-      <c r="F456" t="inlineStr">
-        <is>
-          <t>No validation Errors when entered</t>
-        </is>
-      </c>
-    </row>
-    <row r="457">
-      <c r="D457" t="n">
-        <v>2</v>
-      </c>
-      <c r="E457" t="inlineStr">
-        <is>
-          <t>Enter %Lname% in Lname Field</t>
-        </is>
-      </c>
-      <c r="F457" t="inlineStr">
-        <is>
-          <t>No validation Errors when entered</t>
-        </is>
-      </c>
-    </row>
-    <row r="458">
-      <c r="D458" t="n">
-        <v>3</v>
-      </c>
-      <c r="E458" t="inlineStr">
-        <is>
-          <t>Enter Abou Haidar in Lname Field</t>
-        </is>
-      </c>
-      <c r="F458" t="inlineStr">
-        <is>
-          <t>No validation Errors when entered</t>
-        </is>
-      </c>
-    </row>
-    <row r="459">
-      <c r="D459" t="n">
-        <v>4</v>
-      </c>
-      <c r="E459" t="inlineStr">
-        <is>
-          <t>Enter hello in comment Field</t>
-        </is>
-      </c>
-      <c r="F459" t="inlineStr">
-        <is>
-          <t>No validation Errors when entered</t>
-        </is>
-      </c>
-    </row>
-    <row r="460">
-      <c r="D460" t="n">
-        <v>5</v>
-      </c>
-      <c r="E460" t="inlineStr">
-        <is>
-          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
-        </is>
-      </c>
-      <c r="F460" t="inlineStr">
-        <is>
-          <t>No validation Errors when entered</t>
-        </is>
-      </c>
-    </row>
-    <row r="461">
-      <c r="C461" t="inlineStr">
-        <is>
-          <t>NOMAC_Process1_TC91</t>
-        </is>
-      </c>
-      <c r="D461" t="n">
-        <v>1</v>
-      </c>
-      <c r="E461" t="inlineStr">
-        <is>
-          <t>Enter Johnny in name Field</t>
-        </is>
-      </c>
-      <c r="F461" t="inlineStr">
-        <is>
-          <t>No validation Errors when entered</t>
-        </is>
-      </c>
-    </row>
-    <row r="462">
-      <c r="D462" t="n">
-        <v>2</v>
-      </c>
-      <c r="E462" t="inlineStr">
-        <is>
-          <t>Enter %Lname% in Lname Field</t>
-        </is>
-      </c>
-      <c r="F462" t="inlineStr">
-        <is>
-          <t>No validation Errors when entered</t>
-        </is>
-      </c>
-    </row>
-    <row r="463">
-      <c r="D463" t="n">
-        <v>3</v>
-      </c>
-      <c r="E463" t="inlineStr">
-        <is>
-          <t>Enter lname3 in Lname Field</t>
-        </is>
-      </c>
-      <c r="F463" t="inlineStr">
-        <is>
-          <t>No validation Errors when entered</t>
-        </is>
-      </c>
-    </row>
-    <row r="464">
-      <c r="D464" t="n">
-        <v>4</v>
-      </c>
-      <c r="E464" t="inlineStr">
-        <is>
-          <t>Enter sample comment1 in comment Field</t>
-        </is>
-      </c>
-      <c r="F464" t="inlineStr">
-        <is>
-          <t>No validation Errors when entered</t>
-        </is>
-      </c>
-    </row>
-    <row r="465">
-      <c r="D465" t="n">
-        <v>5</v>
-      </c>
-      <c r="E465" t="inlineStr">
-        <is>
-          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
-        </is>
-      </c>
-      <c r="F465" t="inlineStr">
-        <is>
-          <t>No validation Errors when entered</t>
-        </is>
-      </c>
-    </row>
-    <row r="466">
-      <c r="C466" t="inlineStr">
-        <is>
-          <t>NOMAC_Process1_TC92</t>
-        </is>
-      </c>
-      <c r="D466" t="n">
-        <v>1</v>
-      </c>
-      <c r="E466" t="inlineStr">
-        <is>
-          <t>Enter name3 in name Field</t>
-        </is>
-      </c>
-      <c r="F466" t="inlineStr">
-        <is>
-          <t>No validation Errors when entered</t>
-        </is>
-      </c>
-    </row>
-    <row r="467">
-      <c r="D467" t="n">
-        <v>2</v>
-      </c>
-      <c r="E467" t="inlineStr">
-        <is>
-          <t>Enter %Lname% in Lname Field</t>
-        </is>
-      </c>
-      <c r="F467" t="inlineStr">
-        <is>
-          <t>No validation Errors when entered</t>
-        </is>
-      </c>
-    </row>
-    <row r="468">
-      <c r="D468" t="n">
-        <v>3</v>
-      </c>
-      <c r="E468" t="inlineStr">
-        <is>
-          <t>Enter Abou Haidar in Lname Field</t>
-        </is>
-      </c>
-      <c r="F468" t="inlineStr">
-        <is>
-          <t>No validation Errors when entered</t>
-        </is>
-      </c>
-    </row>
-    <row r="469">
-      <c r="D469" t="n">
-        <v>4</v>
-      </c>
-      <c r="E469" t="inlineStr">
-        <is>
-          <t>Enter hello in comment Field</t>
-        </is>
-      </c>
-      <c r="F469" t="inlineStr">
-        <is>
-          <t>No validation Errors when entered</t>
-        </is>
-      </c>
-    </row>
-    <row r="470">
-      <c r="D470" t="n">
-        <v>5</v>
-      </c>
-      <c r="E470" t="inlineStr">
-        <is>
-          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
-        </is>
-      </c>
-      <c r="F470" t="inlineStr">
-        <is>
-          <t>No validation Errors when entered</t>
-        </is>
-      </c>
-    </row>
-    <row r="471">
-      <c r="C471" t="inlineStr">
-        <is>
-          <t>NOMAC_Process1_TC93</t>
-        </is>
-      </c>
-      <c r="D471" t="n">
-        <v>1</v>
-      </c>
-      <c r="E471" t="inlineStr">
-        <is>
-          <t>Enter Johnny in name Field</t>
-        </is>
-      </c>
-      <c r="F471" t="inlineStr">
-        <is>
-          <t>No validation Errors when entered</t>
-        </is>
-      </c>
-    </row>
-    <row r="472">
-      <c r="D472" t="n">
-        <v>2</v>
-      </c>
-      <c r="E472" t="inlineStr">
-        <is>
-          <t>Enter %Lname% in Lname Field</t>
-        </is>
-      </c>
-      <c r="F472" t="inlineStr">
-        <is>
-          <t>No validation Errors when entered</t>
-        </is>
-      </c>
-    </row>
-    <row r="473">
-      <c r="D473" t="n">
-        <v>3</v>
-      </c>
-      <c r="E473" t="inlineStr">
-        <is>
-          <t>Enter lname3 in Lname Field</t>
-        </is>
-      </c>
-      <c r="F473" t="inlineStr">
-        <is>
-          <t>No validation Errors when entered</t>
-        </is>
-      </c>
-    </row>
-    <row r="474">
-      <c r="D474" t="n">
-        <v>4</v>
-      </c>
-      <c r="E474" t="inlineStr">
-        <is>
-          <t>Enter sample comment1 in comment Field</t>
-        </is>
-      </c>
-      <c r="F474" t="inlineStr">
-        <is>
-          <t>No validation Errors when entered</t>
-        </is>
-      </c>
-    </row>
-    <row r="475">
-      <c r="D475" t="n">
-        <v>5</v>
-      </c>
-      <c r="E475" t="inlineStr">
-        <is>
-          <t>Upload nan in file2upload Field</t>
-        </is>
-      </c>
-      <c r="F475" t="inlineStr">
-        <is>
-          <t>No validation Errors when entered</t>
-        </is>
-      </c>
-    </row>
-    <row r="476">
-      <c r="C476" t="inlineStr">
-        <is>
-          <t>NOMAC_Process1_TC94</t>
-        </is>
-      </c>
-      <c r="D476" t="n">
-        <v>1</v>
-      </c>
-      <c r="E476" t="inlineStr">
-        <is>
-          <t>Enter name3 in name Field</t>
-        </is>
-      </c>
-      <c r="F476" t="inlineStr">
-        <is>
-          <t>No validation Errors when entered</t>
-        </is>
-      </c>
-    </row>
-    <row r="477">
-      <c r="D477" t="n">
-        <v>2</v>
-      </c>
-      <c r="E477" t="inlineStr">
-        <is>
-          <t>Enter %Lname% in Lname Field</t>
-        </is>
-      </c>
-      <c r="F477" t="inlineStr">
-        <is>
-          <t>No validation Errors when entered</t>
-        </is>
-      </c>
-    </row>
-    <row r="478">
-      <c r="D478" t="n">
-        <v>3</v>
-      </c>
-      <c r="E478" t="inlineStr">
-        <is>
-          <t>Enter Abou Haidar in Lname Field</t>
-        </is>
-      </c>
-      <c r="F478" t="inlineStr">
-        <is>
-          <t>No validation Errors when entered</t>
-        </is>
-      </c>
-    </row>
-    <row r="479">
-      <c r="D479" t="n">
-        <v>4</v>
-      </c>
-      <c r="E479" t="inlineStr">
-        <is>
-          <t>Enter hello in comment Field</t>
-        </is>
-      </c>
-      <c r="F479" t="inlineStr">
-        <is>
-          <t>No validation Errors when entered</t>
-        </is>
-      </c>
-    </row>
-    <row r="480">
-      <c r="D480" t="n">
-        <v>5</v>
-      </c>
-      <c r="E480" t="inlineStr">
-        <is>
-          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
-        </is>
-      </c>
-      <c r="F480" t="inlineStr">
-        <is>
-          <t>No validation Errors when entered</t>
-        </is>
-      </c>
-    </row>
-    <row r="481">
-      <c r="C481" t="inlineStr">
-        <is>
-          <t>NOMAC_Process1_TC95</t>
-        </is>
-      </c>
-      <c r="D481" t="n">
-        <v>1</v>
-      </c>
-      <c r="E481" t="inlineStr">
-        <is>
-          <t>Enter Johnny in name Field</t>
-        </is>
-      </c>
-      <c r="F481" t="inlineStr">
-        <is>
-          <t>No validation Errors when entered</t>
-        </is>
-      </c>
-    </row>
-    <row r="482">
-      <c r="D482" t="n">
-        <v>2</v>
-      </c>
-      <c r="E482" t="inlineStr">
-        <is>
-          <t>Enter %Lname% in Lname Field</t>
-        </is>
-      </c>
-      <c r="F482" t="inlineStr">
-        <is>
-          <t>No validation Errors when entered</t>
-        </is>
-      </c>
-    </row>
-    <row r="483">
-      <c r="D483" t="n">
-        <v>3</v>
-      </c>
-      <c r="E483" t="inlineStr">
-        <is>
-          <t>Enter Abou Haidar in Lname Field</t>
-        </is>
-      </c>
-      <c r="F483" t="inlineStr">
-        <is>
-          <t>No validation Errors when entered</t>
-        </is>
-      </c>
-    </row>
-    <row r="484">
-      <c r="D484" t="n">
-        <v>4</v>
-      </c>
-      <c r="E484" t="inlineStr">
-        <is>
-          <t>Enter hello in comment Field</t>
-        </is>
-      </c>
-      <c r="F484" t="inlineStr">
-        <is>
-          <t>No validation Errors when entered</t>
-        </is>
-      </c>
-    </row>
-    <row r="485">
-      <c r="D485" t="n">
-        <v>5</v>
-      </c>
-      <c r="E485" t="inlineStr">
-        <is>
-          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
-        </is>
-      </c>
-      <c r="F485" t="inlineStr">
-        <is>
-          <t>No validation Errors when entered</t>
-        </is>
-      </c>
-    </row>
-    <row r="486">
-      <c r="C486" t="inlineStr">
-        <is>
-          <t>NOMAC_Process1_TC96</t>
-        </is>
-      </c>
-      <c r="D486" t="n">
-        <v>1</v>
-      </c>
-      <c r="E486" t="inlineStr">
-        <is>
-          <t>Enter Johnny in name Field</t>
-        </is>
-      </c>
-      <c r="F486" t="inlineStr">
-        <is>
-          <t>No validation Errors when entered</t>
-        </is>
-      </c>
-    </row>
-    <row r="487">
-      <c r="D487" t="n">
-        <v>2</v>
-      </c>
-      <c r="E487" t="inlineStr">
-        <is>
-          <t>Enter %Lname% in Lname Field</t>
-        </is>
-      </c>
-      <c r="F487" t="inlineStr">
-        <is>
-          <t>No validation Errors when entered</t>
-        </is>
-      </c>
-    </row>
-    <row r="488">
-      <c r="D488" t="n">
-        <v>3</v>
-      </c>
-      <c r="E488" t="inlineStr">
-        <is>
-          <t>Enter Abou Haidar in Lname Field</t>
-        </is>
-      </c>
-      <c r="F488" t="inlineStr">
-        <is>
-          <t>No validation Errors when entered</t>
-        </is>
-      </c>
-    </row>
-    <row r="489">
-      <c r="D489" t="n">
-        <v>4</v>
-      </c>
-      <c r="E489" t="inlineStr">
-        <is>
-          <t>Enter sample comment1 in comment Field</t>
-        </is>
-      </c>
-      <c r="F489" t="inlineStr">
-        <is>
-          <t>No validation Errors when entered</t>
-        </is>
-      </c>
-    </row>
-    <row r="490">
-      <c r="D490" t="n">
-        <v>5</v>
-      </c>
-      <c r="E490" t="inlineStr">
-        <is>
-          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
-        </is>
-      </c>
-      <c r="F490" t="inlineStr">
-        <is>
-          <t>No validation Errors when entered</t>
-        </is>
-      </c>
-    </row>
-    <row r="491">
-      <c r="C491" t="inlineStr">
-        <is>
-          <t>NOMAC_Process1_TC97</t>
-        </is>
-      </c>
-      <c r="D491" t="n">
-        <v>1</v>
-      </c>
-      <c r="E491" t="inlineStr">
-        <is>
-          <t>Enter Johnny in name Field</t>
-        </is>
-      </c>
-      <c r="F491" t="inlineStr">
-        <is>
-          <t>No validation Errors when entered</t>
-        </is>
-      </c>
-    </row>
-    <row r="492">
-      <c r="D492" t="n">
-        <v>2</v>
-      </c>
-      <c r="E492" t="inlineStr">
-        <is>
-          <t>Enter %Lname% in Lname Field</t>
-        </is>
-      </c>
-      <c r="F492" t="inlineStr">
-        <is>
-          <t>No validation Errors when entered</t>
-        </is>
-      </c>
-    </row>
-    <row r="493">
-      <c r="D493" t="n">
-        <v>3</v>
-      </c>
-      <c r="E493" t="inlineStr">
-        <is>
-          <t>Enter Abou Haidar in Lname Field</t>
-        </is>
-      </c>
-      <c r="F493" t="inlineStr">
-        <is>
-          <t>No validation Errors when entered</t>
-        </is>
-      </c>
-    </row>
-    <row r="494">
-      <c r="D494" t="n">
-        <v>4</v>
-      </c>
-      <c r="E494" t="inlineStr">
-        <is>
-          <t>Enter hello in comment Field</t>
-        </is>
-      </c>
-      <c r="F494" t="inlineStr">
-        <is>
-          <t>No validation Errors when entered</t>
-        </is>
-      </c>
-    </row>
-    <row r="495">
-      <c r="D495" t="n">
-        <v>5</v>
-      </c>
-      <c r="E495" t="inlineStr">
-        <is>
-          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
-        </is>
-      </c>
-      <c r="F495" t="inlineStr">
-        <is>
-          <t>No validation Errors when entered</t>
-        </is>
-      </c>
-    </row>
-    <row r="496">
-      <c r="C496" t="inlineStr">
-        <is>
-          <t>NOMAC_Process1_TC98</t>
-        </is>
-      </c>
-      <c r="D496" t="n">
-        <v>1</v>
-      </c>
-      <c r="E496" t="inlineStr">
-        <is>
-          <t>Enter Johnny in name Field</t>
-        </is>
-      </c>
-      <c r="F496" t="inlineStr">
-        <is>
-          <t>No validation Errors when entered</t>
-        </is>
-      </c>
-    </row>
-    <row r="497">
-      <c r="D497" t="n">
-        <v>2</v>
-      </c>
-      <c r="E497" t="inlineStr">
-        <is>
-          <t>Enter %Lname% in Lname Field</t>
-        </is>
-      </c>
-      <c r="F497" t="inlineStr">
-        <is>
-          <t>No validation Errors when entered</t>
-        </is>
-      </c>
-    </row>
-    <row r="498">
-      <c r="D498" t="n">
-        <v>3</v>
-      </c>
-      <c r="E498" t="inlineStr">
-        <is>
-          <t>Enter Abou Haidar in Lname Field</t>
-        </is>
-      </c>
-      <c r="F498" t="inlineStr">
-        <is>
-          <t>No validation Errors when entered</t>
-        </is>
-      </c>
-    </row>
-    <row r="499">
-      <c r="D499" t="n">
-        <v>4</v>
-      </c>
-      <c r="E499" t="inlineStr">
-        <is>
-          <t>Enter hello in comment Field</t>
-        </is>
-      </c>
-      <c r="F499" t="inlineStr">
-        <is>
-          <t>No validation Errors when entered</t>
-        </is>
-      </c>
-    </row>
-    <row r="500">
-      <c r="D500" t="n">
-        <v>5</v>
-      </c>
-      <c r="E500" t="inlineStr">
-        <is>
-          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
-        </is>
-      </c>
-      <c r="F500" t="inlineStr">
-        <is>
-          <t>No validation Errors when entered</t>
-        </is>
-      </c>
-    </row>
-    <row r="501">
-      <c r="C501" t="inlineStr">
-        <is>
-          <t>NOMAC_Process1_TC99</t>
-        </is>
-      </c>
-      <c r="D501" t="n">
-        <v>1</v>
-      </c>
-      <c r="E501" t="inlineStr">
-        <is>
-          <t>Enter Johnny in name Field</t>
-        </is>
-      </c>
-      <c r="F501" t="inlineStr">
-        <is>
-          <t>No validation Errors when entered</t>
-        </is>
-      </c>
-    </row>
-    <row r="502">
-      <c r="D502" t="n">
-        <v>2</v>
-      </c>
-      <c r="E502" t="inlineStr">
-        <is>
-          <t>Enter %Lname% in Lname Field</t>
-        </is>
-      </c>
-      <c r="F502" t="inlineStr">
-        <is>
-          <t>No validation Errors when entered</t>
-        </is>
-      </c>
-    </row>
-    <row r="503">
-      <c r="D503" t="n">
-        <v>3</v>
-      </c>
-      <c r="E503" t="inlineStr">
-        <is>
-          <t>Enter lname3 in Lname Field</t>
-        </is>
-      </c>
-      <c r="F503" t="inlineStr">
-        <is>
-          <t>No validation Errors when entered</t>
-        </is>
-      </c>
-    </row>
-    <row r="504">
-      <c r="D504" t="n">
-        <v>4</v>
-      </c>
-      <c r="E504" t="inlineStr">
-        <is>
-          <t>Enter sample comment1 in comment Field</t>
-        </is>
-      </c>
-      <c r="F504" t="inlineStr">
-        <is>
-          <t>No validation Errors when entered</t>
-        </is>
-      </c>
-    </row>
-    <row r="505">
-      <c r="D505" t="n">
-        <v>5</v>
-      </c>
-      <c r="E505" t="inlineStr">
-        <is>
-          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
-        </is>
-      </c>
-      <c r="F505" t="inlineStr">
-        <is>
-          <t>No validation Errors when entered</t>
-        </is>
-      </c>
-    </row>
-    <row r="506">
-      <c r="C506" t="inlineStr">
-        <is>
-          <t>NOMAC_Process1_TC100</t>
-        </is>
-      </c>
-      <c r="D506" t="n">
-        <v>1</v>
-      </c>
-      <c r="E506" t="inlineStr">
-        <is>
-          <t>Enter name3 in name Field</t>
-        </is>
-      </c>
-      <c r="F506" t="inlineStr">
-        <is>
-          <t>No validation Errors when entered</t>
-        </is>
-      </c>
-    </row>
-    <row r="507">
-      <c r="D507" t="n">
-        <v>2</v>
-      </c>
-      <c r="E507" t="inlineStr">
-        <is>
-          <t>Enter %Lname% in Lname Field</t>
-        </is>
-      </c>
-      <c r="F507" t="inlineStr">
-        <is>
-          <t>No validation Errors when entered</t>
-        </is>
-      </c>
-    </row>
-    <row r="508">
-      <c r="D508" t="n">
-        <v>3</v>
-      </c>
-      <c r="E508" t="inlineStr">
-        <is>
-          <t>Enter lname3 in Lname Field</t>
-        </is>
-      </c>
-      <c r="F508" t="inlineStr">
-        <is>
-          <t>No validation Errors when entered</t>
-        </is>
-      </c>
-    </row>
-    <row r="509">
-      <c r="D509" t="n">
-        <v>4</v>
-      </c>
-      <c r="E509" t="inlineStr">
-        <is>
-          <t>Enter sample comment1 in comment Field</t>
-        </is>
-      </c>
-      <c r="F509" t="inlineStr">
-        <is>
-          <t>No validation Errors when entered</t>
-        </is>
-      </c>
-    </row>
-    <row r="510">
-      <c r="D510" t="n">
-        <v>5</v>
-      </c>
-      <c r="E510" t="inlineStr">
-        <is>
-          <t>Upload nan in file2upload Field</t>
-        </is>
-      </c>
-      <c r="F510" t="inlineStr">
-        <is>
-          <t>No validation Errors when entered</t>
-        </is>
-      </c>
-    </row>
+    <row r="411"/>
+    <row r="412"/>
+    <row r="413"/>
+    <row r="414"/>
+    <row r="415"/>
+    <row r="416"/>
+    <row r="417"/>
+    <row r="418"/>
+    <row r="419"/>
+    <row r="420"/>
+    <row r="421"/>
+    <row r="422"/>
+    <row r="423"/>
+    <row r="424"/>
+    <row r="425"/>
+    <row r="426"/>
+    <row r="427"/>
+    <row r="428"/>
+    <row r="429"/>
+    <row r="430"/>
+    <row r="431"/>
+    <row r="432"/>
+    <row r="433"/>
+    <row r="434"/>
+    <row r="435"/>
+    <row r="436"/>
+    <row r="437"/>
+    <row r="438"/>
+    <row r="439"/>
+    <row r="440"/>
+    <row r="441"/>
+    <row r="442"/>
+    <row r="443"/>
+    <row r="444"/>
+    <row r="445"/>
+    <row r="446"/>
+    <row r="447"/>
+    <row r="448"/>
+    <row r="449"/>
+    <row r="450"/>
+    <row r="451"/>
+    <row r="452"/>
+    <row r="453"/>
+    <row r="454"/>
+    <row r="455"/>
+    <row r="456"/>
+    <row r="457"/>
+    <row r="458"/>
+    <row r="459"/>
+    <row r="460"/>
+    <row r="461"/>
+    <row r="462"/>
+    <row r="463"/>
+    <row r="464"/>
+    <row r="465"/>
+    <row r="466"/>
+    <row r="467"/>
+    <row r="468"/>
+    <row r="469"/>
+    <row r="470"/>
+    <row r="471"/>
+    <row r="472"/>
+    <row r="473"/>
+    <row r="474"/>
+    <row r="475"/>
+    <row r="476"/>
+    <row r="477"/>
+    <row r="478"/>
+    <row r="479"/>
+    <row r="480"/>
+    <row r="481"/>
+    <row r="482"/>
+    <row r="483"/>
+    <row r="484"/>
+    <row r="485"/>
+    <row r="486"/>
+    <row r="487"/>
+    <row r="488"/>
+    <row r="489"/>
+    <row r="490"/>
+    <row r="491"/>
+    <row r="492"/>
+    <row r="493"/>
+    <row r="494"/>
+    <row r="495"/>
+    <row r="496"/>
+    <row r="497"/>
+    <row r="498"/>
+    <row r="499"/>
+    <row r="500"/>
+    <row r="501"/>
+    <row r="502"/>
+    <row r="503"/>
+    <row r="504"/>
+    <row r="505"/>
+    <row r="506"/>
+    <row r="507"/>
+    <row r="508"/>
+    <row r="509"/>
+    <row r="510"/>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="K22:K28"/>
@@ -37273,19 +35816,19 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="39.5703125" bestFit="1" customWidth="1" style="41" min="3" max="3"/>
+    <col width="39.5703125" bestFit="1" customWidth="1" style="42" min="3" max="3"/>
   </cols>
   <sheetData>
-    <row r="2" ht="21" customHeight="1" s="41">
+    <row r="2" ht="21" customHeight="1" s="42">
       <c r="C2" s="14" t="n"/>
     </row>
-    <row r="33" ht="26.25" customHeight="1" s="41">
+    <row r="33" ht="26.25" customHeight="1" s="42">
       <c r="C33" s="15" t="n"/>
     </row>
-    <row r="68" ht="21" customHeight="1" s="41">
+    <row r="68" ht="21" customHeight="1" s="42">
       <c r="C68" s="14" t="n"/>
     </row>
-    <row r="101" ht="21" customHeight="1" s="41">
+    <row r="101" ht="21" customHeight="1" s="42">
       <c r="C101" s="14" t="n"/>
     </row>
   </sheetData>

--- a/NOMAC_Work Order Manangement.xlsx
+++ b/NOMAC_Work Order Manangement.xlsx
@@ -28887,7 +28887,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K510"/>
+  <dimension ref="A1:K410"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
@@ -29156,7 +29156,7 @@
       </c>
       <c r="E12" s="16" t="inlineStr">
         <is>
-          <t>Enter lname3 in Lname Field</t>
+          <t>Enter New in Lname Field</t>
         </is>
       </c>
       <c r="F12" s="38" t="inlineStr">
@@ -29186,7 +29186,7 @@
       </c>
       <c r="E14" s="16" t="inlineStr">
         <is>
-          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+          <t>Upload C:\Users\johnny.abouhaidar\Desktop\myfiles\katalon\Test Run Report 26.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F14" s="38" t="inlineStr">
@@ -29221,7 +29221,7 @@
       </c>
       <c r="E16" s="16" t="inlineStr">
         <is>
-          <t>Enter New in Lname Field</t>
+          <t>Enter Smith in Lname Field</t>
         </is>
       </c>
       <c r="F16" s="35" t="inlineStr">
@@ -29236,7 +29236,7 @@
       </c>
       <c r="E17" s="16" t="inlineStr">
         <is>
-          <t>Enter hello in comment Field</t>
+          <t>Enter 111 in comment Field</t>
         </is>
       </c>
       <c r="F17" s="35" t="inlineStr">
@@ -29251,7 +29251,7 @@
       </c>
       <c r="E18" s="16" t="inlineStr">
         <is>
-          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+          <t>Upload C:\Users\johnny.abouhaidar\Desktop\myfiles\katalon\Test Run Report 26.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F18" s="35" t="inlineStr">
@@ -29319,7 +29319,7 @@
       </c>
       <c r="E22" s="16" t="inlineStr">
         <is>
-          <t>Upload nan in file2upload Field</t>
+          <t>Upload C:\Users\johnny.abouhaidar\Desktop\myfiles\katalon\Test Run Report 26.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F22" s="38" t="inlineStr">
@@ -29389,7 +29389,7 @@
       </c>
       <c r="E26" s="16" t="inlineStr">
         <is>
-          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+          <t>Upload nan in file2upload Field</t>
         </is>
       </c>
       <c r="F26" s="41" t="inlineStr">
@@ -29459,7 +29459,7 @@
       </c>
       <c r="E30" s="36" t="inlineStr">
         <is>
-          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+          <t>Upload C:\Users\johnny.abouhaidar\Desktop\myfiles\katalon\Test Run Report 26.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F30" s="35" t="inlineStr">
@@ -29479,7 +29479,7 @@
       </c>
       <c r="E31" s="36" t="inlineStr">
         <is>
-          <t>Enter Johnny in first Field</t>
+          <t>Enter John in first Field</t>
         </is>
       </c>
       <c r="F31" s="35" t="inlineStr">
@@ -29494,7 +29494,7 @@
       </c>
       <c r="E32" s="36" t="inlineStr">
         <is>
-          <t>Enter Smith in Lname Field</t>
+          <t>Enter New in Lname Field</t>
         </is>
       </c>
       <c r="F32" s="35" t="inlineStr">
@@ -29524,7 +29524,7 @@
       </c>
       <c r="E34" s="36" t="inlineStr">
         <is>
-          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+          <t>Upload nan in file2upload Field</t>
         </is>
       </c>
       <c r="F34" s="35" t="inlineStr">
@@ -29559,7 +29559,7 @@
       </c>
       <c r="E36" s="36" t="inlineStr">
         <is>
-          <t>Enter lname3 in Lname Field</t>
+          <t>Enter Smith in Lname Field</t>
         </is>
       </c>
       <c r="F36" s="35" t="inlineStr">
@@ -29589,7 +29589,7 @@
       </c>
       <c r="E38" s="36" t="inlineStr">
         <is>
-          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+          <t>Upload C:\Users\johnny.abouhaidar\Desktop\myfiles\katalon\Test Run Report 26.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F38" s="35" t="inlineStr">
@@ -29609,7 +29609,7 @@
       </c>
       <c r="E39" s="36" t="inlineStr">
         <is>
-          <t>Enter Johnny in first Field</t>
+          <t>Enter John in first Field</t>
         </is>
       </c>
       <c r="F39" s="35" t="inlineStr">
@@ -29624,7 +29624,7 @@
       </c>
       <c r="E40" s="36" t="inlineStr">
         <is>
-          <t>Enter lname3 in Lname Field</t>
+          <t>Enter Smith in Lname Field</t>
         </is>
       </c>
       <c r="F40" s="35" t="inlineStr">
@@ -29654,7 +29654,7 @@
       </c>
       <c r="E42" s="36" t="inlineStr">
         <is>
-          <t>Upload nan in file2upload Field</t>
+          <t>Upload C:\Users\johnny.abouhaidar\Desktop\myfiles\katalon\Test Run Report 26.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F42" s="35" t="inlineStr">
@@ -29689,7 +29689,7 @@
       </c>
       <c r="E44" s="36" t="inlineStr">
         <is>
-          <t>Enter Smith in Lname Field</t>
+          <t>Enter lname3 in Lname Field</t>
         </is>
       </c>
       <c r="F44" s="35" t="inlineStr">
@@ -29704,7 +29704,7 @@
       </c>
       <c r="E45" s="36" t="inlineStr">
         <is>
-          <t>Enter 111 in comment Field</t>
+          <t>Enter hello in comment Field</t>
         </is>
       </c>
       <c r="F45" s="35" t="inlineStr">
@@ -29719,7 +29719,7 @@
       </c>
       <c r="E46" s="36" t="inlineStr">
         <is>
-          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+          <t>Upload C:\Users\johnny.abouhaidar\Desktop\myfiles\katalon\Test Run Report 26.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F46" s="35" t="inlineStr">
@@ -29769,7 +29769,7 @@
       </c>
       <c r="E49" s="37" t="inlineStr">
         <is>
-          <t>Enter 111 in comment Field</t>
+          <t>Enter hello in comment Field</t>
         </is>
       </c>
       <c r="F49" s="22" t="inlineStr">
@@ -29784,7 +29784,7 @@
       </c>
       <c r="E50" s="20" t="inlineStr">
         <is>
-          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+          <t>Upload C:\Users\johnny.abouhaidar\Desktop\myfiles\katalon\Test Run Report 26.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F50" s="35" t="inlineStr">
@@ -29804,7 +29804,7 @@
       </c>
       <c r="E51" s="20" t="inlineStr">
         <is>
-          <t>Enter Johnny in first Field</t>
+          <t>Enter John in first Field</t>
         </is>
       </c>
       <c r="F51" s="35" t="inlineStr">
@@ -29834,7 +29834,7 @@
       </c>
       <c r="E53" s="20" t="inlineStr">
         <is>
-          <t>Enter 111 in comment Field</t>
+          <t>Enter hello in comment Field</t>
         </is>
       </c>
       <c r="F53" s="35" t="inlineStr">
@@ -29849,7 +29849,7 @@
       </c>
       <c r="E54" s="20" t="inlineStr">
         <is>
-          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+          <t>Upload C:\Users\johnny.abouhaidar\Desktop\myfiles\katalon\Test Run Report 26.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F54" s="35" t="inlineStr">
@@ -29869,7 +29869,7 @@
       </c>
       <c r="E55" s="20" t="inlineStr">
         <is>
-          <t>Enter John in first Field</t>
+          <t>Enter Johnny in first Field</t>
         </is>
       </c>
       <c r="F55" s="35" t="inlineStr">
@@ -29886,7 +29886,7 @@
       </c>
       <c r="E56" s="20" t="inlineStr">
         <is>
-          <t>Enter New in Lname Field</t>
+          <t>Enter Smith in Lname Field</t>
         </is>
       </c>
       <c r="F56" s="35" t="inlineStr">
@@ -29920,7 +29920,7 @@
       </c>
       <c r="E58" s="20" t="inlineStr">
         <is>
-          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+          <t>Upload C:\Users\johnny.abouhaidar\Desktop\myfiles\katalon\Test Run Report 26.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F58" s="35" t="inlineStr">
@@ -29958,7 +29958,7 @@
       </c>
       <c r="E60" s="20" t="inlineStr">
         <is>
-          <t>Enter New in Lname Field</t>
+          <t>Enter lname3 in Lname Field</t>
         </is>
       </c>
       <c r="F60" s="35" t="inlineStr">
@@ -29992,7 +29992,7 @@
       </c>
       <c r="E62" s="20" t="inlineStr">
         <is>
-          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+          <t>Upload C:\Users\johnny.abouhaidar\Desktop\myfiles\katalon\Test Run Report 26.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F62" s="35" t="inlineStr">
@@ -30030,7 +30030,7 @@
       </c>
       <c r="E64" s="20" t="inlineStr">
         <is>
-          <t>Enter New in Lname Field</t>
+          <t>Enter lname3 in Lname Field</t>
         </is>
       </c>
       <c r="F64" s="35" t="inlineStr">
@@ -30047,7 +30047,7 @@
       </c>
       <c r="E65" s="20" t="inlineStr">
         <is>
-          <t>Enter hello in comment Field</t>
+          <t>Enter 111 in comment Field</t>
         </is>
       </c>
       <c r="F65" s="35" t="inlineStr">
@@ -30064,7 +30064,7 @@
       </c>
       <c r="E66" s="20" t="inlineStr">
         <is>
-          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+          <t>Upload C:\Users\johnny.abouhaidar\Desktop\myfiles\katalon\Test Run Report 26.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F66" s="35" t="inlineStr">
@@ -30085,7 +30085,7 @@
       </c>
       <c r="E67" s="20" t="inlineStr">
         <is>
-          <t>Enter John in first Field</t>
+          <t>Enter Johnny in first Field</t>
         </is>
       </c>
       <c r="F67" s="35" t="inlineStr">
@@ -30102,7 +30102,7 @@
       </c>
       <c r="E68" s="20" t="inlineStr">
         <is>
-          <t>Enter lname3 in Lname Field</t>
+          <t>Enter Smith in Lname Field</t>
         </is>
       </c>
       <c r="F68" s="35" t="inlineStr">
@@ -30119,7 +30119,7 @@
       </c>
       <c r="E69" s="20" t="inlineStr">
         <is>
-          <t>Enter 111 in comment Field</t>
+          <t>Enter hello in comment Field</t>
         </is>
       </c>
       <c r="F69" s="35" t="inlineStr">
@@ -30136,7 +30136,7 @@
       </c>
       <c r="E70" s="20" t="inlineStr">
         <is>
-          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+          <t>Upload C:\Users\johnny.abouhaidar\Desktop\myfiles\katalon\Test Run Report 26.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F70" s="35" t="inlineStr">
@@ -30157,7 +30157,7 @@
       </c>
       <c r="E71" s="20" t="inlineStr">
         <is>
-          <t>Enter Johnny in first Field</t>
+          <t>Enter John in first Field</t>
         </is>
       </c>
       <c r="F71" s="20" t="inlineStr">
@@ -30174,7 +30174,7 @@
       </c>
       <c r="E72" s="20" t="inlineStr">
         <is>
-          <t>Enter Smith in Lname Field</t>
+          <t>Enter lname3 in Lname Field</t>
         </is>
       </c>
       <c r="F72" s="20" t="inlineStr">
@@ -30208,7 +30208,7 @@
       </c>
       <c r="E74" s="20" t="inlineStr">
         <is>
-          <t>Upload nan in file2upload Field</t>
+          <t>Upload C:\Users\johnny.abouhaidar\Desktop\myfiles\katalon\Test Run Report 26.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F74" s="20" t="inlineStr">
@@ -30229,7 +30229,7 @@
       </c>
       <c r="E75" s="20" t="inlineStr">
         <is>
-          <t>Enter Johnny in first Field</t>
+          <t>Enter John in first Field</t>
         </is>
       </c>
       <c r="F75" s="20" t="inlineStr">
@@ -30280,7 +30280,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+          <t>Upload C:\Users\johnny.abouhaidar\Desktop\myfiles\katalon\Test Run Report 26.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F78" s="13" t="inlineStr">
@@ -30330,7 +30330,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Enter hello in comment Field</t>
+          <t>Enter 111 in comment Field</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -30345,7 +30345,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+          <t>Upload C:\Users\johnny.abouhaidar\Desktop\myfiles\katalon\Test Run Report 26.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -30365,7 +30365,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Enter Johnny in first Field</t>
+          <t>Enter John in first Field</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -30410,7 +30410,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+          <t>Upload C:\Users\johnny.abouhaidar\Desktop\myfiles\katalon\Test Run Report 26.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -30445,7 +30445,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Enter Smith in Lname Field</t>
+          <t>Enter New in Lname Field</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -30460,7 +30460,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Enter hello in comment Field</t>
+          <t>Enter 111 in comment Field</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -30475,7 +30475,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+          <t>Upload C:\Users\johnny.abouhaidar\Desktop\myfiles\katalon\Test Run Report 26.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -30495,7 +30495,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Enter Johnny in first Field</t>
+          <t>Enter John in first Field</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -30540,7 +30540,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+          <t>Upload C:\Users\johnny.abouhaidar\Desktop\myfiles\katalon\Test Run Report 26.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -30560,7 +30560,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Enter Johnny in first Field</t>
+          <t>Enter John in first Field</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -30575,7 +30575,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Enter New in Lname Field</t>
+          <t>Enter lname3 in Lname Field</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -30605,7 +30605,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+          <t>Upload nan in file2upload Field</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -30655,7 +30655,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Enter 111 in comment Field</t>
+          <t>Enter hello in comment Field</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -30670,7 +30670,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+          <t>Upload C:\Users\johnny.abouhaidar\Desktop\myfiles\katalon\Test Run Report 26.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -30735,7 +30735,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Upload nan in file2upload Field</t>
+          <t>Upload C:\Users\johnny.abouhaidar\Desktop\myfiles\katalon\Test Run Report 26.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -30770,7 +30770,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Enter lname3 in Lname Field</t>
+          <t>Enter Smith in Lname Field</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -30800,7 +30800,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+          <t>Upload C:\Users\johnny.abouhaidar\Desktop\myfiles\katalon\Test Run Report 26.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -30865,7 +30865,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Upload nan in file2upload Field</t>
+          <t>Upload C:\Users\johnny.abouhaidar\Desktop\myfiles\katalon\Test Run Report 26.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -30930,7 +30930,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+          <t>Upload C:\Users\johnny.abouhaidar\Desktop\myfiles\katalon\Test Run Report 26.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -30965,7 +30965,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Enter Smith in Lname Field</t>
+          <t>Enter New in Lname Field</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -30980,7 +30980,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Enter hello in comment Field</t>
+          <t>Enter 111 in comment Field</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -30995,7 +30995,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+          <t>Upload C:\Users\johnny.abouhaidar\Desktop\myfiles\katalon\Test Run Report 26.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -31015,7 +31015,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Enter Johnny in first Field</t>
+          <t>Enter John in first Field</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -31030,7 +31030,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Enter New in Lname Field</t>
+          <t>Enter Smith in Lname Field</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -31060,7 +31060,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Upload nan in file2upload Field</t>
+          <t>Upload C:\Users\johnny.abouhaidar\Desktop\myfiles\katalon\Test Run Report 26.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -31080,7 +31080,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Enter John in first Field</t>
+          <t>Enter Johnny in first Field</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -31095,7 +31095,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Enter New in Lname Field</t>
+          <t>Enter lname3 in Lname Field</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -31125,7 +31125,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Upload nan in file2upload Field</t>
+          <t>Upload C:\Users\johnny.abouhaidar\Desktop\myfiles\katalon\Test Run Report 26.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -31145,7 +31145,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Enter Johnny in first Field</t>
+          <t>Enter John in first Field</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -31160,7 +31160,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Enter New in Lname Field</t>
+          <t>Enter Smith in Lname Field</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -31190,7 +31190,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Upload nan in file2upload Field</t>
+          <t>Upload C:\Users\johnny.abouhaidar\Desktop\myfiles\katalon\Test Run Report 26.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -31210,7 +31210,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Enter John in first Field</t>
+          <t>Enter Johnny in first Field</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -31255,7 +31255,7 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+          <t>Upload C:\Users\johnny.abouhaidar\Desktop\myfiles\katalon\Test Run Report 26.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -31290,7 +31290,7 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Enter Smith in Lname Field</t>
+          <t>Enter lname3 in Lname Field</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -31320,7 +31320,7 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+          <t>Upload nan in file2upload Field</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -31355,7 +31355,7 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Enter lname3 in Lname Field</t>
+          <t>Enter Smith in Lname Field</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
@@ -31385,7 +31385,7 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+          <t>Upload C:\Users\johnny.abouhaidar\Desktop\myfiles\katalon\Test Run Report 26.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -31450,7 +31450,7 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Upload nan in file2upload Field</t>
+          <t>Upload C:\Users\johnny.abouhaidar\Desktop\myfiles\katalon\Test Run Report 26.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -31470,7 +31470,7 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Enter John in first Field</t>
+          <t>Enter Johnny in first Field</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -31485,7 +31485,7 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Enter lname3 in Lname Field</t>
+          <t>Enter New in Lname Field</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -31515,7 +31515,7 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+          <t>Upload C:\Users\johnny.abouhaidar\Desktop\myfiles\katalon\Test Run Report 26.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -31535,7 +31535,7 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Enter Johnny in first Field</t>
+          <t>Enter John in first Field</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -31580,7 +31580,7 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+          <t>Upload C:\Users\johnny.abouhaidar\Desktop\myfiles\katalon\Test Run Report 26.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -31600,7 +31600,7 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Enter John in first Field</t>
+          <t>Enter Johnny in first Field</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -31615,7 +31615,7 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Enter New in Lname Field</t>
+          <t>Enter Smith in Lname Field</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
@@ -31645,7 +31645,7 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Upload nan in file2upload Field</t>
+          <t>Upload C:\Users\johnny.abouhaidar\Desktop\myfiles\katalon\Test Run Report 26.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -31680,7 +31680,7 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Enter Smith in Lname Field</t>
+          <t>Enter lname3 in Lname Field</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -31710,7 +31710,7 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+          <t>Upload C:\Users\johnny.abouhaidar\Desktop\myfiles\katalon\Test Run Report 26.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
@@ -31745,7 +31745,7 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Enter lname3 in Lname Field</t>
+          <t>Enter Smith in Lname Field</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
@@ -31775,7 +31775,7 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Upload nan in file2upload Field</t>
+          <t>Upload C:\Users\johnny.abouhaidar\Desktop\myfiles\katalon\Test Run Report 26.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
@@ -31840,7 +31840,7 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+          <t>Upload C:\Users\johnny.abouhaidar\Desktop\myfiles\katalon\Test Run Report 26.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -31860,7 +31860,7 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Enter John in first Field</t>
+          <t>Enter Johnny in first Field</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -31875,7 +31875,7 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Enter Smith in Lname Field</t>
+          <t>Enter New in Lname Field</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
@@ -31890,7 +31890,7 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Enter hello in comment Field</t>
+          <t>Enter 111 in comment Field</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
@@ -31905,7 +31905,7 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Upload nan in file2upload Field</t>
+          <t>Upload C:\Users\johnny.abouhaidar\Desktop\myfiles\katalon\Test Run Report 26.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
@@ -31940,7 +31940,7 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Enter New in Lname Field</t>
+          <t>Enter Smith in Lname Field</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
@@ -31970,7 +31970,7 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Upload nan in file2upload Field</t>
+          <t>Upload C:\Users\johnny.abouhaidar\Desktop\myfiles\katalon\Test Run Report 26.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
@@ -31990,7 +31990,7 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Enter John in first Field</t>
+          <t>Enter Johnny in first Field</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -32005,7 +32005,7 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Enter Smith in Lname Field</t>
+          <t>Enter New in Lname Field</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
@@ -32035,7 +32035,7 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+          <t>Upload C:\Users\johnny.abouhaidar\Desktop\myfiles\katalon\Test Run Report 26.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
@@ -32070,7 +32070,7 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Enter New in Lname Field</t>
+          <t>Enter Smith in Lname Field</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
@@ -32085,7 +32085,7 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Enter 111 in comment Field</t>
+          <t>Enter hello in comment Field</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
@@ -32100,7 +32100,7 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+          <t>Upload C:\Users\johnny.abouhaidar\Desktop\myfiles\katalon\Test Run Report 26.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
@@ -32165,7 +32165,7 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+          <t>Upload C:\Users\johnny.abouhaidar\Desktop\myfiles\katalon\Test Run Report 26.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
@@ -32200,7 +32200,7 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Enter New in Lname Field</t>
+          <t>Enter Smith in Lname Field</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
@@ -32230,7 +32230,7 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+          <t>Upload C:\Users\johnny.abouhaidar\Desktop\myfiles\katalon\Test Run Report 26.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
@@ -32250,7 +32250,7 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Enter Johnny in first Field</t>
+          <t>Enter John in first Field</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
@@ -32265,7 +32265,7 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Enter Smith in Lname Field</t>
+          <t>Enter New in Lname Field</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
@@ -32280,7 +32280,7 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Enter 111 in comment Field</t>
+          <t>Enter hello in comment Field</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
@@ -32295,7 +32295,7 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+          <t>Upload C:\Users\johnny.abouhaidar\Desktop\myfiles\katalon\Test Run Report 26.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
@@ -32360,7 +32360,7 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+          <t>Upload C:\Users\johnny.abouhaidar\Desktop\myfiles\katalon\Test Run Report 26.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
@@ -32395,7 +32395,7 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Enter lname3 in Lname Field</t>
+          <t>Enter Smith in Lname Field</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
@@ -32410,7 +32410,7 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Enter 111 in comment Field</t>
+          <t>Enter hello in comment Field</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
@@ -32425,7 +32425,7 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+          <t>Upload nan in file2upload Field</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
@@ -32445,7 +32445,7 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Enter John in first Field</t>
+          <t>Enter Johnny in first Field</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
@@ -32460,7 +32460,7 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Enter lname3 in Lname Field</t>
+          <t>Enter New in Lname Field</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
@@ -32490,7 +32490,7 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+          <t>Upload nan in file2upload Field</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
@@ -32510,7 +32510,7 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Enter John in first Field</t>
+          <t>Enter Johnny in first Field</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
@@ -32525,7 +32525,7 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Enter New in Lname Field</t>
+          <t>Enter Smith in Lname Field</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
@@ -32555,7 +32555,7 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+          <t>Upload nan in file2upload Field</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
@@ -32590,7 +32590,7 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Enter New in Lname Field</t>
+          <t>Enter lname3 in Lname Field</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
@@ -32620,7 +32620,7 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+          <t>Upload nan in file2upload Field</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
@@ -32655,7 +32655,7 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Enter Smith in Lname Field</t>
+          <t>Enter New in Lname Field</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
@@ -32685,7 +32685,7 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+          <t>Upload nan in file2upload Field</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
@@ -32705,7 +32705,7 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Enter John in first Field</t>
+          <t>Enter Johnny in first Field</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
@@ -32720,7 +32720,7 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Enter Smith in Lname Field</t>
+          <t>Enter New in Lname Field</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
@@ -32750,7 +32750,7 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+          <t>Upload C:\Users\johnny.abouhaidar\Desktop\myfiles\katalon\Test Run Report 26.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
@@ -32785,7 +32785,7 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Enter Smith in Lname Field</t>
+          <t>Enter New in Lname Field</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
@@ -32815,7 +32815,7 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+          <t>Upload C:\Users\johnny.abouhaidar\Desktop\myfiles\katalon\Test Run Report 26.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
@@ -32850,7 +32850,7 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Enter New in Lname Field</t>
+          <t>Enter Smith in Lname Field</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
@@ -32880,7 +32880,7 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Upload nan in file2upload Field</t>
+          <t>Upload C:\Users\johnny.abouhaidar\Desktop\myfiles\katalon\Test Run Report 26.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
@@ -32915,7 +32915,7 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>Enter New in Lname Field</t>
+          <t>Enter Smith in Lname Field</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
@@ -32930,7 +32930,7 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>Enter hello in comment Field</t>
+          <t>Enter 111 in comment Field</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
@@ -32995,7 +32995,7 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>Enter hello in comment Field</t>
+          <t>Enter 111 in comment Field</t>
         </is>
       </c>
       <c r="F245" t="inlineStr">
@@ -33010,7 +33010,7 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+          <t>Upload C:\Users\johnny.abouhaidar\Desktop\myfiles\katalon\Test Run Report 26.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F246" t="inlineStr">
@@ -33030,7 +33030,7 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>Enter Johnny in first Field</t>
+          <t>Enter John in first Field</t>
         </is>
       </c>
       <c r="F247" t="inlineStr">
@@ -33045,7 +33045,7 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>Enter lname3 in Lname Field</t>
+          <t>Enter Smith in Lname Field</t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
@@ -33075,7 +33075,7 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+          <t>Upload nan in file2upload Field</t>
         </is>
       </c>
       <c r="F250" t="inlineStr">
@@ -33110,7 +33110,7 @@
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>Enter Smith in Lname Field</t>
+          <t>Enter lname3 in Lname Field</t>
         </is>
       </c>
       <c r="F252" t="inlineStr">
@@ -33140,7 +33140,7 @@
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+          <t>Upload C:\Users\johnny.abouhaidar\Desktop\myfiles\katalon\Test Run Report 26.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F254" t="inlineStr">
@@ -33175,7 +33175,7 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>Enter Smith in Lname Field</t>
+          <t>Enter lname3 in Lname Field</t>
         </is>
       </c>
       <c r="F256" t="inlineStr">
@@ -33205,7 +33205,7 @@
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+          <t>Upload C:\Users\johnny.abouhaidar\Desktop\myfiles\katalon\Test Run Report 26.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F258" t="inlineStr">
@@ -33240,7 +33240,7 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>Enter Smith in Lname Field</t>
+          <t>Enter lname3 in Lname Field</t>
         </is>
       </c>
       <c r="F260" t="inlineStr">
@@ -33270,7 +33270,7 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>Upload nan in file2upload Field</t>
+          <t>Upload C:\Users\johnny.abouhaidar\Desktop\myfiles\katalon\Test Run Report 26.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F262" t="inlineStr">
@@ -33305,7 +33305,7 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>Enter Smith in Lname Field</t>
+          <t>Enter New in Lname Field</t>
         </is>
       </c>
       <c r="F264" t="inlineStr">
@@ -33335,7 +33335,7 @@
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>Upload nan in file2upload Field</t>
+          <t>Upload C:\Users\johnny.abouhaidar\Desktop\myfiles\katalon\Test Run Report 26.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F266" t="inlineStr">
@@ -33355,7 +33355,7 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>Enter John in first Field</t>
+          <t>Enter Johnny in first Field</t>
         </is>
       </c>
       <c r="F267" t="inlineStr">
@@ -33400,7 +33400,7 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+          <t>Upload C:\Users\johnny.abouhaidar\Desktop\myfiles\katalon\Test Run Report 26.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F270" t="inlineStr">
@@ -33420,7 +33420,7 @@
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>Enter John in first Field</t>
+          <t>Enter Johnny in first Field</t>
         </is>
       </c>
       <c r="F271" t="inlineStr">
@@ -33435,7 +33435,7 @@
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>Enter New in Lname Field</t>
+          <t>Enter lname3 in Lname Field</t>
         </is>
       </c>
       <c r="F272" t="inlineStr">
@@ -33450,7 +33450,7 @@
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>Enter hello in comment Field</t>
+          <t>Enter 111 in comment Field</t>
         </is>
       </c>
       <c r="F273" t="inlineStr">
@@ -33465,7 +33465,7 @@
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+          <t>Upload C:\Users\johnny.abouhaidar\Desktop\myfiles\katalon\Test Run Report 26.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F274" t="inlineStr">
@@ -33500,7 +33500,7 @@
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>Enter lname3 in Lname Field</t>
+          <t>Enter Smith in Lname Field</t>
         </is>
       </c>
       <c r="F276" t="inlineStr">
@@ -33515,7 +33515,7 @@
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>Enter 111 in comment Field</t>
+          <t>Enter hello in comment Field</t>
         </is>
       </c>
       <c r="F277" t="inlineStr">
@@ -33530,7 +33530,7 @@
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+          <t>Upload C:\Users\johnny.abouhaidar\Desktop\myfiles\katalon\Test Run Report 26.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F278" t="inlineStr">
@@ -33550,7 +33550,7 @@
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>Enter Johnny in first Field</t>
+          <t>Enter John in first Field</t>
         </is>
       </c>
       <c r="F279" t="inlineStr">
@@ -33565,7 +33565,7 @@
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>Enter New in Lname Field</t>
+          <t>Enter Smith in Lname Field</t>
         </is>
       </c>
       <c r="F280" t="inlineStr">
@@ -33595,7 +33595,7 @@
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+          <t>Upload C:\Users\johnny.abouhaidar\Desktop\myfiles\katalon\Test Run Report 26.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F282" t="inlineStr">
@@ -33645,7 +33645,7 @@
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>Enter 111 in comment Field</t>
+          <t>Enter hello in comment Field</t>
         </is>
       </c>
       <c r="F285" t="inlineStr">
@@ -33660,7 +33660,7 @@
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+          <t>Upload C:\Users\johnny.abouhaidar\Desktop\myfiles\katalon\Test Run Report 26.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F286" t="inlineStr">
@@ -33680,7 +33680,7 @@
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>Enter Johnny in first Field</t>
+          <t>Enter John in first Field</t>
         </is>
       </c>
       <c r="F287" t="inlineStr">
@@ -33725,7 +33725,7 @@
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+          <t>Upload C:\Users\johnny.abouhaidar\Desktop\myfiles\katalon\Test Run Report 26.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F290" t="inlineStr">
@@ -33760,7 +33760,7 @@
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>Enter New in Lname Field</t>
+          <t>Enter Smith in Lname Field</t>
         </is>
       </c>
       <c r="F292" t="inlineStr">
@@ -33790,7 +33790,7 @@
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+          <t>Upload C:\Users\johnny.abouhaidar\Desktop\myfiles\katalon\Test Run Report 26.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F294" t="inlineStr">
@@ -33810,7 +33810,7 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>Enter Johnny in first Field</t>
+          <t>Enter John in first Field</t>
         </is>
       </c>
       <c r="F295" t="inlineStr">
@@ -33840,7 +33840,7 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>Enter hello in comment Field</t>
+          <t>Enter 111 in comment Field</t>
         </is>
       </c>
       <c r="F297" t="inlineStr">
@@ -33855,7 +33855,7 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+          <t>Upload C:\Users\johnny.abouhaidar\Desktop\myfiles\katalon\Test Run Report 26.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F298" t="inlineStr">
@@ -33890,7 +33890,7 @@
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>Enter lname3 in Lname Field</t>
+          <t>Enter Smith in Lname Field</t>
         </is>
       </c>
       <c r="F300" t="inlineStr">
@@ -33905,7 +33905,7 @@
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>Enter hello in comment Field</t>
+          <t>Enter 111 in comment Field</t>
         </is>
       </c>
       <c r="F301" t="inlineStr">
@@ -33920,7 +33920,7 @@
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+          <t>Upload C:\Users\johnny.abouhaidar\Desktop\myfiles\katalon\Test Run Report 26.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F302" t="inlineStr">
@@ -33955,7 +33955,7 @@
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>Enter New in Lname Field</t>
+          <t>Enter Smith in Lname Field</t>
         </is>
       </c>
       <c r="F304" t="inlineStr">
@@ -34005,7 +34005,7 @@
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>Enter John in first Field</t>
+          <t>Enter Johnny in first Field</t>
         </is>
       </c>
       <c r="F307" t="inlineStr">
@@ -34035,7 +34035,7 @@
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>Enter hello in comment Field</t>
+          <t>Enter 111 in comment Field</t>
         </is>
       </c>
       <c r="F309" t="inlineStr">
@@ -34050,7 +34050,7 @@
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+          <t>Upload C:\Users\johnny.abouhaidar\Desktop\myfiles\katalon\Test Run Report 26.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F310" t="inlineStr">
@@ -34085,7 +34085,7 @@
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>Enter Smith in Lname Field</t>
+          <t>Enter New in Lname Field</t>
         </is>
       </c>
       <c r="F312" t="inlineStr">
@@ -34100,7 +34100,7 @@
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>Enter 111 in comment Field</t>
+          <t>Enter hello in comment Field</t>
         </is>
       </c>
       <c r="F313" t="inlineStr">
@@ -34115,7 +34115,7 @@
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>Upload nan in file2upload Field</t>
+          <t>Upload C:\Users\johnny.abouhaidar\Desktop\myfiles\katalon\Test Run Report 26.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F314" t="inlineStr">
@@ -34150,7 +34150,7 @@
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>Enter lname3 in Lname Field</t>
+          <t>Enter New in Lname Field</t>
         </is>
       </c>
       <c r="F316" t="inlineStr">
@@ -34165,7 +34165,7 @@
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>Enter hello in comment Field</t>
+          <t>Enter 111 in comment Field</t>
         </is>
       </c>
       <c r="F317" t="inlineStr">
@@ -34180,7 +34180,7 @@
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+          <t>Upload C:\Users\johnny.abouhaidar\Desktop\myfiles\katalon\Test Run Report 26.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F318" t="inlineStr">
@@ -34200,7 +34200,7 @@
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>Enter John in first Field</t>
+          <t>Enter Johnny in first Field</t>
         </is>
       </c>
       <c r="F319" t="inlineStr">
@@ -34215,7 +34215,7 @@
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>Enter New in Lname Field</t>
+          <t>Enter Smith in Lname Field</t>
         </is>
       </c>
       <c r="F320" t="inlineStr">
@@ -34245,7 +34245,7 @@
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>Upload nan in file2upload Field</t>
+          <t>Upload C:\Users\johnny.abouhaidar\Desktop\myfiles\katalon\Test Run Report 26.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F322" t="inlineStr">
@@ -34280,7 +34280,7 @@
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>Enter Smith in Lname Field</t>
+          <t>Enter New in Lname Field</t>
         </is>
       </c>
       <c r="F324" t="inlineStr">
@@ -34310,7 +34310,7 @@
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+          <t>Upload C:\Users\johnny.abouhaidar\Desktop\myfiles\katalon\Test Run Report 26.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F326" t="inlineStr">
@@ -34330,7 +34330,7 @@
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>Enter Johnny in first Field</t>
+          <t>Enter John in first Field</t>
         </is>
       </c>
       <c r="F327" t="inlineStr">
@@ -34345,7 +34345,7 @@
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>Enter Smith in Lname Field</t>
+          <t>Enter New in Lname Field</t>
         </is>
       </c>
       <c r="F328" t="inlineStr">
@@ -34375,7 +34375,7 @@
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>Upload nan in file2upload Field</t>
+          <t>Upload C:\Users\johnny.abouhaidar\Desktop\myfiles\katalon\Test Run Report 26.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F330" t="inlineStr">
@@ -34395,7 +34395,7 @@
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>Enter John in first Field</t>
+          <t>Enter Johnny in first Field</t>
         </is>
       </c>
       <c r="F331" t="inlineStr">
@@ -34410,7 +34410,7 @@
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>Enter Smith in Lname Field</t>
+          <t>Enter New in Lname Field</t>
         </is>
       </c>
       <c r="F332" t="inlineStr">
@@ -34440,7 +34440,7 @@
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+          <t>Upload C:\Users\johnny.abouhaidar\Desktop\myfiles\katalon\Test Run Report 26.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F334" t="inlineStr">
@@ -34475,7 +34475,7 @@
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>Enter lname3 in Lname Field</t>
+          <t>Enter New in Lname Field</t>
         </is>
       </c>
       <c r="F336" t="inlineStr">
@@ -34505,7 +34505,7 @@
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+          <t>Upload C:\Users\johnny.abouhaidar\Desktop\myfiles\katalon\Test Run Report 26.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F338" t="inlineStr">
@@ -34540,7 +34540,7 @@
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>Enter Smith in Lname Field</t>
+          <t>Enter New in Lname Field</t>
         </is>
       </c>
       <c r="F340" t="inlineStr">
@@ -34570,7 +34570,7 @@
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+          <t>Upload nan in file2upload Field</t>
         </is>
       </c>
       <c r="F342" t="inlineStr">
@@ -34590,7 +34590,7 @@
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>Enter John in first Field</t>
+          <t>Enter Johnny in first Field</t>
         </is>
       </c>
       <c r="F343" t="inlineStr">
@@ -34635,7 +34635,7 @@
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>Upload nan in file2upload Field</t>
+          <t>Upload C:\Users\johnny.abouhaidar\Desktop\myfiles\katalon\Test Run Report 26.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F346" t="inlineStr">
@@ -34655,7 +34655,7 @@
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>Enter John in first Field</t>
+          <t>Enter Johnny in first Field</t>
         </is>
       </c>
       <c r="F347" t="inlineStr">
@@ -34670,7 +34670,7 @@
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>Enter lname3 in Lname Field</t>
+          <t>Enter New in Lname Field</t>
         </is>
       </c>
       <c r="F348" t="inlineStr">
@@ -34700,7 +34700,7 @@
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+          <t>Upload C:\Users\johnny.abouhaidar\Desktop\myfiles\katalon\Test Run Report 26.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F350" t="inlineStr">
@@ -34720,7 +34720,7 @@
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>Enter John in first Field</t>
+          <t>Enter Johnny in first Field</t>
         </is>
       </c>
       <c r="F351" t="inlineStr">
@@ -34735,7 +34735,7 @@
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>Enter New in Lname Field</t>
+          <t>Enter Smith in Lname Field</t>
         </is>
       </c>
       <c r="F352" t="inlineStr">
@@ -34750,7 +34750,7 @@
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>Enter 111 in comment Field</t>
+          <t>Enter hello in comment Field</t>
         </is>
       </c>
       <c r="F353" t="inlineStr">
@@ -34765,7 +34765,7 @@
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+          <t>Upload C:\Users\johnny.abouhaidar\Desktop\myfiles\katalon\Test Run Report 26.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F354" t="inlineStr">
@@ -34785,7 +34785,7 @@
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>Enter Johnny in first Field</t>
+          <t>Enter John in first Field</t>
         </is>
       </c>
       <c r="F355" t="inlineStr">
@@ -34830,7 +34830,7 @@
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+          <t>Upload C:\Users\johnny.abouhaidar\Desktop\myfiles\katalon\Test Run Report 26.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F358" t="inlineStr">
@@ -34865,7 +34865,7 @@
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>Enter New in Lname Field</t>
+          <t>Enter Smith in Lname Field</t>
         </is>
       </c>
       <c r="F360" t="inlineStr">
@@ -34880,7 +34880,7 @@
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>Enter hello in comment Field</t>
+          <t>Enter 111 in comment Field</t>
         </is>
       </c>
       <c r="F361" t="inlineStr">
@@ -34895,7 +34895,7 @@
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+          <t>Upload C:\Users\johnny.abouhaidar\Desktop\myfiles\katalon\Test Run Report 26.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F362" t="inlineStr">
@@ -34915,7 +34915,7 @@
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>Enter John in first Field</t>
+          <t>Enter Johnny in first Field</t>
         </is>
       </c>
       <c r="F363" t="inlineStr">
@@ -34930,7 +34930,7 @@
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>Enter New in Lname Field</t>
+          <t>Enter Smith in Lname Field</t>
         </is>
       </c>
       <c r="F364" t="inlineStr">
@@ -34945,7 +34945,7 @@
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>Enter hello in comment Field</t>
+          <t>Enter 111 in comment Field</t>
         </is>
       </c>
       <c r="F365" t="inlineStr">
@@ -34960,7 +34960,7 @@
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+          <t>Upload C:\Users\johnny.abouhaidar\Desktop\myfiles\katalon\Test Run Report 26.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F366" t="inlineStr">
@@ -34995,7 +34995,7 @@
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>Enter New in Lname Field</t>
+          <t>Enter Smith in Lname Field</t>
         </is>
       </c>
       <c r="F368" t="inlineStr">
@@ -35090,7 +35090,7 @@
       </c>
       <c r="E374" t="inlineStr">
         <is>
-          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+          <t>Upload C:\Users\johnny.abouhaidar\Desktop\myfiles\katalon\Test Run Report 26.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F374" t="inlineStr">
@@ -35110,7 +35110,7 @@
       </c>
       <c r="E375" t="inlineStr">
         <is>
-          <t>Enter Johnny in first Field</t>
+          <t>Enter John in first Field</t>
         </is>
       </c>
       <c r="F375" t="inlineStr">
@@ -35155,7 +35155,7 @@
       </c>
       <c r="E378" t="inlineStr">
         <is>
-          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+          <t>Upload C:\Users\johnny.abouhaidar\Desktop\myfiles\katalon\Test Run Report 26.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F378" t="inlineStr">
@@ -35190,7 +35190,7 @@
       </c>
       <c r="E380" t="inlineStr">
         <is>
-          <t>Enter lname3 in Lname Field</t>
+          <t>Enter Smith in Lname Field</t>
         </is>
       </c>
       <c r="F380" t="inlineStr">
@@ -35220,7 +35220,7 @@
       </c>
       <c r="E382" t="inlineStr">
         <is>
-          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+          <t>Upload nan in file2upload Field</t>
         </is>
       </c>
       <c r="F382" t="inlineStr">
@@ -35255,7 +35255,7 @@
       </c>
       <c r="E384" t="inlineStr">
         <is>
-          <t>Enter Smith in Lname Field</t>
+          <t>Enter New in Lname Field</t>
         </is>
       </c>
       <c r="F384" t="inlineStr">
@@ -35285,7 +35285,7 @@
       </c>
       <c r="E386" t="inlineStr">
         <is>
-          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+          <t>Upload C:\Users\johnny.abouhaidar\Desktop\myfiles\katalon\Test Run Report 26.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F386" t="inlineStr">
@@ -35320,7 +35320,7 @@
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>Enter New in Lname Field</t>
+          <t>Enter Smith in Lname Field</t>
         </is>
       </c>
       <c r="F388" t="inlineStr">
@@ -35350,7 +35350,7 @@
       </c>
       <c r="E390" t="inlineStr">
         <is>
-          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+          <t>Upload C:\Users\johnny.abouhaidar\Desktop\myfiles\katalon\Test Run Report 26.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F390" t="inlineStr">
@@ -35370,7 +35370,7 @@
       </c>
       <c r="E391" t="inlineStr">
         <is>
-          <t>Enter Johnny in first Field</t>
+          <t>Enter John in first Field</t>
         </is>
       </c>
       <c r="F391" t="inlineStr">
@@ -35415,7 +35415,7 @@
       </c>
       <c r="E394" t="inlineStr">
         <is>
-          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+          <t>Upload C:\Users\johnny.abouhaidar\Desktop\myfiles\katalon\Test Run Report 26.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F394" t="inlineStr">
@@ -35435,7 +35435,7 @@
       </c>
       <c r="E395" t="inlineStr">
         <is>
-          <t>Enter Johnny in first Field</t>
+          <t>Enter John in first Field</t>
         </is>
       </c>
       <c r="F395" t="inlineStr">
@@ -35465,7 +35465,7 @@
       </c>
       <c r="E397" t="inlineStr">
         <is>
-          <t>Enter 111 in comment Field</t>
+          <t>Enter hello in comment Field</t>
         </is>
       </c>
       <c r="F397" t="inlineStr">
@@ -35480,7 +35480,7 @@
       </c>
       <c r="E398" t="inlineStr">
         <is>
-          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+          <t>Upload C:\Users\johnny.abouhaidar\Desktop\myfiles\katalon\Test Run Report 26.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F398" t="inlineStr">
@@ -35515,7 +35515,7 @@
       </c>
       <c r="E400" t="inlineStr">
         <is>
-          <t>Enter New in Lname Field</t>
+          <t>Enter Smith in Lname Field</t>
         </is>
       </c>
       <c r="F400" t="inlineStr">
@@ -35545,7 +35545,7 @@
       </c>
       <c r="E402" t="inlineStr">
         <is>
-          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+          <t>Upload C:\Users\johnny.abouhaidar\Desktop\myfiles\katalon\Test Run Report 26.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F402" t="inlineStr">
@@ -35595,7 +35595,7 @@
       </c>
       <c r="E405" t="inlineStr">
         <is>
-          <t>Enter hello in comment Field</t>
+          <t>Enter 111 in comment Field</t>
         </is>
       </c>
       <c r="F405" t="inlineStr">
@@ -35610,7 +35610,7 @@
       </c>
       <c r="E406" t="inlineStr">
         <is>
-          <t>Upload C:\users\johnny\file3.pdf in file2upload Field</t>
+          <t>Upload C:\Users\johnny.abouhaidar\Desktop\myfiles\katalon\Test Run Report 26.pdf in file2upload Field</t>
         </is>
       </c>
       <c r="F406" t="inlineStr">
@@ -35684,106 +35684,6 @@
         </is>
       </c>
     </row>
-    <row r="411"/>
-    <row r="412"/>
-    <row r="413"/>
-    <row r="414"/>
-    <row r="415"/>
-    <row r="416"/>
-    <row r="417"/>
-    <row r="418"/>
-    <row r="419"/>
-    <row r="420"/>
-    <row r="421"/>
-    <row r="422"/>
-    <row r="423"/>
-    <row r="424"/>
-    <row r="425"/>
-    <row r="426"/>
-    <row r="427"/>
-    <row r="428"/>
-    <row r="429"/>
-    <row r="430"/>
-    <row r="431"/>
-    <row r="432"/>
-    <row r="433"/>
-    <row r="434"/>
-    <row r="435"/>
-    <row r="436"/>
-    <row r="437"/>
-    <row r="438"/>
-    <row r="439"/>
-    <row r="440"/>
-    <row r="441"/>
-    <row r="442"/>
-    <row r="443"/>
-    <row r="444"/>
-    <row r="445"/>
-    <row r="446"/>
-    <row r="447"/>
-    <row r="448"/>
-    <row r="449"/>
-    <row r="450"/>
-    <row r="451"/>
-    <row r="452"/>
-    <row r="453"/>
-    <row r="454"/>
-    <row r="455"/>
-    <row r="456"/>
-    <row r="457"/>
-    <row r="458"/>
-    <row r="459"/>
-    <row r="460"/>
-    <row r="461"/>
-    <row r="462"/>
-    <row r="463"/>
-    <row r="464"/>
-    <row r="465"/>
-    <row r="466"/>
-    <row r="467"/>
-    <row r="468"/>
-    <row r="469"/>
-    <row r="470"/>
-    <row r="471"/>
-    <row r="472"/>
-    <row r="473"/>
-    <row r="474"/>
-    <row r="475"/>
-    <row r="476"/>
-    <row r="477"/>
-    <row r="478"/>
-    <row r="479"/>
-    <row r="480"/>
-    <row r="481"/>
-    <row r="482"/>
-    <row r="483"/>
-    <row r="484"/>
-    <row r="485"/>
-    <row r="486"/>
-    <row r="487"/>
-    <row r="488"/>
-    <row r="489"/>
-    <row r="490"/>
-    <row r="491"/>
-    <row r="492"/>
-    <row r="493"/>
-    <row r="494"/>
-    <row r="495"/>
-    <row r="496"/>
-    <row r="497"/>
-    <row r="498"/>
-    <row r="499"/>
-    <row r="500"/>
-    <row r="501"/>
-    <row r="502"/>
-    <row r="503"/>
-    <row r="504"/>
-    <row r="505"/>
-    <row r="506"/>
-    <row r="507"/>
-    <row r="508"/>
-    <row r="509"/>
-    <row r="510"/>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="K22:K28"/>
